--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830C9B5-2192-427B-BAFB-FE2DCD16F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0538D8A-E67F-4755-9D7A-51810ED9DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="572" xr2:uid="{738F6AC3-FEF2-0849-9025-0F50FEEDD7DB}"/>
+    <workbookView xWindow="-28920" yWindow="13005" windowWidth="29040" windowHeight="15840" tabRatio="572" xr2:uid="{738F6AC3-FEF2-0849-9025-0F50FEEDD7DB}"/>
   </bookViews>
   <sheets>
     <sheet name="animal phenotypes" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="250">
   <si>
     <t>When</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>T1102M (IGT)</t>
+  </si>
+  <si>
+    <t>litter</t>
   </si>
 </sst>
 </file>
@@ -25873,32 +25876,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE66A1A7-F666-4315-911C-3CBD5B505094}">
-  <dimension ref="A1:BL33"/>
+  <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AX24" sqref="AX24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="3" width="12.58203125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="55" width="18.33203125" customWidth="1"/>
-    <col min="56" max="56" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="40" width="14.6640625" customWidth="1"/>
+    <col min="41" max="56" width="18.33203125" customWidth="1"/>
+    <col min="57" max="57" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:65">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -25906,3296 +25909,3349 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
         <v>178</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>192</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>193</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>188</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>186</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>194</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>195</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>196</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>197</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>199</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>200</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>201</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>203</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>204</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>205</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>206</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>207</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>208</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>209</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>210</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>211</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>212</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>213</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>214</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>216</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>215</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>217</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>218</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>219</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>220</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>221</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>222</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>223</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>224</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>225</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>226</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>227</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>228</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>229</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>230</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>115</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>116</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>120</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>117</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>121</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>122</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>125</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>130</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:65">
       <c r="A2" s="5">
         <v>1060</v>
       </c>
       <c r="B2" s="2">
         <v>44219</v>
       </c>
-      <c r="C2" s="2" t="b">
+      <c r="C2" s="57">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>58.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>178</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>314.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>551</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>589</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>200</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1761.75</v>
       </c>
-      <c r="L2" s="58">
+      <c r="M2" s="58">
         <v>2.3580000000000001</v>
       </c>
-      <c r="M2" s="58">
+      <c r="N2" s="58">
         <v>2.1539999999999999</v>
       </c>
-      <c r="N2" s="58">
+      <c r="O2" s="58">
         <v>2.5369999999999999</v>
       </c>
-      <c r="O2" s="58">
+      <c r="P2" s="58">
         <v>2.2069999999999999</v>
       </c>
-      <c r="P2" s="58">
+      <c r="Q2" s="58">
         <v>3.3959999999999999</v>
       </c>
-      <c r="Q2" s="58">
+      <c r="R2" s="58">
         <v>5.5759999999999996</v>
       </c>
-      <c r="R2">
-        <f>E2+(0.5*(E2-H2))+H2+(0.5*(J2-H2))+L2+(0.5*(J2-L2))+L2+(0.5*(N2-L2))+N2+(0.5*(P2-N2))</f>
+      <c r="S2">
+        <f>F2+(0.5*(F2-I2))+I2+(0.5*(K2-I2))+M2+(0.5*(K2-M2))+M2+(0.5*(O2-M2))+O2+(0.5*(Q2-O2))</f>
         <v>294.34299999999996</v>
       </c>
-      <c r="S2" s="67">
+      <c r="T2" s="67">
         <v>71.000000099999994</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <f>(214+236)/2</f>
         <v>225</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f>(82+84)/2</f>
         <v>83</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <f>(203+209)/2</f>
         <v>206</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <f>(210+232)/2</f>
         <v>221</v>
       </c>
-      <c r="X2" s="32">
+      <c r="Y2" s="32">
         <f>(206+180)/2</f>
         <v>193</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>(40+42)/2</f>
         <v>41</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>(47+49)/2</f>
         <v>48</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>(46+59)/2</f>
         <v>52.5</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f>(52+48)/2</f>
         <v>50</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <f>(60+57)/2</f>
         <v>58.5</v>
       </c>
-      <c r="AD2" s="58">
+      <c r="AE2" s="58">
         <v>2.8740000000000001</v>
       </c>
-      <c r="AE2" s="58">
+      <c r="AF2" s="58">
         <v>1.6679999999999999</v>
       </c>
-      <c r="AF2" s="58">
+      <c r="AG2" s="58">
         <v>0.96350000000000002</v>
       </c>
-      <c r="AG2" s="58">
+      <c r="AH2" s="58">
         <v>1.4139999999999999</v>
       </c>
-      <c r="AH2" s="58">
+      <c r="AI2" s="58">
         <v>2.3580000000000001</v>
       </c>
-      <c r="AI2" s="58">
+      <c r="AJ2" s="58">
         <v>11.42</v>
       </c>
-      <c r="AJ2" s="58">
+      <c r="AK2" s="58">
         <v>12.25</v>
       </c>
-      <c r="AK2" s="58">
+      <c r="AL2" s="58">
         <v>13.18</v>
       </c>
-      <c r="AL2" s="58">
+      <c r="AM2" s="58">
         <v>11.28</v>
       </c>
-      <c r="AM2" s="58">
+      <c r="AN2" s="58">
         <v>32.33</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>53.7</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>92.6</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>98.1</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>100.9</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>104.4</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>104.6</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>85.4</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>90.9</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>94.9</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>99.5</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>105.1</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>90.2</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>96</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>101.3</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>104.5</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>105.1</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>2.0448</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>1.9455756422454804</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>0.71850000000000003</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>0.68363463368220745</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>2.8459290187891439</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>131</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:65">
       <c r="A3" s="6">
         <v>1061</v>
       </c>
       <c r="B3" s="2">
         <v>44219</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" s="57">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>48</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>196.5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>344.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>449.5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>518</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>284.5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1674.8</v>
       </c>
-      <c r="L3" s="58">
+      <c r="M3" s="58">
         <v>3.0870000000000002</v>
       </c>
-      <c r="M3" s="58">
+      <c r="N3" s="58">
         <v>2.407</v>
       </c>
-      <c r="N3" s="58">
+      <c r="O3" s="58">
         <v>1.7829999999999999</v>
       </c>
-      <c r="O3" s="58">
+      <c r="P3" s="58">
         <v>1.425</v>
       </c>
-      <c r="P3" s="58">
+      <c r="Q3" s="58">
         <v>2.1549999999999998</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="R3" s="58">
         <v>2.6480000000000001</v>
       </c>
-      <c r="R3">
-        <f>E3+(0.5*(E3-H3))+J3+(0.5*(H3-J3))+L3+(0.5*(J3-L3))+L3+(0.5*(N3-L3))+N3+(0.5*(P3-N3))</f>
+      <c r="S3">
+        <f>F3+(0.5*(F3-I3))+K3+(0.5*(I3-K3))+M3+(0.5*(K3-M3))+M3+(0.5*(O3-M3))+O3+(0.5*(Q3-O3))</f>
         <v>362.44749999999999</v>
       </c>
-      <c r="S3" s="67">
+      <c r="T3" s="67">
         <v>73</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <f>(279+251)/2</f>
         <v>265</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <f>(269+310)/2</f>
         <v>289.5</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <f>(314+338)/2</f>
         <v>326</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <f>(295+323)/2</f>
         <v>309</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <f>(335+406)/2</f>
         <v>370.5</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>(43+43)/2</f>
         <v>43</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f>(44+44)/2</f>
         <v>44</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f>(36+44)/2</f>
         <v>40</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f>(36+32)/2</f>
         <v>34</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <f>(42+54)/2</f>
         <v>48</v>
       </c>
-      <c r="AD3" s="58">
+      <c r="AE3" s="58">
         <v>1.92</v>
       </c>
-      <c r="AE3" s="58">
+      <c r="AF3" s="58">
         <v>3.101</v>
       </c>
-      <c r="AF3" s="58">
+      <c r="AG3" s="58">
         <v>1.89</v>
       </c>
-      <c r="AG3" s="58">
+      <c r="AH3" s="58">
         <v>1.681</v>
       </c>
-      <c r="AH3" s="58">
+      <c r="AI3" s="58">
         <v>3.0870000000000002</v>
       </c>
-      <c r="AI3" s="58">
+      <c r="AJ3" s="58">
         <v>16.899999999999999</v>
       </c>
-      <c r="AJ3" s="58">
+      <c r="AK3" s="58">
         <v>13.42</v>
       </c>
-      <c r="AK3" s="58">
+      <c r="AL3" s="58">
         <v>9.6669999999999998</v>
       </c>
-      <c r="AL3" s="58">
+      <c r="AM3" s="58">
         <v>6.6989999999999998</v>
       </c>
-      <c r="AM3" s="58">
+      <c r="AN3" s="58">
         <v>48.37</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>52.1</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>88.9</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>93.4</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>98.2</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>98.8</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>100.4</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>82.5</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>86.7</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>92.5</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>94.3</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>101.7</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>85.9</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>90.7</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>97</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>98.1</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>101.7</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>1.7807999999999999</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>1.7510324483775812</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>0.60589999999999999</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>0.59577187807276299</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>2.9390988611982181</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>131</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:65">
       <c r="A4" s="6">
         <v>1062</v>
       </c>
       <c r="B4" s="2">
         <v>44219</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" s="57">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>177</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>56.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>219</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>334</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>462</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>511</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>189</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1648.75</v>
       </c>
-      <c r="L4" s="58">
+      <c r="M4" s="58">
         <v>3.3439999999999999</v>
       </c>
-      <c r="M4" s="58">
+      <c r="N4" s="58">
         <v>2.5910000000000002</v>
       </c>
-      <c r="N4" s="58">
+      <c r="O4" s="58">
         <v>3.4980000000000002</v>
       </c>
-      <c r="O4" s="58">
+      <c r="P4" s="58">
         <v>2.8780000000000001</v>
       </c>
-      <c r="P4" s="58">
+      <c r="Q4" s="58">
         <v>3.0760000000000001</v>
       </c>
-      <c r="Q4" s="58">
+      <c r="R4" s="58">
         <v>5.2809999999999997</v>
       </c>
-      <c r="R4">
-        <f>H4+(0.5*(E4-H4))+H4+(0.5*(J4-H4))+L4+(0.5*(J4-L4))+L4+(0.5*(N4-L4))+N4+(0.5*(P4-N4))</f>
+      <c r="S4">
+        <f>I4+(0.5*(F4-I4))+I4+(0.5*(K4-I4))+M4+(0.5*(K4-M4))+M4+(0.5*(O4-M4))+O4+(0.5*(Q4-O4))</f>
         <v>687.63000000000011</v>
       </c>
-      <c r="S4" s="67">
+      <c r="T4" s="67">
         <v>78</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <f>(249+264)/2</f>
         <v>256.5</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <f>(266+235)/2</f>
         <v>250.5</v>
       </c>
-      <c r="V4" s="32">
+      <c r="W4" s="32">
         <f>(137+142)/2</f>
         <v>139.5</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <f>(248+249)/2</f>
         <v>248.5</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f>(91+107+76+81+86+101)/6</f>
         <v>90.333333333333329</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f>(60+52+45)/3</f>
         <v>52.333333333333336</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>(47+49)/2</f>
         <v>48</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f>(40+40)/2</f>
         <v>40</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f>(41+36)/2</f>
         <v>38.5</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f>(55+58)/2</f>
         <v>56.5</v>
       </c>
-      <c r="AD4" s="58">
+      <c r="AE4" s="58">
         <v>4.1539999999999999</v>
       </c>
-      <c r="AE4" s="58">
+      <c r="AF4" s="58">
         <v>2.879</v>
       </c>
-      <c r="AF4" s="58">
+      <c r="AG4" s="58">
         <v>1.9770000000000001</v>
       </c>
-      <c r="AG4" s="58">
+      <c r="AH4" s="58">
         <v>2.734</v>
       </c>
-      <c r="AH4" s="58">
+      <c r="AI4" s="58">
         <v>3.3439999999999999</v>
       </c>
-      <c r="AI4" s="58">
+      <c r="AJ4" s="58">
         <v>10.37</v>
       </c>
-      <c r="AJ4" s="58">
+      <c r="AK4" s="58">
         <v>12.76</v>
       </c>
-      <c r="AK4" s="58">
+      <c r="AL4" s="58">
         <v>11.56</v>
       </c>
-      <c r="AL4" s="58">
+      <c r="AM4" s="58">
         <v>9.4499999999999993</v>
       </c>
-      <c r="AM4" s="58">
+      <c r="AN4" s="58">
         <v>38.47</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>51.3</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>93.5</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>99.3</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>103</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>107</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>106.9</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>86.7</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>91.9</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>96.8</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>102.1</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>109.1</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>91.2</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>96.1</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>101.3</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>106.7</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>109.1</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>2.5185</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>2.3084326306141154</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>0.74390000000000001</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>0.68185151237396879</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <v>3.3855356902809519</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>131</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:65">
       <c r="A5" s="36">
         <v>1063</v>
       </c>
       <c r="B5" s="40">
         <v>44219</v>
       </c>
-      <c r="C5" s="40" t="b">
+      <c r="C5" s="57">
         <v>0</v>
       </c>
-      <c r="L5" s="59">
+      <c r="D5" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
         <v>4.3659999999999997</v>
       </c>
-      <c r="M5" s="59"/>
       <c r="N5" s="59"/>
       <c r="O5" s="59"/>
       <c r="P5" s="59"/>
       <c r="Q5" s="59"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="68">
+      <c r="R5" s="59"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="68">
         <v>73</v>
       </c>
-      <c r="T5" s="43">
+      <c r="U5" s="43">
         <f>(58+68)/2</f>
         <v>63</v>
       </c>
-      <c r="U5" s="43">
+      <c r="V5" s="43">
         <f>(45+48)/2</f>
         <v>46.5</v>
       </c>
-      <c r="V5" s="43">
+      <c r="W5" s="43">
         <f>(75+81)/2</f>
         <v>78</v>
       </c>
-      <c r="W5" s="43">
+      <c r="X5" s="43">
         <f>(59+67)/2</f>
         <v>63</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43">
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43">
         <f>(40+42)/2</f>
         <v>41</v>
       </c>
-      <c r="Z5" s="43">
+      <c r="AA5" s="43">
         <f>(52+48)/2</f>
         <v>50</v>
       </c>
-      <c r="AA5" s="43">
+      <c r="AB5" s="43">
         <f>(63+66)/2</f>
         <v>64.5</v>
       </c>
-      <c r="AB5" s="43">
+      <c r="AC5" s="43">
         <f>(68+59)/2</f>
         <v>63.5</v>
       </c>
-      <c r="AC5" s="43">
+      <c r="AD5" s="43">
         <f>(41+43)/2</f>
         <v>42</v>
       </c>
-      <c r="AD5" s="58">
+      <c r="AE5" s="58">
         <v>2.3039999999999998</v>
       </c>
-      <c r="AE5" s="59">
+      <c r="AF5" s="59">
         <v>0.99519999999999997</v>
       </c>
-      <c r="AF5" s="59">
+      <c r="AG5" s="59">
         <v>1.381</v>
       </c>
-      <c r="AG5" s="59">
+      <c r="AH5" s="59">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AH5" s="59">
+      <c r="AI5" s="59">
         <v>4.3659999999999997</v>
       </c>
-      <c r="AI5" s="59">
+      <c r="AJ5" s="59">
         <v>43.94</v>
       </c>
-      <c r="AJ5" s="60">
+      <c r="AK5" s="60">
         <v>10.64</v>
       </c>
-      <c r="AK5" s="59">
+      <c r="AL5" s="59">
         <v>39.24</v>
       </c>
-      <c r="AL5" s="59">
+      <c r="AM5" s="59">
         <v>51.56</v>
       </c>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="43">
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="43">
         <v>49.6</v>
       </c>
-      <c r="AO5" s="43">
+      <c r="AP5" s="43">
         <v>91.9</v>
       </c>
-      <c r="AP5" s="43">
+      <c r="AQ5" s="43">
         <v>98.3</v>
       </c>
-      <c r="AQ5" s="43">
+      <c r="AR5" s="43">
         <v>102.8</v>
       </c>
-      <c r="AR5" s="43">
+      <c r="AS5" s="43">
         <v>105</v>
       </c>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43">
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43">
         <v>85.2</v>
       </c>
-      <c r="AU5" s="43">
+      <c r="AV5" s="43">
         <v>92.5</v>
       </c>
-      <c r="AV5" s="43">
+      <c r="AW5" s="43">
         <v>97.1</v>
       </c>
-      <c r="AW5" s="43">
+      <c r="AX5" s="43">
         <v>101</v>
       </c>
-      <c r="AX5" s="43">
+      <c r="AY5" s="43">
         <v>109.2</v>
       </c>
-      <c r="AY5" s="43">
+      <c r="AZ5" s="43">
         <v>89</v>
       </c>
-      <c r="AZ5" s="43">
+      <c r="BA5" s="43">
         <v>96.7</v>
       </c>
-      <c r="BA5" s="43">
+      <c r="BB5" s="43">
         <v>102.3</v>
       </c>
-      <c r="BB5" s="43">
+      <c r="BC5" s="43">
         <v>105.7</v>
       </c>
-      <c r="BC5" s="43">
+      <c r="BD5" s="43">
         <v>109.2</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>2.5485000000000002</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>2.3337912087912089</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>0.86140000000000005</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>0.78882783882783891</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5">
         <v>2.9585558393313209</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>128</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:65">
       <c r="A6" s="5">
         <v>1074</v>
       </c>
       <c r="B6" s="2">
         <v>44219</v>
       </c>
-      <c r="C6" s="2" t="b">
+      <c r="C6" s="57">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>177</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>38.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>160</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>308</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>368</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>445.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>99</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1350.25</v>
       </c>
-      <c r="L6" s="58">
+      <c r="M6" s="58">
         <v>1.81</v>
       </c>
-      <c r="M6" s="58">
+      <c r="N6" s="58">
         <v>2.81</v>
       </c>
-      <c r="N6" s="58">
+      <c r="O6" s="58">
         <v>4.8310000000000004</v>
       </c>
-      <c r="O6" s="58">
+      <c r="P6" s="58">
         <v>3.99</v>
       </c>
-      <c r="P6" s="58">
+      <c r="Q6" s="58">
         <v>7</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="R6" s="62">
         <v>4.88</v>
       </c>
-      <c r="R6">
-        <f>E6+(0.5*(H6-E6))+H6+(0.5*(J6-H6))+L6+(0.5*(J6-L6))+L6+(0.5*(N6-L6))+P6+(0.5*(N6-P6))</f>
+      <c r="S6">
+        <f>F6+(0.5*(I6-F6))+I6+(0.5*(K6-I6))+M6+(0.5*(K6-M6))+M6+(0.5*(O6-M6))+Q6+(0.5*(O6-Q6))</f>
         <v>496.39099999999996</v>
       </c>
-      <c r="S6" s="67">
+      <c r="T6" s="67">
         <v>70</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <f>(249+216)/2</f>
         <v>232.5</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <f>(203+204)/2</f>
         <v>203.5</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <f>(209+202)/2</f>
         <v>205.5</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <f>(219+232)/2</f>
         <v>225.5</v>
       </c>
-      <c r="X6" s="32">
+      <c r="Y6" s="32">
         <f>(180+99)/2</f>
         <v>139.5</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <f>(160+195+159)/3</f>
         <v>171.33333333333334</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f>(48+55)/2</f>
         <v>51.5</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f>(53+57)/2</f>
         <v>55</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f>(45+47)/2</f>
         <v>46</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f>(37+40)/2</f>
         <v>38.5</v>
       </c>
-      <c r="AD6" s="58">
+      <c r="AE6" s="58">
         <v>7.3869999999999996</v>
       </c>
-      <c r="AE6" s="58">
+      <c r="AF6" s="58">
         <v>2.7650000000000001</v>
       </c>
-      <c r="AF6" s="58">
+      <c r="AG6" s="58">
         <v>1.3919999999999999</v>
       </c>
-      <c r="AG6" s="58">
+      <c r="AH6" s="58">
         <v>2.5710000000000002</v>
       </c>
-      <c r="AH6" s="58">
+      <c r="AI6" s="58">
         <v>1.81</v>
       </c>
-      <c r="AI6" s="58">
+      <c r="AJ6" s="58">
         <v>8.1869999999999994</v>
       </c>
-      <c r="AJ6" s="58">
+      <c r="AK6" s="58">
         <v>14.11</v>
       </c>
-      <c r="AK6" s="58">
+      <c r="AL6" s="58">
         <v>13.63</v>
       </c>
-      <c r="AL6" s="58">
+      <c r="AM6" s="58">
         <v>14.34</v>
       </c>
-      <c r="AM6" s="58">
+      <c r="AN6" s="58">
         <v>25.71</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>55.8</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>95.7</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>102.3</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>106.3</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>108.3</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>108.6</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>93.2</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>95.6</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>100.5</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>103.4</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>110.4</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>96.7</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>98.7</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>106.2</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>110.1</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>110.4</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>2.5059999999999998</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>2.2699275362318838</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>0.71640000000000004</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>0.64891304347826084</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <v>3.4980457844779451</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>131</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:65">
       <c r="A7" s="6">
         <v>1075</v>
       </c>
       <c r="B7" s="2">
         <v>44219</v>
       </c>
-      <c r="C7" s="2" t="b">
+      <c r="C7" s="57">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>169</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>355</v>
-      </c>
-      <c r="G7">
-        <v>600</v>
       </c>
       <c r="H7">
         <v>600</v>
       </c>
       <c r="I7">
+        <v>600</v>
+      </c>
+      <c r="J7">
         <v>569.5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>392</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3365</v>
       </c>
-      <c r="L7" s="58">
+      <c r="M7" s="58">
         <v>1.8460000000000001</v>
       </c>
-      <c r="M7" s="58">
+      <c r="N7" s="58">
         <v>1.3879999999999999</v>
       </c>
-      <c r="N7" s="58">
+      <c r="O7" s="58">
         <v>1.617</v>
       </c>
-      <c r="O7" s="58">
+      <c r="P7" s="58">
         <v>1.71</v>
       </c>
-      <c r="P7" s="58">
+      <c r="Q7" s="58">
         <v>0.99080000000000001</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="R7" s="58">
         <v>1.123</v>
       </c>
-      <c r="R7">
-        <f>H7+(0.5*(E7-H7))+H7+(0.5*(J7-H7))+J7+(0.5*(L7-J7))+N7+(0.5*(L7-N7))+N7+(0.5*(P7-N7))</f>
+      <c r="S7">
+        <f>I7+(0.5*(F7-I7))+I7+(0.5*(K7-I7))+K7+(0.5*(M7-K7))+O7+(0.5*(M7-O7))+O7+(0.5*(Q7-O7))</f>
         <v>1080.4583999999998</v>
       </c>
-      <c r="S7" s="67">
+      <c r="T7" s="67">
         <v>69</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <f>(417+349)/2</f>
         <v>383</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <f>(406+372)/2</f>
         <v>389</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <f>(351+383)/2</f>
         <v>367</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <f>(487+541)/2</f>
         <v>514</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <f>(451+560+516)/3</f>
         <v>509</v>
       </c>
-      <c r="Y7" s="32">
+      <c r="Z7" s="32">
         <f>(75+83+55+96)/4</f>
         <v>77.25</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="AA7" s="32">
         <f>(95+115)/2</f>
         <v>105</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <f>(63+72)/2</f>
         <v>67.5</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f>(60+63)/2</f>
         <v>61.5</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <f>(183+155)/2</f>
         <v>169</v>
       </c>
-      <c r="AD7" s="58">
+      <c r="AE7" s="58">
         <v>2.0390000000000001</v>
       </c>
-      <c r="AE7" s="58">
+      <c r="AF7" s="58">
         <v>1.476</v>
       </c>
-      <c r="AF7" s="58">
+      <c r="AG7" s="58">
         <v>1.0629999999999999</v>
       </c>
-      <c r="AG7" s="58">
+      <c r="AH7" s="58">
         <v>1.603</v>
       </c>
-      <c r="AH7" s="58">
+      <c r="AI7" s="58">
         <v>1.8460000000000001</v>
       </c>
-      <c r="AI7" s="58">
+      <c r="AJ7" s="58">
         <v>2.7080000000000002</v>
       </c>
-      <c r="AJ7" s="58">
+      <c r="AK7" s="58">
         <v>2.2970000000000002</v>
       </c>
-      <c r="AK7" s="58">
+      <c r="AL7" s="58">
         <v>3.3730000000000002</v>
       </c>
-      <c r="AL7" s="58">
+      <c r="AM7" s="58">
         <v>3.0859999999999999</v>
       </c>
-      <c r="AM7" s="58">
+      <c r="AN7" s="58">
         <v>11.62</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>56.3</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>91.7</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>95.3</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>98.5</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>103.2</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>101.8</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>86.7</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>89.4</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>93</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>96.7</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>105.5</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>90.9</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>93.2</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>96.8</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>102.3</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>105.5</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>1.3107</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>1.2423696682464453</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>0.56018957345971565</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <v>2.2177664974619287</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>126</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:65">
       <c r="A8" s="7">
         <v>1076</v>
       </c>
       <c r="B8" s="2">
         <v>44219</v>
       </c>
-      <c r="C8" s="2" t="b">
+      <c r="C8" s="57">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>179</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>138</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>352.5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>513.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>585</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>600</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>406.5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2321.25</v>
       </c>
-      <c r="L8" s="58">
+      <c r="M8" s="58">
         <v>2.827</v>
       </c>
-      <c r="M8" s="58">
+      <c r="N8" s="58">
         <v>2.0169999999999999</v>
       </c>
-      <c r="N8" s="58">
+      <c r="O8" s="58">
         <v>1.2969999999999999</v>
       </c>
-      <c r="O8" s="58">
+      <c r="P8" s="58">
         <v>1.5429999999999999</v>
       </c>
-      <c r="P8" s="58">
+      <c r="Q8" s="58">
         <v>2.0760000000000001</v>
       </c>
-      <c r="Q8" s="58">
+      <c r="R8" s="58">
         <v>2.2149999999999999</v>
       </c>
-      <c r="R8">
-        <f>H8+(0.5*(E8-H8))+J8+(0.5*(H8-J8))+L8+(0.5*(L8-J8))+L8+(0.5*(N8-L8))+N8+(0.5*(P8-N8))</f>
+      <c r="S8">
+        <f>I8+(0.5*(F8-I8))+K8+(0.5*(I8-K8))+M8+(0.5*(M8-K8))+M8+(0.5*(O8-M8))+O8+(0.5*(Q8-O8))</f>
         <v>661.98900000000003</v>
       </c>
-      <c r="S8" s="67">
+      <c r="T8" s="67">
         <v>96</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <f>(510+348+305)/3</f>
         <v>387.66666666666669</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <f>(288+274)/2</f>
         <v>281</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <f>(375+323)/2</f>
         <v>349</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <f>(367+416)/2</f>
         <v>391.5</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <f>(441+430)/2</f>
         <v>435.5</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <f>(145+208+170)/3</f>
         <v>174.33333333333334</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="AA8" s="32">
         <f>(72+85)/2</f>
         <v>78.5</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f>(55+87)/2</f>
         <v>71</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f>(43+58)/2</f>
         <v>50.5</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <f>(150+126)/2</f>
         <v>138</v>
       </c>
-      <c r="AD8" s="58">
+      <c r="AE8" s="58">
         <v>5.1829999999999998</v>
       </c>
-      <c r="AE8" s="58">
+      <c r="AF8" s="58">
         <v>2.09</v>
       </c>
-      <c r="AF8" s="58">
+      <c r="AG8" s="58">
         <v>1.2</v>
       </c>
-      <c r="AG8" s="58">
+      <c r="AH8" s="58">
         <v>1.8240000000000001</v>
       </c>
-      <c r="AH8" s="58">
+      <c r="AI8" s="58">
         <v>2.827</v>
       </c>
-      <c r="AI8" s="58">
+      <c r="AJ8" s="58">
         <v>2.8450000000000002</v>
       </c>
-      <c r="AJ8" s="58">
+      <c r="AK8" s="58">
         <v>3.6970000000000001</v>
       </c>
-      <c r="AK8" s="58">
+      <c r="AL8" s="58">
         <v>3.637</v>
       </c>
-      <c r="AL8" s="58">
+      <c r="AM8" s="58">
         <v>2.9369999999999998</v>
       </c>
-      <c r="AM8" s="58">
+      <c r="AN8" s="58">
         <v>16.37</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>60.7</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>95.4</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>99.1</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>106.3</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>112.6</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>110.7</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>93.1</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>94.9</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>99.5</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>105.5</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>112.1</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>95.2</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>100.7</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>103.2</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>110.3</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>112.1</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>1.4332</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>1.2785013380909902</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <v>0.62087421944692234</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <v>2.0591954022988506</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>126</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:65">
       <c r="A9" s="37">
         <v>1080</v>
       </c>
       <c r="B9" s="40">
         <v>44220</v>
       </c>
-      <c r="C9" s="40" t="b">
+      <c r="C9" s="57">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="L9" s="59">
+      <c r="M9" s="59">
         <v>4.9509999999999996</v>
       </c>
-      <c r="M9" s="59"/>
       <c r="N9" s="59"/>
       <c r="O9" s="59"/>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="68">
+      <c r="R9" s="59"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="68">
         <v>57</v>
       </c>
-      <c r="T9" s="45">
+      <c r="U9" s="45">
         <f>(115+114+123)/3</f>
         <v>117.33333333333333</v>
       </c>
-      <c r="U9" s="43">
+      <c r="V9" s="43">
         <f>(68+79)/2</f>
         <v>73.5</v>
       </c>
-      <c r="V9" s="43">
+      <c r="W9" s="43">
         <f>(47+43)/2</f>
         <v>45</v>
       </c>
-      <c r="W9" s="43">
+      <c r="X9" s="43">
         <f>(59+63)/2</f>
         <v>61</v>
       </c>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43">
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43">
         <f>(61+41+50+49)/4</f>
         <v>50.25</v>
       </c>
-      <c r="Z9" s="43">
+      <c r="AA9" s="43">
         <f>(57+56)/2</f>
         <v>56.5</v>
       </c>
-      <c r="AA9" s="43">
+      <c r="AB9" s="43">
         <f>(38+45)/2</f>
         <v>41.5</v>
       </c>
-      <c r="AB9" s="43">
+      <c r="AC9" s="43">
         <f>(58+46)/2</f>
         <v>52</v>
       </c>
-      <c r="AC9" s="43">
+      <c r="AD9" s="43">
         <f>(46+58)/2</f>
         <v>52</v>
       </c>
-      <c r="AD9" s="58">
+      <c r="AE9" s="58">
         <v>2.1320000000000001</v>
       </c>
-      <c r="AE9" s="59">
+      <c r="AF9" s="59">
         <v>1.875</v>
       </c>
-      <c r="AF9" s="59">
+      <c r="AG9" s="59">
         <v>1.29</v>
       </c>
-      <c r="AG9" s="59">
+      <c r="AH9" s="59">
         <v>1.9339999999999999</v>
       </c>
-      <c r="AH9" s="59">
+      <c r="AI9" s="59">
         <v>4.9509999999999996</v>
       </c>
-      <c r="AI9" s="59">
+      <c r="AJ9" s="59">
         <v>10.52</v>
       </c>
-      <c r="AJ9" s="59">
+      <c r="AK9" s="59">
         <v>12.96</v>
       </c>
-      <c r="AK9" s="59">
+      <c r="AL9" s="59">
         <v>4.5529999999999999</v>
       </c>
-      <c r="AL9" s="59">
+      <c r="AM9" s="59">
         <v>16.79</v>
       </c>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="43">
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="43">
         <v>48.7</v>
       </c>
-      <c r="AO9" s="43">
+      <c r="AP9" s="43">
         <v>94.9</v>
       </c>
-      <c r="AP9" s="43">
+      <c r="AQ9" s="43">
         <v>102</v>
       </c>
-      <c r="AQ9" s="43">
+      <c r="AR9" s="43">
         <v>106</v>
       </c>
-      <c r="AR9" s="43">
+      <c r="AS9" s="43">
         <v>109.8</v>
       </c>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43">
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43">
         <v>87.3</v>
       </c>
-      <c r="AU9" s="43">
+      <c r="AV9" s="43">
         <v>93.7</v>
       </c>
-      <c r="AV9" s="43">
+      <c r="AW9" s="43">
         <v>100.9</v>
       </c>
-      <c r="AW9" s="43">
+      <c r="AX9" s="43">
         <v>104.7</v>
       </c>
-      <c r="AX9" s="43">
+      <c r="AY9" s="43">
         <v>112.1</v>
       </c>
-      <c r="AY9" s="43">
+      <c r="AZ9" s="43">
         <v>91.4</v>
       </c>
-      <c r="AZ9" s="43">
+      <c r="BA9" s="43">
         <v>101</v>
       </c>
-      <c r="BA9" s="43">
+      <c r="BB9" s="43">
         <v>107.4</v>
       </c>
-      <c r="BB9" s="43">
+      <c r="BC9" s="43">
         <v>109.9</v>
       </c>
-      <c r="BC9" s="43">
+      <c r="BD9" s="43">
         <v>112.1</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>1.9369000000000001</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>1.7278322925958969</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>0.77539999999999998</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <v>0.6917038358608385</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <v>2.4979365488779992</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>128</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:65">
       <c r="A10" s="6">
         <v>1081</v>
       </c>
       <c r="B10" s="2">
         <v>44220</v>
       </c>
-      <c r="C10" s="2" t="b">
+      <c r="C10" s="57">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>171</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>345</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>547</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>600</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>563</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>428.5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2354.75</v>
       </c>
-      <c r="L10" s="58">
+      <c r="M10" s="58">
         <v>2.0430000000000001</v>
       </c>
-      <c r="M10" s="58">
+      <c r="N10" s="58">
         <v>1.54</v>
       </c>
-      <c r="N10" s="58">
+      <c r="O10" s="58">
         <v>1.59</v>
       </c>
-      <c r="O10" s="58">
+      <c r="P10" s="58">
         <v>2.976</v>
       </c>
-      <c r="P10" s="58">
+      <c r="Q10" s="58">
         <v>1.2490000000000001</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="R10" s="58">
         <v>1.5609999999999999</v>
       </c>
-      <c r="R10">
-        <f>H10+(0.5*(E10-H10))+H10+(0.5*(J10-H10))+J10+(0.5*(L10-J10))+N10+(0.5*(L10-N10))+N10+(0.5*(P10-N10))</f>
+      <c r="S10">
+        <f>I10+(0.5*(F10-I10))+I10+(0.5*(K10-I10))+K10+(0.5*(M10-K10))+O10+(0.5*(M10-O10))+O10+(0.5*(Q10-O10))</f>
         <v>1118.2574999999999</v>
       </c>
-      <c r="S10" s="67">
+      <c r="T10" s="67">
         <v>79</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <f>(273+341+278)/3</f>
         <v>297.33333333333331</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <f>(318+335)/2</f>
         <v>326.5</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <f>(307+336)/2</f>
         <v>321.5</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <f>(378+391)/2</f>
         <v>384.5</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <f>(600+600)/2</f>
         <v>600</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f>(43+61+67)/3</f>
         <v>57</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f>(58+74+67+68)/4</f>
         <v>66.75</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f>(78+69)/2</f>
         <v>73.5</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f>(65+62)/2</f>
         <v>63.5</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <f>(163+179)/2</f>
         <v>171</v>
       </c>
-      <c r="AD10" s="58">
+      <c r="AE10" s="58">
         <v>4.5339999999999998</v>
       </c>
-      <c r="AE10" s="60">
+      <c r="AF10" s="60">
         <v>8.9130000000000003</v>
       </c>
-      <c r="AF10" s="58">
+      <c r="AG10" s="58">
         <v>2.2389999999999999</v>
       </c>
-      <c r="AG10" s="58">
+      <c r="AH10" s="58">
         <v>1.7250000000000001</v>
       </c>
-      <c r="AH10" s="58">
+      <c r="AI10" s="58">
         <v>2.0430000000000001</v>
       </c>
-      <c r="AI10" s="58">
+      <c r="AJ10" s="58">
         <v>3.96</v>
       </c>
-      <c r="AJ10" s="58">
+      <c r="AK10" s="58">
         <v>6.798</v>
       </c>
-      <c r="AK10" s="58">
+      <c r="AL10" s="58">
         <v>5.1260000000000003</v>
       </c>
-      <c r="AL10" s="58">
+      <c r="AM10" s="58">
         <v>3.0009999999999999</v>
       </c>
-      <c r="AM10" s="58">
+      <c r="AN10" s="58">
         <v>14.42</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>56.2</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>97.7</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>104</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>106.5</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>109.3</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>109.2</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>90.6</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>95.1</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>99.6</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>102.9</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>113.2</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>95.8</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>100.1</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>106.1</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>108.3</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>113.2</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>1.3511</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
         <v>1.1935512367491166</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>0.62829999999999997</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <v>0.55503533568904595</v>
       </c>
-      <c r="BI10">
+      <c r="BJ10">
         <v>2.1504058570746456</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>126</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:65">
       <c r="A11" s="7">
         <v>1082</v>
       </c>
       <c r="B11" s="2">
         <v>44220</v>
       </c>
-      <c r="C11" s="2" t="b">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>179</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>62</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>258</v>
-      </c>
-      <c r="G11">
-        <v>600</v>
       </c>
       <c r="H11">
         <v>600</v>
       </c>
       <c r="I11">
+        <v>600</v>
+      </c>
+      <c r="J11">
         <v>571.5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>328.5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2224.75</v>
       </c>
-      <c r="L11" s="58">
+      <c r="M11" s="58">
         <v>1.2789999999999999</v>
       </c>
-      <c r="M11" s="58">
+      <c r="N11" s="58">
         <v>1.4430000000000001</v>
       </c>
-      <c r="N11" s="58">
+      <c r="O11" s="58">
         <v>2.0219999999999998</v>
       </c>
-      <c r="O11" s="58">
+      <c r="P11" s="58">
         <v>1.3979999999999999</v>
       </c>
-      <c r="P11" s="58">
+      <c r="Q11" s="58">
         <v>1.347</v>
       </c>
-      <c r="Q11" s="58">
+      <c r="R11" s="58">
         <v>2.3010000000000002</v>
       </c>
-      <c r="R11">
-        <f>E11+(0.5*(H11-E11))+H11+(0.5*(J11-H11))+L11+(0.5*(J11-L11))+N11+(0.5*(L11-N11))+N11+(0.5*(P11-N11))</f>
+      <c r="S11">
+        <f>F11+(0.5*(I11-F11))+I11+(0.5*(K11-I11))+M11+(0.5*(K11-M11))+O11+(0.5*(M11-O11))+O11+(0.5*(Q11-O11))</f>
         <v>963.47450000000015</v>
       </c>
-      <c r="S11" s="67">
+      <c r="T11" s="67">
         <v>90</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <f>(287+257)/2</f>
         <v>272</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <f>(329+350)/2</f>
         <v>339.5</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <f>(320+341)/2</f>
         <v>330.5</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <f>(414+412)/2</f>
         <v>413</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <f>(529+546)/2</f>
         <v>537.5</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f>(51+67)/2</f>
         <v>59</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f>(60+47+53)/3</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f>(42+58)/2</f>
         <v>50</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f>(55+90+71+78)/4</f>
         <v>73.5</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <f>(57+67)/2</f>
         <v>62</v>
       </c>
-      <c r="AD11" s="58">
+      <c r="AE11" s="58">
         <v>2.3239999999999998</v>
       </c>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="58">
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="58">
         <v>1.119</v>
       </c>
-      <c r="AG11" s="58">
+      <c r="AH11" s="58">
         <v>1.389</v>
       </c>
-      <c r="AH11" s="58">
+      <c r="AI11" s="58">
         <v>1.2789999999999999</v>
       </c>
-      <c r="AI11" s="58">
+      <c r="AJ11" s="58">
         <v>4.5880000000000001</v>
       </c>
-      <c r="AJ11" s="58">
+      <c r="AK11" s="58">
         <v>2.9710000000000001</v>
       </c>
-      <c r="AK11" s="58">
+      <c r="AL11" s="58">
         <v>3.4649999999999999</v>
       </c>
-      <c r="AL11" s="58">
+      <c r="AM11" s="58">
         <v>2.145</v>
       </c>
-      <c r="AM11" s="58">
+      <c r="AN11" s="58">
         <v>13.01</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>54.1</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>95.9</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>102</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>105.8</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>106.5</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>105.5</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>89.6</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>93.8</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>98.4</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>99.9</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>108.8</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>94.5</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>99.7</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>103.9</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>107.4</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>108.8</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>0.89039999999999997</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>0.81838235294117645</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>0.65149999999999997</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>0.59880514705882348</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>1.3666922486569455</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>126</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:65">
       <c r="A12" s="5">
         <v>1091</v>
       </c>
       <c r="B12" s="2">
         <v>44227</v>
       </c>
-      <c r="C12" s="2" t="b">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>180</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>72</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>172.5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>201.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>208</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>195</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>67.5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>846.75</v>
       </c>
-      <c r="L12" s="58">
+      <c r="M12" s="58">
         <v>1.29</v>
       </c>
-      <c r="M12" s="58">
+      <c r="N12" s="58">
         <v>5.008</v>
       </c>
-      <c r="N12" s="58">
+      <c r="O12" s="58">
         <v>6.9690000000000003</v>
       </c>
-      <c r="O12" s="58">
+      <c r="P12" s="58">
         <v>5.8609999999999998</v>
       </c>
-      <c r="P12" s="58">
+      <c r="Q12" s="58">
         <v>8.5090000000000003</v>
       </c>
-      <c r="Q12" s="58">
+      <c r="R12" s="58">
         <v>0.90500000000000003</v>
       </c>
-      <c r="R12">
-        <f>E12+(0.5*(H12-E12))+H12+(0.5*(J12-H12))+L12+(0.5*(J12-L12))+L12+(0.5*(N12-L12))+P12+(0.5*(N12-P12))</f>
+      <c r="S12">
+        <f>F12+(0.5*(I12-F12))+I12+(0.5*(K12-I12))+M12+(0.5*(K12-M12))+M12+(0.5*(O12-M12))+Q12+(0.5*(O12-Q12))</f>
         <v>324.01350000000008</v>
       </c>
-      <c r="S12" s="67">
+      <c r="T12" s="67">
         <v>84</v>
       </c>
-      <c r="T12" s="32">
+      <c r="U12" s="32">
         <f>(111+106)/2</f>
         <v>108.5</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f>(93+78+87)/3</f>
         <v>86</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f>(71+72)/2</f>
         <v>71.5</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f>(74+82)/2</f>
         <v>78</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f>(66+70)/2</f>
         <v>68</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f>(52+55+53)/3</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f>(63+63)/2</f>
         <v>63</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f>(48+49)/2</f>
         <v>48.5</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f>(57+69)/2</f>
         <v>63</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <f>(75+69)/2</f>
         <v>72</v>
       </c>
-      <c r="AD12" s="58">
+      <c r="AE12" s="58">
         <v>0.95289999999999997</v>
       </c>
-      <c r="AE12" s="58">
+      <c r="AF12" s="58">
         <v>1.758</v>
       </c>
-      <c r="AF12" s="58">
+      <c r="AG12" s="58">
         <v>1.165</v>
       </c>
-      <c r="AG12" s="58">
+      <c r="AH12" s="58">
         <v>2.617</v>
       </c>
-      <c r="AH12" s="58">
+      <c r="AI12" s="58">
         <v>1.29</v>
       </c>
-      <c r="AI12" s="58">
+      <c r="AJ12" s="58">
         <v>13.61</v>
       </c>
-      <c r="AJ12" s="58">
+      <c r="AK12" s="58">
         <v>22.8</v>
       </c>
-      <c r="AK12" s="58">
+      <c r="AL12" s="58">
         <v>21.67</v>
       </c>
-      <c r="AL12" s="58">
+      <c r="AM12" s="58">
         <v>17.55</v>
       </c>
-      <c r="AM12" s="58">
+      <c r="AN12" s="58">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>41.1</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>78.5</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>83.1</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>87.3</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>89.5</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>89.6</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>70.900000000000006</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>75.8</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>81.8</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>83.8</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>92.4</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>76.099999999999994</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>81.2</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>86.2</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>89</v>
       </c>
-      <c r="BC12">
+      <c r="BD12">
         <v>92.4</v>
       </c>
-      <c r="BE12">
+      <c r="BF12">
         <v>1.4930000000000001</v>
       </c>
-      <c r="BF12">
+      <c r="BG12">
         <v>1.615800865800866</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
         <v>0.53539999999999999</v>
       </c>
-      <c r="BH12">
+      <c r="BI12">
         <v>0.57943722943722942</v>
       </c>
-      <c r="BI12">
+      <c r="BJ12">
         <v>2.7885692939858053</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>138</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:65">
       <c r="A13" s="6">
         <v>1092</v>
       </c>
       <c r="B13" s="2">
         <v>44227</v>
       </c>
-      <c r="C13" s="2" t="b">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>177</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>59.5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>206</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>303.5</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>392</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>401</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>91.5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1377.95</v>
       </c>
-      <c r="L13" s="58">
+      <c r="M13" s="58">
         <v>3.29</v>
       </c>
-      <c r="M13" s="58">
+      <c r="N13" s="58">
         <v>5.4809999999999999</v>
       </c>
-      <c r="N13" s="58">
+      <c r="O13" s="58">
         <v>6.5640000000000001</v>
       </c>
-      <c r="O13" s="58">
+      <c r="P13" s="58">
         <v>6.9340000000000002</v>
       </c>
-      <c r="P13" s="61">
+      <c r="Q13" s="61">
         <v>17.88</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="R13" s="58">
         <v>7.8789999999999996</v>
       </c>
-      <c r="R13">
-        <f>E13+(0.5*(H13-E13))+H13+(0.5*(J13-H13))+L13+(0.5*(J13-L13))+L13+(0.5*(N13-L13))+P13+(0.5*(N13-P13))</f>
+      <c r="S13">
+        <f>F13+(0.5*(I13-F13))+I13+(0.5*(K13-I13))+M13+(0.5*(K13-M13))+M13+(0.5*(O13-M13))+Q13+(0.5*(O13-Q13))</f>
         <v>532.04399999999987</v>
       </c>
-      <c r="S13" s="67">
+      <c r="T13" s="67">
         <v>75</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f>(84+68)/2</f>
         <v>76</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f>(70+71)/2</f>
         <v>70.5</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f>(55+63)/2</f>
         <v>59</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f>(52+64)/2</f>
         <v>58</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f>(38+50)/2</f>
         <v>44</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f>(46+46)/2</f>
         <v>46</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f>(65+62)/2</f>
         <v>63.5</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f>(49+54)/2</f>
         <v>51.5</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f>(76+52+52)/3</f>
         <v>60</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <f>(59+60)/2</f>
         <v>59.5</v>
       </c>
-      <c r="AD13" s="58">
+      <c r="AE13" s="58">
         <v>0.47449999999999998</v>
       </c>
-      <c r="AE13" s="58">
+      <c r="AF13" s="58">
         <v>1.18</v>
       </c>
-      <c r="AF13" s="58">
+      <c r="AG13" s="58">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AG13" s="58">
+      <c r="AH13" s="58">
         <v>2.1230000000000002</v>
       </c>
-      <c r="AH13" s="58">
+      <c r="AI13" s="58">
         <v>3.29</v>
       </c>
-      <c r="AI13" s="58">
+      <c r="AJ13" s="58">
         <v>8.5370000000000008</v>
       </c>
-      <c r="AJ13" s="58">
+      <c r="AK13" s="58">
         <v>16.690000000000001</v>
       </c>
-      <c r="AK13" s="58">
+      <c r="AL13" s="58">
         <v>19.329999999999998</v>
       </c>
-      <c r="AL13" s="58">
+      <c r="AM13" s="58">
         <v>15.15</v>
       </c>
-      <c r="AM13" s="58">
+      <c r="AN13" s="58">
         <v>30.05</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>39.4</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>77.7</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>84.2</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>87.6</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>91</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>97.5</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>69.7</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>75.099999999999994</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>84.2</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>84.5</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>98.3</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>73.2</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>80.2</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>88.5</v>
       </c>
-      <c r="BB13">
+      <c r="BC13">
         <v>89.5</v>
       </c>
-      <c r="BC13">
+      <c r="BD13">
         <v>98.3</v>
       </c>
-      <c r="BE13">
+      <c r="BF13">
         <v>1.2902</v>
       </c>
-      <c r="BF13">
+      <c r="BG13">
         <v>1.3125127161749746</v>
       </c>
-      <c r="BG13">
+      <c r="BH13">
         <v>0.63119999999999998</v>
       </c>
-      <c r="BH13">
+      <c r="BI13">
         <v>0.64211597151576805</v>
       </c>
-      <c r="BI13">
+      <c r="BJ13">
         <v>2.04404309252218</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>138</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:65">
       <c r="A14" s="6">
         <v>1093</v>
       </c>
       <c r="B14" s="2">
         <v>44227</v>
       </c>
-      <c r="C14" s="2" t="b">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>180</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>139.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>221</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>268.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>300.5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>77</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>993</v>
       </c>
-      <c r="L14" s="58">
+      <c r="M14" s="58">
         <v>1.107</v>
       </c>
-      <c r="M14" s="58">
+      <c r="N14" s="58">
         <v>4.8310000000000004</v>
       </c>
-      <c r="N14" s="58">
+      <c r="O14" s="58">
         <v>2.6259999999999999</v>
       </c>
-      <c r="O14" s="58">
+      <c r="P14" s="58">
         <v>2.31</v>
       </c>
-      <c r="P14" s="58">
+      <c r="Q14" s="58">
         <v>5.8719999999999999</v>
       </c>
-      <c r="Q14" s="58">
+      <c r="R14" s="58">
         <v>2.0979999999999999</v>
       </c>
-      <c r="R14">
-        <f>E14+(0.5*(H14-E14))+H14+(0.5*(J14-H14))+L14+(0.5*(J14-L14))+L14+(0.5*(N14-L14))+P14+(0.5*(N14-P14))</f>
+      <c r="S14">
+        <f>F14+(0.5*(I14-F14))+I14+(0.5*(K14-I14))+M14+(0.5*(K14-M14))+M14+(0.5*(O14-M14))+Q14+(0.5*(O14-Q14))</f>
         <v>377.1690000000001</v>
       </c>
-      <c r="S14" s="67">
+      <c r="T14" s="67">
         <v>72</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f>(76+88)/2</f>
         <v>82</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f>(80+86)/2</f>
         <v>83</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <f>(73+66)/2</f>
         <v>69.5</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f>(61+70)/2</f>
         <v>65.5</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <f>(63+67)/2</f>
         <v>65</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <f>(43+51)/2</f>
         <v>47</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f>(65+63)/2</f>
         <v>64</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f>(56+57)/2</f>
         <v>56.5</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f>(55+58)/2</f>
         <v>56.5</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <f>(48+52)/2</f>
         <v>50</v>
       </c>
-      <c r="AD14" s="58">
+      <c r="AE14" s="58">
         <v>0.89270000000000005</v>
       </c>
-      <c r="AE14" s="58">
+      <c r="AF14" s="58">
         <v>0.96940000000000004</v>
       </c>
-      <c r="AF14" s="58">
+      <c r="AG14" s="58">
         <v>1.2569999999999999</v>
       </c>
-      <c r="AG14" s="58">
+      <c r="AH14" s="58">
         <v>1.2490000000000001</v>
       </c>
-      <c r="AH14" s="58">
+      <c r="AI14" s="58">
         <v>1.107</v>
       </c>
-      <c r="AI14" s="58">
+      <c r="AJ14" s="58">
         <v>11.06</v>
       </c>
-      <c r="AJ14" s="58">
+      <c r="AK14" s="58">
         <v>11.14</v>
       </c>
-      <c r="AK14" s="58">
+      <c r="AL14" s="58">
         <v>12.91</v>
       </c>
-      <c r="AL14" s="58">
+      <c r="AM14" s="58">
         <v>9.3059999999999992</v>
       </c>
-      <c r="AM14" s="58">
+      <c r="AN14" s="58">
         <v>9.64</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>41.3</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>78.5</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>82.9</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>87.2</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>91.3</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>92.3</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>71.400000000000006</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>75.599999999999994</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>82.1</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>85.4</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>94.5</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>75.599999999999994</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>81</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>85.7</v>
       </c>
-      <c r="BB14">
+      <c r="BC14">
         <v>90.4</v>
       </c>
-      <c r="BC14">
+      <c r="BD14">
         <v>94.5</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>1.1374</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <v>1.2035978835978836</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <v>0.54620000000000002</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>0.57798941798941805</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14">
         <v>2.0823874038813619</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BK14" t="s">
         <v>138</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:65">
       <c r="A15" s="6">
         <v>1094</v>
       </c>
       <c r="B15" s="2">
         <v>44227</v>
       </c>
-      <c r="C15" s="2" t="b">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>48</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>135</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>195.5</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>237.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>219</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>63.5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>842.75</v>
       </c>
-      <c r="L15" s="58">
+      <c r="M15" s="58">
         <v>1.177</v>
       </c>
-      <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="58"/>
-      <c r="S15" s="67">
+      <c r="R15" s="58"/>
+      <c r="T15" s="67">
         <v>78</v>
       </c>
-      <c r="T15" s="32">
+      <c r="U15" s="32">
         <f>(193+173)/2</f>
         <v>183</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f>(68+75)/2</f>
         <v>71.5</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <f>(69+66)/2</f>
         <v>67.5</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f>(97+128+70)/3</f>
         <v>98.333333333333329</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <f>(68+72)/2</f>
         <v>70</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <f>(44+55)/2</f>
         <v>49.5</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <f>(56+67)/2</f>
         <v>61.5</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <f>(63+62)/2</f>
         <v>62.5</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f>(48+60)/2</f>
         <v>54</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <f>(50+46)/2</f>
         <v>48</v>
       </c>
-      <c r="AD15" s="58">
+      <c r="AE15" s="58">
         <v>3.1339999999999999</v>
       </c>
-      <c r="AE15" s="58">
+      <c r="AF15" s="58">
         <v>1.165</v>
       </c>
-      <c r="AF15" s="58">
+      <c r="AG15" s="58">
         <v>0.97</v>
       </c>
-      <c r="AG15" s="58">
+      <c r="AH15" s="58">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AH15" s="58">
+      <c r="AI15" s="58">
         <v>1.177</v>
       </c>
-      <c r="AI15" s="58">
+      <c r="AJ15" s="58">
         <v>33.549999999999997</v>
       </c>
-      <c r="AJ15" s="58">
+      <c r="AK15" s="58">
         <v>17.12</v>
       </c>
-      <c r="AK15" s="58">
+      <c r="AL15" s="58">
         <v>28.61</v>
       </c>
-      <c r="AL15" s="58">
+      <c r="AM15" s="58">
         <v>40.26</v>
       </c>
-      <c r="AM15" s="58">
+      <c r="AN15" s="58">
         <v>21.59</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>40.200000000000003</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>80</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>85.1</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>89.5</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>93.9</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>94.4</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>73.5</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>78.2</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>82.3</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>87.4</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>98</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>76.7</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>82.9</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>88.4</v>
       </c>
-      <c r="BB15">
+      <c r="BC15">
         <v>93.4</v>
       </c>
-      <c r="BC15">
+      <c r="BD15">
         <v>98</v>
       </c>
-      <c r="BE15">
+      <c r="BF15">
         <v>1.5392999999999999</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
         <v>1.5707142857142857</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <v>0.64100000000000001</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <v>0.65408163265306118</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <v>2.4014040561622467</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BK15" t="s">
         <v>138</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:65">
       <c r="A16" s="38">
         <v>1095</v>
       </c>
       <c r="B16" s="40">
         <v>44227</v>
       </c>
-      <c r="C16" s="40" t="b">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>43</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>85.5</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>445.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>483</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>517.5</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>119.5</v>
       </c>
-      <c r="L16" s="58">
+      <c r="M16" s="58">
         <v>4.5250000000000004</v>
       </c>
-      <c r="M16" s="58">
+      <c r="N16" s="58">
         <v>4.0780000000000003</v>
       </c>
-      <c r="N16" s="58">
+      <c r="O16" s="58">
         <v>8.0120000000000005</v>
       </c>
-      <c r="O16" s="58">
+      <c r="P16" s="58">
         <v>7.0179999999999998</v>
       </c>
-      <c r="P16" s="58">
+      <c r="Q16" s="58">
         <v>10.050000000000001</v>
       </c>
-      <c r="Q16" s="63">
+      <c r="R16" s="63">
         <v>6.5350000000000001</v>
       </c>
-      <c r="R16">
-        <f>E16+(0.5*(H16-E16))+H16+(0.5*(J16-H16))+L16+(0.5*(J16-L16))+L16+(0.5*(N16-L16))+P16+(0.5*(N16-P16))</f>
+      <c r="S16">
+        <f>F16+(0.5*(I16-F16))+I16+(0.5*(K16-I16))+M16+(0.5*(K16-M16))+M16+(0.5*(O16-M16))+Q16+(0.5*(O16-Q16))</f>
         <v>641.5619999999999</v>
       </c>
-      <c r="S16" s="67">
+      <c r="T16" s="67">
         <v>81</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f>(80+88)/2</f>
         <v>84</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f>(74+70+76)/3</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <f>(78+76)/2</f>
         <v>77</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <f>(66+71)/2</f>
         <v>68.5</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <f>(49+74)/2</f>
         <v>61.5</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <f>(45+57)/2</f>
         <v>51</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f>(59+62)/2</f>
         <v>60.5</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f>(54+56)/2</f>
         <v>55</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f>(58+58)/2</f>
         <v>58</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <f>(44+42)/2</f>
         <v>43</v>
       </c>
-      <c r="AD16" s="58">
+      <c r="AE16" s="58">
         <v>1.9330000000000001</v>
       </c>
-      <c r="AE16" s="58">
+      <c r="AF16" s="58">
         <v>2.5019999999999998</v>
       </c>
-      <c r="AF16" s="58">
+      <c r="AG16" s="58">
         <v>2.4929999999999999</v>
       </c>
-      <c r="AG16" s="58">
+      <c r="AH16" s="58">
         <v>3.1669999999999998</v>
       </c>
-      <c r="AH16" s="58">
+      <c r="AI16" s="58">
         <v>4.5250000000000004</v>
       </c>
-      <c r="AI16" s="58">
+      <c r="AJ16" s="58">
         <v>23.9</v>
       </c>
-      <c r="AJ16" s="58">
+      <c r="AK16" s="58">
         <v>20.58</v>
       </c>
-      <c r="AK16" s="58">
+      <c r="AL16" s="58">
         <v>21.4</v>
       </c>
-      <c r="AL16" s="58">
+      <c r="AM16" s="58">
         <v>27.74</v>
       </c>
-      <c r="AM16" s="58">
+      <c r="AN16" s="58">
         <v>20.34</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>42.7</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>82.5</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>87.6</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>90.9</v>
-      </c>
-      <c r="AR16">
-        <v>94.8</v>
       </c>
       <c r="AS16">
         <v>94.8</v>
       </c>
       <c r="AT16">
+        <v>94.8</v>
+      </c>
+      <c r="AU16">
         <v>76.599999999999994</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>81.599999999999994</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>85.9</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>89.2</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>98.3</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>79.400000000000006</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>85.4</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>91.7</v>
       </c>
-      <c r="BB16">
+      <c r="BC16">
         <v>95</v>
       </c>
-      <c r="BC16">
+      <c r="BD16">
         <v>98.3</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>1.7470000000000001</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>1.7772126144455749</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <v>0.64119999999999999</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <v>0.65228891149542223</v>
       </c>
-      <c r="BI16">
+      <c r="BJ16">
         <v>2.7245789145352464</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>138</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
         <v>134</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BM16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:64">
+    <row r="17" spans="1:65">
       <c r="A17" s="7">
         <v>1096</v>
       </c>
       <c r="B17" s="2">
         <v>44227</v>
       </c>
-      <c r="C17" s="2" t="b">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>58.5</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>186</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>248.5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>302.5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>485.5</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>299</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1401.25</v>
       </c>
-      <c r="L17" s="58">
+      <c r="M17" s="58">
         <v>4.0149999999999997</v>
       </c>
-      <c r="M17" s="58">
+      <c r="N17" s="58">
         <v>5.2919999999999998</v>
       </c>
-      <c r="N17" s="58">
+      <c r="O17" s="58">
         <v>5.0789999999999997</v>
       </c>
-      <c r="O17" s="58">
+      <c r="P17" s="58">
         <v>4.4169999999999998</v>
       </c>
-      <c r="P17" s="58">
+      <c r="Q17" s="58">
         <v>5.2329999999999997</v>
       </c>
-      <c r="Q17" s="58">
+      <c r="R17" s="58">
         <v>6.2990000000000004</v>
       </c>
-      <c r="R17">
-        <f>E17+(0.5*(H17-E17))+J17+(0.5*(H17-J17))+L17+(0.5*(J17-L17))+L17+(0.5*(N17-L17))+N17+(0.5*(P17-N17))</f>
+      <c r="S17">
+        <f>F17+(0.5*(I17-F17))+K17+(0.5*(I17-K17))+M17+(0.5*(K17-M17))+M17+(0.5*(O17-M17))+O17+(0.5*(Q17-O17))</f>
         <v>642.46049999999991</v>
       </c>
-      <c r="S17" s="67">
+      <c r="T17" s="67">
         <v>70</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <f>(207+201)/2</f>
         <v>204</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <f>(297+303)/2</f>
         <v>300</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <f>(75+82)/2</f>
         <v>78.5</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <f>(292+298)/2</f>
         <v>295</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>102</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <f>(39+40)/2</f>
         <v>39.5</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <f>(60+50)/2</f>
         <v>55</v>
       </c>
-      <c r="AA17" s="32">
+      <c r="AB17" s="32">
         <f>(79+69+81)/3</f>
         <v>76.333333333333329</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <f>(64+77+49)/3</f>
         <v>63.333333333333336</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <f>(65+52)/2</f>
         <v>58.5</v>
       </c>
-      <c r="AD17" s="58">
+      <c r="AE17" s="58">
         <v>2.5179999999999998</v>
       </c>
-      <c r="AE17" s="58">
+      <c r="AF17" s="58">
         <v>3.536</v>
       </c>
-      <c r="AF17" s="58">
+      <c r="AG17" s="58">
         <v>3.6419999999999999</v>
       </c>
-      <c r="AG17" s="58">
+      <c r="AH17" s="58">
         <v>2.3290000000000002</v>
       </c>
-      <c r="AH17" s="58">
+      <c r="AI17" s="58">
         <v>4.0149999999999997</v>
       </c>
-      <c r="AI17" s="58">
+      <c r="AJ17" s="58">
         <v>17.88</v>
       </c>
-      <c r="AJ17" s="58">
+      <c r="AK17" s="58">
         <v>11.58</v>
       </c>
-      <c r="AK17" s="58">
+      <c r="AL17" s="58">
         <v>6.57</v>
       </c>
-      <c r="AL17" s="58">
+      <c r="AM17" s="58">
         <v>14.57</v>
       </c>
-      <c r="AM17" s="58">
+      <c r="AN17" s="58">
         <v>37.17</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>45.1</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>93.2</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>95.4</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>93.1</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>99.3</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>100.6</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>83</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>88.5</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>93.6</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>90.5</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>104.4</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>86.5</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>94.7</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>98.5</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>97.4</v>
       </c>
-      <c r="BC17">
+      <c r="BD17">
         <v>104.4</v>
       </c>
-      <c r="BE17">
+      <c r="BF17">
         <v>1.1691</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
         <v>1.1198275862068965</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <v>0.60140000000000005</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <v>0.57605363984674329</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <v>1.9439640838044561</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>138</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:64">
+    <row r="18" spans="1:65">
       <c r="A18" s="37">
         <v>1100</v>
       </c>
       <c r="B18" s="40">
         <v>44228</v>
       </c>
-      <c r="C18" s="40" t="b">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="59"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="68">
+      <c r="R18" s="59"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="68">
         <v>58</v>
       </c>
-      <c r="T18" s="43">
+      <c r="U18" s="43">
         <f>(74+51)/2</f>
         <v>62.5</v>
       </c>
-      <c r="U18" s="43">
+      <c r="V18" s="43">
         <f>(82+75)/2</f>
         <v>78.5</v>
       </c>
-      <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
-      <c r="Y18" s="43">
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43">
         <f>(61+64+59)/3</f>
         <v>61.333333333333336</v>
       </c>
-      <c r="Z18" s="43">
+      <c r="AA18" s="43">
         <f>(58+58)/2</f>
         <v>58</v>
       </c>
-      <c r="AA18" s="43"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
-      <c r="AD18" s="59"/>
+      <c r="AD18" s="43"/>
       <c r="AE18" s="59"/>
       <c r="AF18" s="59"/>
       <c r="AG18" s="59"/>
@@ -29205,452 +29261,459 @@
       <c r="AK18" s="59"/>
       <c r="AL18" s="59"/>
       <c r="AM18" s="59"/>
-      <c r="AN18" s="43">
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="43">
         <v>41.2</v>
       </c>
-      <c r="AO18" s="43">
+      <c r="AP18" s="43">
         <v>92.4</v>
       </c>
-      <c r="AP18" s="43">
+      <c r="AQ18" s="43">
         <v>95.9</v>
       </c>
-      <c r="AQ18" s="43"/>
       <c r="AR18" s="43"/>
-      <c r="AT18" s="43">
+      <c r="AS18" s="43"/>
+      <c r="AU18" s="43">
         <v>85</v>
       </c>
-      <c r="AU18" s="43">
+      <c r="AV18" s="43">
         <v>89.4</v>
       </c>
-      <c r="AV18" s="43"/>
       <c r="AW18" s="43"/>
       <c r="AX18" s="43"/>
-      <c r="AY18" s="43">
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43">
         <v>89.7</v>
       </c>
-      <c r="AZ18" s="43">
+      <c r="BA18" s="43">
         <v>94.2</v>
       </c>
-      <c r="BA18" s="43"/>
       <c r="BB18" s="43"/>
       <c r="BC18" s="43"/>
-      <c r="BL18" t="s">
+      <c r="BD18" s="43"/>
+      <c r="BM18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:64">
+    <row r="19" spans="1:65">
       <c r="A19" s="6">
         <v>1101</v>
       </c>
       <c r="B19" s="2">
         <v>44228</v>
       </c>
-      <c r="C19" s="2" t="b">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>179</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>64.5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>216.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>519.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>582</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>587</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>309</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2015.75</v>
       </c>
-      <c r="L19" s="58">
+      <c r="M19" s="58">
         <v>0.98180000000000001</v>
       </c>
-      <c r="M19" s="58">
+      <c r="N19" s="58">
         <v>0.87509999999999999</v>
       </c>
-      <c r="N19" s="58">
+      <c r="O19" s="58">
         <v>1.496</v>
       </c>
-      <c r="O19" s="58">
+      <c r="P19" s="58">
         <v>0.79830000000000001</v>
       </c>
-      <c r="P19" s="58">
+      <c r="Q19" s="58">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q19" s="58">
+      <c r="R19" s="58">
         <v>1.919</v>
       </c>
-      <c r="R19">
-        <f>H19+(0.5*(E19-H19))+H19+(0.5*(J19-H19))+L19+(0.5*(J19-L19))+L19+(0.5*(N19-L19))+N19+(0.5*(P19-N19))</f>
+      <c r="S19">
+        <f>I19+(0.5*(F19-I19))+I19+(0.5*(K19-I19))+M19+(0.5*(K19-M19))+M19+(0.5*(O19-M19))+O19+(0.5*(Q19-O19))</f>
         <v>926.30280000000005</v>
       </c>
-      <c r="S19" s="67">
+      <c r="T19" s="67">
         <v>73</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <f>(416+503)/2</f>
         <v>459.5</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <f>(264+443+321)/3</f>
         <v>342.66666666666669</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <f>(321+383)/2</f>
         <v>352</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <f>(443+568)/2</f>
         <v>505.5</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <f>(33+58+40+32)/4</f>
         <v>40.75</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f>(43+43)/2</f>
         <v>43</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f>(49+40)/2</f>
         <v>44.5</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <f>(66+73+58+69)/4</f>
         <v>66.5</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <f>(63+66)/2</f>
         <v>64.5</v>
       </c>
-      <c r="AD19" s="58">
+      <c r="AE19" s="58">
         <v>2.2879999999999998</v>
       </c>
-      <c r="AE19" s="58">
+      <c r="AF19" s="58">
         <v>1.5840000000000001</v>
       </c>
-      <c r="AF19" s="58">
+      <c r="AG19" s="58">
         <v>1.982</v>
       </c>
-      <c r="AG19" s="58">
+      <c r="AH19" s="58">
         <v>1.2749999999999999</v>
       </c>
-      <c r="AH19" s="58">
+      <c r="AI19" s="58">
         <v>0.98180000000000001</v>
       </c>
-      <c r="AI19" s="58">
+      <c r="AJ19" s="58">
         <v>3.1219999999999999</v>
       </c>
-      <c r="AJ19" s="58">
+      <c r="AK19" s="58">
         <v>4.12</v>
       </c>
-      <c r="AK19" s="58">
+      <c r="AL19" s="58">
         <v>3.5129999999999999</v>
       </c>
-      <c r="AL19" s="60">
+      <c r="AM19" s="60">
         <v>0.59750000000000003</v>
       </c>
-      <c r="AM19" s="58">
+      <c r="AN19" s="58">
         <v>13.49</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>41</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>96</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>102.2</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>107.8</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>109.7</v>
       </c>
-      <c r="AT19">
+      <c r="AU19">
         <v>88.2</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>92.4</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>100.7</v>
       </c>
-      <c r="AW19">
+      <c r="AX19">
         <v>102</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>110.5</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>93.1</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>98.7</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>108</v>
       </c>
-      <c r="BB19">
+      <c r="BC19">
         <v>109.5</v>
       </c>
-      <c r="BC19">
+      <c r="BD19">
         <v>110.5</v>
       </c>
-      <c r="BE19">
+      <c r="BF19">
         <v>0.92620000000000002</v>
       </c>
-      <c r="BF19">
+      <c r="BG19">
         <v>0.83819004524886886</v>
       </c>
-      <c r="BG19">
+      <c r="BH19">
         <v>0.62160000000000004</v>
       </c>
-      <c r="BH19">
+      <c r="BI19">
         <v>0.5625339366515838</v>
       </c>
-      <c r="BI19">
+      <c r="BJ19">
         <v>1.49002574002574</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BK19" t="s">
         <v>131</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BL19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:64">
+    <row r="20" spans="1:65">
       <c r="A20" s="7">
         <v>1102</v>
       </c>
       <c r="B20" s="2">
         <v>44228</v>
       </c>
-      <c r="C20" s="2" t="b">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>177</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>48.5</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>216.5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>477.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>343.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>538.5</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>276</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1738.25</v>
       </c>
-      <c r="L20" s="58">
+      <c r="M20" s="58">
         <v>2.7770000000000001</v>
       </c>
-      <c r="M20" s="58">
+      <c r="N20" s="58">
         <v>3.512</v>
       </c>
-      <c r="N20" s="58">
+      <c r="O20" s="58">
         <v>3.952</v>
       </c>
-      <c r="O20" s="58">
+      <c r="P20" s="58">
         <v>3.0049999999999999</v>
       </c>
-      <c r="P20" s="58">
+      <c r="Q20" s="58">
         <v>2.919</v>
       </c>
-      <c r="Q20" s="58">
+      <c r="R20" s="58">
         <v>3.2349999999999999</v>
       </c>
-      <c r="R20">
-        <f>E20+(0.5*(H20-E20))+H20+(0.5*(J20-H20))+L20+(0.5*(J20-L20))+N20+(0.5*(L20-N20))+N20+(0.5*(P20-N20))</f>
+      <c r="S20">
+        <f>F20+(0.5*(I20-F20))+I20+(0.5*(K20-I20))+M20+(0.5*(K20-M20))+O20+(0.5*(M20-O20))+O20+(0.5*(Q20-O20))</f>
         <v>651.93850000000009</v>
       </c>
-      <c r="S20" s="67">
+      <c r="T20" s="67">
         <v>77</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <f>(277+322)/2</f>
         <v>299.5</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <f>(224+231)/2</f>
         <v>227.5</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <f>(272+344)/2</f>
         <v>308</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <f>(309+368)/2</f>
         <v>338.5</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f>(31+54+33)/3</f>
         <v>39.333333333333336</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f>(38+44)/2</f>
         <v>41</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f>(38+49+43)/3</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <f>(37+57)/2</f>
         <v>47</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <f>(52+45)/2</f>
         <v>48.5</v>
       </c>
-      <c r="AD20" s="58">
+      <c r="AE20" s="58">
         <v>2.4359999999999999</v>
       </c>
-      <c r="AE20" s="59">
+      <c r="AF20" s="59">
         <v>2.633</v>
       </c>
-      <c r="AF20" s="58">
+      <c r="AG20" s="58">
         <v>2.8140000000000001</v>
       </c>
-      <c r="AG20" s="58">
+      <c r="AH20" s="58">
         <v>3.1589999999999998</v>
       </c>
-      <c r="AH20" s="58">
+      <c r="AI20" s="58">
         <v>2.7770000000000001</v>
       </c>
-      <c r="AI20" s="58">
+      <c r="AJ20" s="58">
         <v>8.5739999999999998</v>
       </c>
-      <c r="AJ20" s="58">
+      <c r="AK20" s="58">
         <v>5.4329999999999998</v>
       </c>
-      <c r="AK20" s="58">
+      <c r="AL20" s="58">
         <v>9.1509999999999998</v>
       </c>
-      <c r="AL20" s="58">
+      <c r="AM20" s="58">
         <v>6.9089999999999998</v>
       </c>
-      <c r="AM20" s="58">
+      <c r="AN20" s="58">
         <v>27.69</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>48</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>104.2</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>109.6</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>116.6</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>112.9</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>95</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>99</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>107.9</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>111.9</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>121.3</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>98.2</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>105.5</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>114.3</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>117.6</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>121.3</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>1.7053</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <v>1.405853256389118</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <v>0.878</v>
       </c>
-      <c r="BH20">
+      <c r="BI20">
         <v>0.72382522671063476</v>
       </c>
-      <c r="BI20">
+      <c r="BJ20">
         <v>1.9422551252847382</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BK20" t="s">
         <v>131</v>
       </c>
-      <c r="BK20" t="s">
+      <c r="BL20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:64">
+    <row r="25" spans="1:65">
       <c r="B25" s="57"/>
       <c r="C25" s="57"/>
     </row>
-    <row r="26" spans="1:64">
+    <row r="26" spans="1:65">
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
     </row>
-    <row r="27" spans="1:64">
+    <row r="27" spans="1:65">
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
     </row>
-    <row r="28" spans="1:64">
+    <row r="28" spans="1:65">
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
     </row>
-    <row r="29" spans="1:64">
+    <row r="29" spans="1:65">
       <c r="B29" s="57"/>
       <c r="C29" s="57"/>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:65">
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
     </row>
-    <row r="31" spans="1:64">
+    <row r="31" spans="1:65">
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
     </row>
-    <row r="32" spans="1:64">
+    <row r="32" spans="1:65">
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
     </row>
@@ -29659,7 +29722,7 @@
       <c r="C33" s="57"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R2:R11">
+  <conditionalFormatting sqref="S2:S11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -29669,7 +29732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R20">
+  <conditionalFormatting sqref="S2:S20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -29679,7 +29742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN20">
+  <conditionalFormatting sqref="AO2:AO20">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62285CEC-1E67-4D0F-95FB-CF6E5F82DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>Date of birth</t>
   </si>
@@ -208,9 +214,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>ogtt_rank</t>
-  </si>
-  <si>
     <t>animal</t>
   </si>
   <si>
@@ -254,46 +257,16 @@
   </si>
   <si>
     <t>euthanized</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +330,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -644,16 +661,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AV29" sqref="AV29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -847,11 +869,8 @@
       <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
@@ -865,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>58.5</v>
@@ -889,28 +908,28 @@
         <v>48742.5</v>
       </c>
       <c r="M2">
-        <v>2.358</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="N2">
-        <v>2.154</v>
+        <v>2.1539999999999999</v>
       </c>
       <c r="O2">
-        <v>2.537</v>
+        <v>2.5369999999999999</v>
       </c>
       <c r="P2">
-        <v>2.207</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="Q2">
-        <v>3.396</v>
+        <v>3.3959999999999999</v>
       </c>
       <c r="R2">
-        <v>5.576</v>
+        <v>5.5759999999999996</v>
       </c>
       <c r="S2">
-        <v>422.939999999999</v>
+        <v>422.93999999999897</v>
       </c>
       <c r="T2">
-        <v>71.00000009999999</v>
+        <v>71.000000099999994</v>
       </c>
       <c r="U2">
         <v>225</v>
@@ -943,19 +962,19 @@
         <v>58.5</v>
       </c>
       <c r="AE2">
-        <v>2.874</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="AF2">
-        <v>1.668</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.9635</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="AH2">
-        <v>1.414</v>
+        <v>1.4139999999999999</v>
       </c>
       <c r="AI2">
-        <v>2.358</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="AJ2">
         <v>11.42</v>
@@ -976,10 +995,10 @@
         <v>53.7</v>
       </c>
       <c r="AP2">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="AQ2">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="AR2">
         <v>100.9</v>
@@ -991,13 +1010,13 @@
         <v>104.6</v>
       </c>
       <c r="AU2">
-        <v>85.40000000000001</v>
+        <v>85.4</v>
       </c>
       <c r="AV2">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="AW2">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AX2">
         <v>99.5</v>
@@ -1027,25 +1046,22 @@
         <v>1.94557564224548</v>
       </c>
       <c r="BH2">
-        <v>0.7185</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="BI2">
-        <v>0.6836346336822074</v>
+        <v>0.68363463368220745</v>
       </c>
       <c r="BJ2">
-        <v>2.845929018789144</v>
+        <v>2.8459290187891439</v>
       </c>
       <c r="BK2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
@@ -1080,22 +1096,22 @@
         <v>46485</v>
       </c>
       <c r="M3">
-        <v>3.087</v>
+        <v>3.0870000000000002</v>
       </c>
       <c r="N3">
         <v>2.407</v>
       </c>
       <c r="O3">
-        <v>1.783</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="P3">
         <v>1.425</v>
       </c>
       <c r="Q3">
-        <v>2.155</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="R3">
-        <v>2.648</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="S3">
         <v>262.25</v>
@@ -1146,19 +1162,19 @@
         <v>1.681</v>
       </c>
       <c r="AI3">
-        <v>3.087</v>
+        <v>3.0870000000000002</v>
       </c>
       <c r="AJ3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AK3">
         <v>13.42</v>
       </c>
       <c r="AL3">
-        <v>9.667</v>
+        <v>9.6669999999999998</v>
       </c>
       <c r="AM3">
-        <v>6.699</v>
+        <v>6.6989999999999998</v>
       </c>
       <c r="AN3">
         <v>48.37</v>
@@ -1167,10 +1183,10 @@
         <v>52.1</v>
       </c>
       <c r="AP3">
-        <v>88.90000000000001</v>
+        <v>88.9</v>
       </c>
       <c r="AQ3">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="AR3">
         <v>98.2</v>
@@ -1197,7 +1213,7 @@
         <v>101.7</v>
       </c>
       <c r="AZ3">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="BA3">
         <v>90.7</v>
@@ -1206,34 +1222,34 @@
         <v>97</v>
       </c>
       <c r="BC3">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="BD3">
         <v>101.7</v>
       </c>
       <c r="BF3">
-        <v>1.7808</v>
+        <v>1.7807999999999999</v>
       </c>
       <c r="BG3">
         <v>1.751032448377581</v>
       </c>
       <c r="BH3">
-        <v>0.6059</v>
+        <v>0.60589999999999999</v>
       </c>
       <c r="BI3">
-        <v>0.595771878072763</v>
+        <v>0.59577187807276299</v>
       </c>
       <c r="BJ3">
-        <v>2.939098861198218</v>
+        <v>2.9390988611982181</v>
       </c>
       <c r="BK3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>56.5</v>
@@ -1271,22 +1287,22 @@
         <v>43717.5</v>
       </c>
       <c r="M4">
-        <v>3.344</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="N4">
-        <v>2.591</v>
+        <v>2.5910000000000002</v>
       </c>
       <c r="O4">
-        <v>3.498</v>
+        <v>3.4980000000000002</v>
       </c>
       <c r="P4">
-        <v>2.878</v>
+        <v>2.8780000000000001</v>
       </c>
       <c r="Q4">
-        <v>3.076</v>
+        <v>3.0760000000000001</v>
       </c>
       <c r="R4">
-        <v>5.281</v>
+        <v>5.2809999999999997</v>
       </c>
       <c r="S4">
         <v>432.02</v>
@@ -1307,10 +1323,10 @@
         <v>248.5</v>
       </c>
       <c r="Y4">
-        <v>90.33333333333333</v>
+        <v>90.333333333333329</v>
       </c>
       <c r="Z4">
-        <v>52.33333333333334</v>
+        <v>52.333333333333343</v>
       </c>
       <c r="AA4">
         <v>48</v>
@@ -1325,19 +1341,19 @@
         <v>56.5</v>
       </c>
       <c r="AE4">
-        <v>4.154</v>
+        <v>4.1539999999999999</v>
       </c>
       <c r="AF4">
         <v>2.879</v>
       </c>
       <c r="AG4">
-        <v>1.977</v>
+        <v>1.9770000000000001</v>
       </c>
       <c r="AH4">
         <v>2.734</v>
       </c>
       <c r="AI4">
-        <v>3.344</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="AJ4">
         <v>10.37</v>
@@ -1349,7 +1365,7 @@
         <v>11.56</v>
       </c>
       <c r="AM4">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="AN4">
         <v>38.47</v>
@@ -1376,7 +1392,7 @@
         <v>86.7</v>
       </c>
       <c r="AV4">
-        <v>91.90000000000001</v>
+        <v>91.9</v>
       </c>
       <c r="AW4">
         <v>96.8</v>
@@ -1391,7 +1407,7 @@
         <v>91.2</v>
       </c>
       <c r="BA4">
-        <v>96.09999999999999</v>
+        <v>96.1</v>
       </c>
       <c r="BB4">
         <v>101.3</v>
@@ -1409,25 +1425,22 @@
         <v>2.308432630614115</v>
       </c>
       <c r="BH4">
-        <v>0.7439</v>
+        <v>0.74390000000000001</v>
       </c>
       <c r="BI4">
-        <v>0.6818515123739688</v>
+        <v>0.68185151237396879</v>
       </c>
       <c r="BJ4">
-        <v>3.385535690280952</v>
+        <v>3.3855356902809519</v>
       </c>
       <c r="BK4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.366</v>
+        <v>4.3659999999999997</v>
       </c>
       <c r="T5">
         <v>73</v>
@@ -1474,19 +1487,19 @@
         <v>42</v>
       </c>
       <c r="AE5">
-        <v>2.304</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.9952</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="AG5">
         <v>1.381</v>
       </c>
       <c r="AH5">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="AI5">
-        <v>4.366</v>
+        <v>4.3659999999999997</v>
       </c>
       <c r="AJ5">
         <v>43.94</v>
@@ -1504,7 +1517,7 @@
         <v>49.6</v>
       </c>
       <c r="AP5">
-        <v>91.90000000000001</v>
+        <v>91.9</v>
       </c>
       <c r="AQ5">
         <v>98.3</v>
@@ -1522,7 +1535,7 @@
         <v>92.5</v>
       </c>
       <c r="AW5">
-        <v>97.09999999999999</v>
+        <v>97.1</v>
       </c>
       <c r="AX5">
         <v>101</v>
@@ -1546,28 +1559,28 @@
         <v>109.2</v>
       </c>
       <c r="BF5">
-        <v>2.5485</v>
+        <v>2.5485000000000002</v>
       </c>
       <c r="BG5">
-        <v>2.333791208791209</v>
+        <v>2.3337912087912089</v>
       </c>
       <c r="BH5">
-        <v>0.8614000000000001</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="BI5">
-        <v>0.7888278388278389</v>
+        <v>0.78882783882783891</v>
       </c>
       <c r="BJ5">
-        <v>2.958555839331321</v>
+        <v>2.9585558393313209</v>
       </c>
       <c r="BL5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BM5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
@@ -1581,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>38.5</v>
@@ -1611,7 +1624,7 @@
         <v>2.81</v>
       </c>
       <c r="O6">
-        <v>4.831</v>
+        <v>4.8310000000000004</v>
       </c>
       <c r="P6">
         <v>3.99</v>
@@ -1644,7 +1657,7 @@
         <v>139.5</v>
       </c>
       <c r="Z6">
-        <v>171.3333333333333</v>
+        <v>171.33333333333329</v>
       </c>
       <c r="AA6">
         <v>51.5</v>
@@ -1659,22 +1672,22 @@
         <v>38.5</v>
       </c>
       <c r="AE6">
-        <v>7.387</v>
+        <v>7.3869999999999996</v>
       </c>
       <c r="AF6">
-        <v>2.765</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="AG6">
-        <v>1.392</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="AH6">
-        <v>2.571</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="AI6">
         <v>1.81</v>
       </c>
       <c r="AJ6">
-        <v>8.186999999999999</v>
+        <v>8.1869999999999994</v>
       </c>
       <c r="AK6">
         <v>14.11</v>
@@ -1710,7 +1723,7 @@
         <v>93.2</v>
       </c>
       <c r="AV6">
-        <v>95.59999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="AW6">
         <v>100.5</v>
@@ -1737,31 +1750,28 @@
         <v>110.4</v>
       </c>
       <c r="BF6">
-        <v>2.506</v>
+        <v>2.5059999999999998</v>
       </c>
       <c r="BG6">
-        <v>2.269927536231884</v>
+        <v>2.2699275362318838</v>
       </c>
       <c r="BH6">
-        <v>0.7164</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="BI6">
-        <v>0.6489130434782608</v>
+        <v>0.64891304347826084</v>
       </c>
       <c r="BJ6">
-        <v>3.498045784477945</v>
+        <v>3.4980457844779451</v>
       </c>
       <c r="BK6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL6" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
@@ -1796,10 +1806,10 @@
         <v>59782.5</v>
       </c>
       <c r="M7">
-        <v>1.846</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="N7">
-        <v>1.388</v>
+        <v>1.3879999999999999</v>
       </c>
       <c r="O7">
         <v>1.617</v>
@@ -1808,7 +1818,7 @@
         <v>1.71</v>
       </c>
       <c r="Q7">
-        <v>0.9908</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="R7">
         <v>1.123</v>
@@ -1850,31 +1860,31 @@
         <v>169</v>
       </c>
       <c r="AE7">
-        <v>2.039</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="AF7">
         <v>1.476</v>
       </c>
       <c r="AG7">
-        <v>1.063</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="AH7">
         <v>1.603</v>
       </c>
       <c r="AI7">
-        <v>1.846</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="AJ7">
-        <v>2.708</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="AK7">
-        <v>2.297</v>
+        <v>2.2970000000000002</v>
       </c>
       <c r="AL7">
-        <v>3.373</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="AM7">
-        <v>3.086</v>
+        <v>3.0859999999999999</v>
       </c>
       <c r="AN7">
         <v>11.62</v>
@@ -1901,7 +1911,7 @@
         <v>86.7</v>
       </c>
       <c r="AV7">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="AW7">
         <v>93</v>
@@ -1913,7 +1923,7 @@
         <v>105.5</v>
       </c>
       <c r="AZ7">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="BA7">
         <v>93.2</v>
@@ -1931,25 +1941,25 @@
         <v>1.3107</v>
       </c>
       <c r="BG7">
-        <v>1.242369668246445</v>
+        <v>1.2423696682464449</v>
       </c>
       <c r="BH7">
-        <v>0.591</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="BI7">
-        <v>0.5601895734597157</v>
+        <v>0.56018957345971565</v>
       </c>
       <c r="BJ7">
-        <v>2.217766497461929</v>
+        <v>2.2177664974619291</v>
       </c>
       <c r="BK7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
@@ -1963,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>138</v>
@@ -1990,19 +2000,19 @@
         <v>2.827</v>
       </c>
       <c r="N8">
-        <v>2.017</v>
+        <v>2.0169999999999999</v>
       </c>
       <c r="O8">
-        <v>1.297</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="P8">
-        <v>1.543</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="Q8">
-        <v>2.076</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="R8">
-        <v>2.215</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="S8">
         <v>238.005</v>
@@ -2011,7 +2021,7 @@
         <v>96</v>
       </c>
       <c r="U8">
-        <v>387.6666666666667</v>
+        <v>387.66666666666669</v>
       </c>
       <c r="V8">
         <v>281</v>
@@ -2026,7 +2036,7 @@
         <v>435.5</v>
       </c>
       <c r="Z8">
-        <v>174.3333333333333</v>
+        <v>174.33333333333329</v>
       </c>
       <c r="AA8">
         <v>78.5</v>
@@ -2041,7 +2051,7 @@
         <v>138</v>
       </c>
       <c r="AE8">
-        <v>5.183</v>
+        <v>5.1829999999999998</v>
       </c>
       <c r="AF8">
         <v>2.09</v>
@@ -2050,22 +2060,22 @@
         <v>1.2</v>
       </c>
       <c r="AH8">
-        <v>1.824</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="AI8">
         <v>2.827</v>
       </c>
       <c r="AJ8">
-        <v>2.845</v>
+        <v>2.8450000000000002</v>
       </c>
       <c r="AK8">
-        <v>3.697</v>
+        <v>3.6970000000000001</v>
       </c>
       <c r="AL8">
         <v>3.637</v>
       </c>
       <c r="AM8">
-        <v>2.937</v>
+        <v>2.9369999999999998</v>
       </c>
       <c r="AN8">
         <v>16.37</v>
@@ -2074,10 +2084,10 @@
         <v>60.7</v>
       </c>
       <c r="AP8">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="AQ8">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="AR8">
         <v>106.3</v>
@@ -2089,10 +2099,10 @@
         <v>110.7</v>
       </c>
       <c r="AU8">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="AV8">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AW8">
         <v>99.5</v>
@@ -2125,25 +2135,22 @@
         <v>1.27850133809099</v>
       </c>
       <c r="BH8">
-        <v>0.696</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="BI8">
-        <v>0.6208742194469223</v>
+        <v>0.62087421944692234</v>
       </c>
       <c r="BJ8">
         <v>2.059195402298851</v>
       </c>
       <c r="BK8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL8" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
@@ -2157,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.951</v>
+        <v>4.9509999999999996</v>
       </c>
       <c r="T9">
         <v>57</v>
@@ -2190,7 +2197,7 @@
         <v>52</v>
       </c>
       <c r="AE9">
-        <v>2.132</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="AF9">
         <v>1.875</v>
@@ -2199,10 +2206,10 @@
         <v>1.29</v>
       </c>
       <c r="AH9">
-        <v>1.934</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="AI9">
-        <v>4.951</v>
+        <v>4.9509999999999996</v>
       </c>
       <c r="AJ9">
         <v>10.52</v>
@@ -2211,7 +2218,7 @@
         <v>12.96</v>
       </c>
       <c r="AL9">
-        <v>4.553</v>
+        <v>4.5529999999999999</v>
       </c>
       <c r="AM9">
         <v>16.79</v>
@@ -2220,7 +2227,7 @@
         <v>48.7</v>
       </c>
       <c r="AP9">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="AQ9">
         <v>102</v>
@@ -2247,7 +2254,7 @@
         <v>112.1</v>
       </c>
       <c r="AZ9">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="BA9">
         <v>101</v>
@@ -2262,28 +2269,28 @@
         <v>112.1</v>
       </c>
       <c r="BF9">
-        <v>1.9369</v>
+        <v>1.9369000000000001</v>
       </c>
       <c r="BG9">
-        <v>1.727832292595897</v>
+        <v>1.7278322925958971</v>
       </c>
       <c r="BH9">
-        <v>0.7754</v>
+        <v>0.77539999999999998</v>
       </c>
       <c r="BI9">
         <v>0.6917038358608385</v>
       </c>
       <c r="BJ9">
-        <v>2.497936548877999</v>
+        <v>2.4979365488779992</v>
       </c>
       <c r="BL9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BM9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>59965</v>
       </c>
       <c r="M10">
-        <v>2.043</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="N10">
         <v>1.54</v>
@@ -2330,10 +2337,10 @@
         <v>2.976</v>
       </c>
       <c r="Q10">
-        <v>1.249</v>
+        <v>1.2490000000000001</v>
       </c>
       <c r="R10">
-        <v>1.561</v>
+        <v>1.5609999999999999</v>
       </c>
       <c r="S10">
         <v>204.07</v>
@@ -2342,7 +2349,7 @@
         <v>79</v>
       </c>
       <c r="U10">
-        <v>297.3333333333333</v>
+        <v>297.33333333333331</v>
       </c>
       <c r="V10">
         <v>326.5</v>
@@ -2372,19 +2379,19 @@
         <v>171</v>
       </c>
       <c r="AE10">
-        <v>4.534</v>
+        <v>4.5339999999999998</v>
       </c>
       <c r="AF10">
-        <v>8.913</v>
+        <v>8.9130000000000003</v>
       </c>
       <c r="AG10">
-        <v>2.239</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="AH10">
-        <v>1.725</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="AI10">
-        <v>2.043</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="AJ10">
         <v>3.96</v>
@@ -2393,10 +2400,10 @@
         <v>6.798</v>
       </c>
       <c r="AL10">
-        <v>5.126</v>
+        <v>5.1260000000000003</v>
       </c>
       <c r="AM10">
-        <v>3.001</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="AN10">
         <v>14.42</v>
@@ -2420,13 +2427,13 @@
         <v>109.2</v>
       </c>
       <c r="AU10">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="AV10">
-        <v>95.09999999999999</v>
+        <v>95.1</v>
       </c>
       <c r="AW10">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="AX10">
         <v>102.9</v>
@@ -2456,22 +2463,22 @@
         <v>1.193551236749117</v>
       </c>
       <c r="BH10">
-        <v>0.6283</v>
+        <v>0.62829999999999997</v>
       </c>
       <c r="BI10">
-        <v>0.5550353356890459</v>
+        <v>0.55503533568904595</v>
       </c>
       <c r="BJ10">
         <v>2.150405857074646</v>
       </c>
       <c r="BK10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
@@ -2485,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>62</v>
@@ -2509,22 +2516,22 @@
         <v>56462.5</v>
       </c>
       <c r="M11">
-        <v>1.279</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="N11">
-        <v>1.443</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="O11">
-        <v>2.022</v>
+        <v>2.0219999999999998</v>
       </c>
       <c r="P11">
-        <v>1.398</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="Q11">
         <v>1.347</v>
       </c>
       <c r="R11">
-        <v>2.301</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="S11">
         <v>198.65</v>
@@ -2551,7 +2558,7 @@
         <v>59</v>
       </c>
       <c r="AA11">
-        <v>53.33333333333334</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="AB11">
         <v>50</v>
@@ -2563,7 +2570,7 @@
         <v>62</v>
       </c>
       <c r="AE11">
-        <v>2.324</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="AG11">
         <v>1.119</v>
@@ -2572,16 +2579,16 @@
         <v>1.389</v>
       </c>
       <c r="AI11">
-        <v>1.279</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="AJ11">
-        <v>4.588</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="AK11">
-        <v>2.971</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="AL11">
-        <v>3.465</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="AM11">
         <v>2.145</v>
@@ -2593,7 +2600,7 @@
         <v>54.1</v>
       </c>
       <c r="AP11">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="AQ11">
         <v>102</v>
@@ -2608,16 +2615,16 @@
         <v>105.5</v>
       </c>
       <c r="AU11">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="AV11">
         <v>93.8</v>
       </c>
       <c r="AW11">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="AX11">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="AY11">
         <v>108.8</v>
@@ -2638,31 +2645,28 @@
         <v>108.8</v>
       </c>
       <c r="BF11">
-        <v>0.8904</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="BG11">
-        <v>0.8183823529411764</v>
+        <v>0.81838235294117645</v>
       </c>
       <c r="BH11">
-        <v>0.6515</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="BI11">
-        <v>0.5988051470588235</v>
+        <v>0.59880514705882348</v>
       </c>
       <c r="BJ11">
-        <v>1.366692248656945</v>
+        <v>1.3666922486569451</v>
       </c>
       <c r="BK11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12">
         <v>72</v>
@@ -2706,16 +2710,16 @@
         <v>5.008</v>
       </c>
       <c r="O12">
-        <v>6.969</v>
+        <v>6.9690000000000003</v>
       </c>
       <c r="P12">
-        <v>5.861</v>
+        <v>5.8609999999999998</v>
       </c>
       <c r="Q12">
-        <v>8.509</v>
+        <v>8.5090000000000003</v>
       </c>
       <c r="R12">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="S12">
         <v>653.495</v>
@@ -2739,7 +2743,7 @@
         <v>68</v>
       </c>
       <c r="Z12">
-        <v>53.33333333333334</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="AA12">
         <v>63</v>
@@ -2754,7 +2758,7 @@
         <v>72</v>
       </c>
       <c r="AE12">
-        <v>0.9529</v>
+        <v>0.95289999999999997</v>
       </c>
       <c r="AF12">
         <v>1.758</v>
@@ -2781,7 +2785,7 @@
         <v>17.55</v>
       </c>
       <c r="AN12">
-        <v>8.289999999999999</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AO12">
         <v>41.1</v>
@@ -2790,7 +2794,7 @@
         <v>78.5</v>
       </c>
       <c r="AQ12">
-        <v>83.09999999999999</v>
+        <v>83.1</v>
       </c>
       <c r="AR12">
         <v>87.3</v>
@@ -2799,10 +2803,10 @@
         <v>89.5</v>
       </c>
       <c r="AT12">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="AU12">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AV12">
         <v>75.8</v>
@@ -2814,10 +2818,10 @@
         <v>83.8</v>
       </c>
       <c r="AY12">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="AZ12">
-        <v>76.09999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="BA12">
         <v>81.2</v>
@@ -2829,34 +2833,31 @@
         <v>89</v>
       </c>
       <c r="BD12">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="BF12">
-        <v>1.493</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="BG12">
         <v>1.615800865800866</v>
       </c>
       <c r="BH12">
-        <v>0.5354</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="BI12">
-        <v>0.5794372294372294</v>
+        <v>0.57943722943722942</v>
       </c>
       <c r="BJ12">
-        <v>2.788569293985805</v>
+        <v>2.7885692939858049</v>
       </c>
       <c r="BK12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>59.5</v>
@@ -2897,19 +2898,19 @@
         <v>3.29</v>
       </c>
       <c r="N13">
-        <v>5.481</v>
+        <v>5.4809999999999999</v>
       </c>
       <c r="O13">
-        <v>6.564</v>
+        <v>6.5640000000000001</v>
       </c>
       <c r="P13">
-        <v>6.934</v>
+        <v>6.9340000000000002</v>
       </c>
       <c r="Q13">
         <v>17.88</v>
       </c>
       <c r="R13">
-        <v>7.879</v>
+        <v>7.8789999999999996</v>
       </c>
       <c r="S13">
         <v>1316.55</v>
@@ -2948,28 +2949,28 @@
         <v>59.5</v>
       </c>
       <c r="AE13">
-        <v>0.4745</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="AF13">
         <v>1.18</v>
       </c>
       <c r="AG13">
-        <v>1.055</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="AH13">
-        <v>2.123</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="AI13">
         <v>3.29</v>
       </c>
       <c r="AJ13">
-        <v>8.537000000000001</v>
+        <v>8.5370000000000008</v>
       </c>
       <c r="AK13">
-        <v>16.69</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="AL13">
-        <v>19.33</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="AM13">
         <v>15.15</v>
@@ -2987,7 +2988,7 @@
         <v>84.2</v>
       </c>
       <c r="AR13">
-        <v>87.59999999999999</v>
+        <v>87.6</v>
       </c>
       <c r="AS13">
         <v>91</v>
@@ -2999,7 +3000,7 @@
         <v>69.7</v>
       </c>
       <c r="AV13">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AW13">
         <v>84.2</v>
@@ -3032,25 +3033,22 @@
         <v>1.312512716174975</v>
       </c>
       <c r="BH13">
-        <v>0.6312</v>
+        <v>0.63119999999999998</v>
       </c>
       <c r="BI13">
-        <v>0.642115971515768</v>
+        <v>0.64211597151576805</v>
       </c>
       <c r="BJ13">
         <v>2.04404309252218</v>
       </c>
       <c r="BK13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL13" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
@@ -3064,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -3091,22 +3089,22 @@
         <v>1.107</v>
       </c>
       <c r="N14">
-        <v>4.831</v>
+        <v>4.8310000000000004</v>
       </c>
       <c r="O14">
-        <v>2.626</v>
+        <v>2.6259999999999999</v>
       </c>
       <c r="P14">
         <v>2.31</v>
       </c>
       <c r="Q14">
-        <v>5.872</v>
+        <v>5.8719999999999999</v>
       </c>
       <c r="R14">
-        <v>2.098</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="S14">
-        <v>453.485</v>
+        <v>453.48500000000001</v>
       </c>
       <c r="T14">
         <v>72</v>
@@ -3142,16 +3140,16 @@
         <v>50</v>
       </c>
       <c r="AE14">
-        <v>0.8927</v>
+        <v>0.89270000000000005</v>
       </c>
       <c r="AF14">
-        <v>0.9694</v>
+        <v>0.96940000000000004</v>
       </c>
       <c r="AG14">
-        <v>1.257</v>
+        <v>1.2569999999999999</v>
       </c>
       <c r="AH14">
-        <v>1.249</v>
+        <v>1.2490000000000001</v>
       </c>
       <c r="AI14">
         <v>1.107</v>
@@ -3166,10 +3164,10 @@
         <v>12.91</v>
       </c>
       <c r="AM14">
-        <v>9.305999999999999</v>
+        <v>9.3059999999999992</v>
       </c>
       <c r="AN14">
-        <v>9.640000000000001</v>
+        <v>9.64</v>
       </c>
       <c r="AO14">
         <v>41.3</v>
@@ -3178,7 +3176,7 @@
         <v>78.5</v>
       </c>
       <c r="AQ14">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="AR14">
         <v>87.2</v>
@@ -3190,22 +3188,22 @@
         <v>92.3</v>
       </c>
       <c r="AU14">
-        <v>71.40000000000001</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AV14">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="AW14">
-        <v>82.09999999999999</v>
+        <v>82.1</v>
       </c>
       <c r="AX14">
-        <v>85.40000000000001</v>
+        <v>85.4</v>
       </c>
       <c r="AY14">
         <v>94.5</v>
       </c>
       <c r="AZ14">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="BA14">
         <v>81</v>
@@ -3214,7 +3212,7 @@
         <v>85.7</v>
       </c>
       <c r="BC14">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="BD14">
         <v>94.5</v>
@@ -3226,25 +3224,22 @@
         <v>1.203597883597884</v>
       </c>
       <c r="BH14">
-        <v>0.5462</v>
+        <v>0.54620000000000002</v>
       </c>
       <c r="BI14">
-        <v>0.5779894179894181</v>
+        <v>0.57798941798941805</v>
       </c>
       <c r="BJ14">
-        <v>2.082387403881362</v>
+        <v>2.0823874038813619</v>
       </c>
       <c r="BK14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL14" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
@@ -3294,7 +3289,7 @@
         <v>67.5</v>
       </c>
       <c r="X15">
-        <v>98.33333333333333</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="Y15">
         <v>70</v>
@@ -3315,7 +3310,7 @@
         <v>48</v>
       </c>
       <c r="AE15">
-        <v>3.134</v>
+        <v>3.1339999999999999</v>
       </c>
       <c r="AF15">
         <v>1.165</v>
@@ -3324,13 +3319,13 @@
         <v>0.97</v>
       </c>
       <c r="AH15">
-        <v>1.055</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="AI15">
         <v>1.177</v>
       </c>
       <c r="AJ15">
-        <v>33.55</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="AK15">
         <v>17.12</v>
@@ -3345,22 +3340,22 @@
         <v>21.59</v>
       </c>
       <c r="AO15">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="AP15">
         <v>80</v>
       </c>
       <c r="AQ15">
-        <v>85.09999999999999</v>
+        <v>85.1</v>
       </c>
       <c r="AR15">
         <v>89.5</v>
       </c>
       <c r="AS15">
-        <v>93.90000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="AT15">
-        <v>94.40000000000001</v>
+        <v>94.4</v>
       </c>
       <c r="AU15">
         <v>73.5</v>
@@ -3372,7 +3367,7 @@
         <v>82.3</v>
       </c>
       <c r="AX15">
-        <v>87.40000000000001</v>
+        <v>87.4</v>
       </c>
       <c r="AY15">
         <v>98</v>
@@ -3381,40 +3376,40 @@
         <v>76.7</v>
       </c>
       <c r="BA15">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="BB15">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="BC15">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="BD15">
         <v>98</v>
       </c>
       <c r="BF15">
-        <v>1.5393</v>
+        <v>1.5392999999999999</v>
       </c>
       <c r="BG15">
         <v>1.570714285714286</v>
       </c>
       <c r="BH15">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="BI15">
-        <v>0.6540816326530612</v>
+        <v>0.65408163265306118</v>
       </c>
       <c r="BJ15">
-        <v>2.401404056162247</v>
+        <v>2.4014040561622472</v>
       </c>
       <c r="BK15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
@@ -3449,25 +3444,25 @@
         <v>42057.5</v>
       </c>
       <c r="M16">
-        <v>4.525</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="N16">
-        <v>4.078</v>
+        <v>4.0780000000000003</v>
       </c>
       <c r="O16">
-        <v>8.012</v>
+        <v>8.0120000000000005</v>
       </c>
       <c r="P16">
-        <v>7.018</v>
+        <v>7.0179999999999998</v>
       </c>
       <c r="Q16">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="R16">
-        <v>6.535</v>
+        <v>6.5350000000000001</v>
       </c>
       <c r="S16">
-        <v>932.1849999999999</v>
+        <v>932.18499999999995</v>
       </c>
       <c r="T16">
         <v>81</v>
@@ -3476,7 +3471,7 @@
         <v>84</v>
       </c>
       <c r="V16">
-        <v>73.33333333333333</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="W16">
         <v>77</v>
@@ -3503,19 +3498,19 @@
         <v>43</v>
       </c>
       <c r="AE16">
-        <v>1.933</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="AF16">
-        <v>2.502</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="AG16">
-        <v>2.493</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="AH16">
-        <v>3.167</v>
+        <v>3.1669999999999998</v>
       </c>
       <c r="AI16">
-        <v>4.525</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="AJ16">
         <v>23.9</v>
@@ -3539,10 +3534,10 @@
         <v>82.5</v>
       </c>
       <c r="AQ16">
-        <v>87.59999999999999</v>
+        <v>87.6</v>
       </c>
       <c r="AR16">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="AS16">
         <v>94.8</v>
@@ -3551,13 +3546,13 @@
         <v>94.8</v>
       </c>
       <c r="AU16">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AV16">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AW16">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="AX16">
         <v>89.2</v>
@@ -3566,10 +3561,10 @@
         <v>98.3</v>
       </c>
       <c r="AZ16">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="BA16">
-        <v>85.40000000000001</v>
+        <v>85.4</v>
       </c>
       <c r="BB16">
         <v>91.7</v>
@@ -3581,31 +3576,31 @@
         <v>98.3</v>
       </c>
       <c r="BF16">
-        <v>1.747</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="BG16">
-        <v>1.777212614445575</v>
+        <v>1.7772126144455751</v>
       </c>
       <c r="BH16">
-        <v>0.6412</v>
+        <v>0.64119999999999999</v>
       </c>
       <c r="BI16">
-        <v>0.6522889114954222</v>
+        <v>0.65228891149542223</v>
       </c>
       <c r="BJ16">
-        <v>2.724578914535246</v>
+        <v>2.7245789145352459</v>
       </c>
       <c r="BK16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BM16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
@@ -3640,25 +3635,25 @@
         <v>41505</v>
       </c>
       <c r="M17">
-        <v>4.015</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="N17">
-        <v>5.292</v>
+        <v>5.2919999999999998</v>
       </c>
       <c r="O17">
-        <v>5.079</v>
+        <v>5.0789999999999997</v>
       </c>
       <c r="P17">
-        <v>4.417</v>
+        <v>4.4169999999999998</v>
       </c>
       <c r="Q17">
-        <v>5.233</v>
+        <v>5.2329999999999997</v>
       </c>
       <c r="R17">
-        <v>6.299</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="S17">
-        <v>636.579999999999</v>
+        <v>636.57999999999902</v>
       </c>
       <c r="T17">
         <v>70</v>
@@ -3685,28 +3680,28 @@
         <v>55</v>
       </c>
       <c r="AB17">
-        <v>76.33333333333333</v>
+        <v>76.333333333333329</v>
       </c>
       <c r="AC17">
-        <v>63.33333333333334</v>
+        <v>63.333333333333343</v>
       </c>
       <c r="AD17">
         <v>58.5</v>
       </c>
       <c r="AE17">
-        <v>2.518</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="AF17">
         <v>3.536</v>
       </c>
       <c r="AG17">
-        <v>3.642</v>
+        <v>3.6419999999999999</v>
       </c>
       <c r="AH17">
-        <v>2.329</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="AI17">
-        <v>4.015</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="AJ17">
         <v>17.88</v>
@@ -3730,10 +3725,10 @@
         <v>93.2</v>
       </c>
       <c r="AQ17">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="AR17">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="AS17">
         <v>99.3</v>
@@ -3748,7 +3743,7 @@
         <v>88.5</v>
       </c>
       <c r="AW17">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="AX17">
         <v>90.5</v>
@@ -3766,7 +3761,7 @@
         <v>98.5</v>
       </c>
       <c r="BC17">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="BD17">
         <v>104.4</v>
@@ -3778,22 +3773,22 @@
         <v>1.119827586206896</v>
       </c>
       <c r="BH17">
-        <v>0.6014</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="BI17">
-        <v>0.5760536398467433</v>
+        <v>0.57605363984674329</v>
       </c>
       <c r="BJ17">
-        <v>1.943964083804456</v>
+        <v>1.9439640838044561</v>
       </c>
       <c r="BK17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
@@ -3816,7 +3811,7 @@
         <v>78.5</v>
       </c>
       <c r="Z18">
-        <v>61.33333333333334</v>
+        <v>61.333333333333343</v>
       </c>
       <c r="AA18">
         <v>58</v>
@@ -3825,16 +3820,16 @@
         <v>41.2</v>
       </c>
       <c r="AP18">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="AQ18">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="AU18">
         <v>85</v>
       </c>
       <c r="AV18">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="AZ18">
         <v>89.7</v>
@@ -3843,10 +3838,10 @@
         <v>94.2</v>
       </c>
       <c r="BM18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
@@ -3860,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>64.5</v>
@@ -3884,25 +3879,25 @@
         <v>55007.5</v>
       </c>
       <c r="M19">
-        <v>0.9818</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="N19">
-        <v>0.8751</v>
+        <v>0.87509999999999999</v>
       </c>
       <c r="O19">
         <v>1.496</v>
       </c>
       <c r="P19">
-        <v>0.7983</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="Q19">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R19">
         <v>1.919</v>
       </c>
       <c r="S19">
-        <v>153.906</v>
+        <v>153.90600000000001</v>
       </c>
       <c r="T19">
         <v>73</v>
@@ -3911,7 +3906,7 @@
         <v>459.5</v>
       </c>
       <c r="V19">
-        <v>342.6666666666667</v>
+        <v>342.66666666666669</v>
       </c>
       <c r="W19">
         <v>352</v>
@@ -3935,31 +3930,31 @@
         <v>64.5</v>
       </c>
       <c r="AE19">
-        <v>2.288</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="AF19">
-        <v>1.584</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="AG19">
         <v>1.982</v>
       </c>
       <c r="AH19">
-        <v>1.275</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="AI19">
-        <v>0.9818</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="AJ19">
-        <v>3.122</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="AK19">
         <v>4.12</v>
       </c>
       <c r="AL19">
-        <v>3.513</v>
+        <v>3.5129999999999999</v>
       </c>
       <c r="AM19">
-        <v>0.5975</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="AN19">
         <v>13.49</v>
@@ -3983,7 +3978,7 @@
         <v>88.2</v>
       </c>
       <c r="AV19">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="AW19">
         <v>100.7</v>
@@ -3995,7 +3990,7 @@
         <v>110.5</v>
       </c>
       <c r="AZ19">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="BA19">
         <v>98.7</v>
@@ -4010,13 +4005,13 @@
         <v>110.5</v>
       </c>
       <c r="BF19">
-        <v>0.9262</v>
+        <v>0.92620000000000002</v>
       </c>
       <c r="BG19">
-        <v>0.8381900452488689</v>
+        <v>0.83819004524886886</v>
       </c>
       <c r="BH19">
-        <v>0.6216</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="BI19">
         <v>0.5625339366515838</v>
@@ -4025,16 +4020,13 @@
         <v>1.49002574002574</v>
       </c>
       <c r="BK19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL19" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:66">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
@@ -4048,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <v>48.5</v>
@@ -4072,7 +4064,7 @@
         <v>46565</v>
       </c>
       <c r="M20">
-        <v>2.777</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="N20">
         <v>3.512</v>
@@ -4081,13 +4073,13 @@
         <v>3.952</v>
       </c>
       <c r="P20">
-        <v>3.005</v>
+        <v>3.0049999999999999</v>
       </c>
       <c r="Q20">
         <v>2.919</v>
       </c>
       <c r="R20">
-        <v>3.235</v>
+        <v>3.2349999999999999</v>
       </c>
       <c r="S20">
         <v>377.03</v>
@@ -4108,13 +4100,13 @@
         <v>338.5</v>
       </c>
       <c r="Z20">
-        <v>39.33333333333334</v>
+        <v>39.333333333333343</v>
       </c>
       <c r="AA20">
         <v>41</v>
       </c>
       <c r="AB20">
-        <v>43.33333333333334</v>
+        <v>43.333333333333343</v>
       </c>
       <c r="AC20">
         <v>47</v>
@@ -4123,31 +4115,31 @@
         <v>48.5</v>
       </c>
       <c r="AE20">
-        <v>2.436</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="AF20">
         <v>2.633</v>
       </c>
       <c r="AG20">
-        <v>2.814</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="AH20">
-        <v>3.159</v>
+        <v>3.1589999999999998</v>
       </c>
       <c r="AI20">
-        <v>2.777</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="AJ20">
-        <v>8.574</v>
+        <v>8.5739999999999998</v>
       </c>
       <c r="AK20">
-        <v>5.433</v>
+        <v>5.4329999999999998</v>
       </c>
       <c r="AL20">
-        <v>9.151</v>
+        <v>9.1509999999999998</v>
       </c>
       <c r="AM20">
-        <v>6.909</v>
+        <v>6.9089999999999998</v>
       </c>
       <c r="AN20">
         <v>27.69</v>
@@ -4207,19 +4199,16 @@
         <v>0.878</v>
       </c>
       <c r="BI20">
-        <v>0.7238252267106348</v>
+        <v>0.72382522671063476</v>
       </c>
       <c r="BJ20">
         <v>1.942255125284738</v>
       </c>
       <c r="BK20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62285CEC-1E67-4D0F-95FB-CF6E5F82DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4282154-B5F5-4333-AAF0-0789404174CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>Date of birth</t>
   </si>
@@ -257,6 +257,39 @@
   </si>
   <si>
     <t>euthanized</t>
+  </si>
+  <si>
+    <t>Nile rat label</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -662,3552 +695,3585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM20"/>
+  <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AV29" sqref="AV29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2">
         <v>44219</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2" t="b">
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>58.5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>178</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>314.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>551</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>589</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>200</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>48742.5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2.1539999999999999</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.5369999999999999</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2.2069999999999999</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3.3959999999999999</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5.5759999999999996</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>422.93999999999897</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>71.000000099999994</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>225</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>83</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>206</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>221</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>193</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>41</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>48</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>52.5</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>50</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>58.5</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2.8740000000000001</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1.6679999999999999</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.96350000000000002</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1.4139999999999999</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>11.42</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>12.25</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>13.18</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>11.28</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>32.33</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>53.7</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>92.6</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>98.1</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>100.9</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>104.4</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>104.6</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>85.4</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>90.9</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>94.9</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>99.5</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>105.1</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>90.2</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>96</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>101.3</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>104.5</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>105.1</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>2.0448</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>1.94557564224548</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>0.71850000000000003</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>0.68363463368220745</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>2.8459290187891439</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>68</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>44219</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3" t="b">
+      <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>48</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>196.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>344.5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>449.5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>518</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>284.5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>46485</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2.407</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.7829999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1.425</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.1549999999999998</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.6480000000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>262.25</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>73</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>265</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>289.5</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>326</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>309</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>370.5</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>43</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>44</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>40</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>34</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>48</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1.92</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>3.101</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1.89</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1.681</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>16.899999999999999</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>13.42</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>9.6669999999999998</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6.6989999999999998</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>48.37</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>52.1</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>88.9</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>93.4</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>98.2</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>98.8</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>100.4</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>82.5</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>86.7</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>92.5</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>94.3</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>101.7</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>85.9</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>90.7</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>97</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>98.1</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>101.7</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>1.7807999999999999</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>1.751032448377581</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>0.60589999999999999</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>0.59577187807276299</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>2.9390988611982181</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>68</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2">
         <v>44219</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>56.5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>219</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>334</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>462</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>511</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>189</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>43717.5</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2.5910000000000002</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3.4980000000000002</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2.8780000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3.0760000000000001</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>5.2809999999999997</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>432.02</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>78</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>256.5</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>250.5</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>139.5</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>248.5</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>90.333333333333329</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>52.333333333333343</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>48</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>40</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>38.5</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>56.5</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>4.1539999999999999</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2.879</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1.9770000000000001</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2.734</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>10.37</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>12.76</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>11.56</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>9.4499999999999993</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>38.47</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>51.3</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>93.5</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>99.3</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>103</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>107</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>106.9</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>86.7</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>91.9</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>96.8</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>102.1</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>109.1</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>91.2</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>96.1</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>101.3</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>106.7</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>109.1</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>2.5185</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>2.308432630614115</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>0.74390000000000001</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <v>0.68185151237396879</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>3.3855356902809519</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>68</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>44219</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>73</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>63</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>46.5</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>78</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>63</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>41</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>50</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>64.5</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>63.5</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>42</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2.3039999999999998</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>0.99519999999999997</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1.381</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>43.94</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>10.64</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>39.24</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>51.56</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>49.6</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>91.9</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>98.3</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>102.8</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>105</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>85.2</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>92.5</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>97.1</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>101</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>109.2</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>89</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>96.7</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>102.3</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>105.7</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>109.2</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>2.5485000000000002</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>2.3337912087912089</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>0.86140000000000005</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5">
         <v>0.78882783882783891</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <v>2.9585558393313209</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>71</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2">
         <v>44219</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6" t="b">
+      <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>38.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>160</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>308</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>368</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>445.5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>99</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>35250</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.81</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2.81</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4.8310000000000004</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3.99</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>7</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4.88</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>626.66</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>70</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>232.5</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>203.5</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>205.5</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>225.5</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>139.5</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>171.33333333333329</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>51.5</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>55</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>46</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>38.5</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7.3869999999999996</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2.7650000000000001</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1.3919999999999999</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>2.5710000000000002</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1.81</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8.1869999999999994</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>14.11</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>13.63</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>14.34</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>25.71</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>55.8</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>95.7</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>102.3</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>106.3</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>108.3</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>108.6</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>93.2</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>95.6</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>100.5</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>103.4</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>110.4</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>96.7</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>98.7</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>106.2</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>110.1</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>110.4</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>2.5059999999999998</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>2.2699275362318838</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>0.71640000000000004</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <v>0.64891304347826084</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <v>3.4980457844779451</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>68</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>44219</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7" t="b">
+      <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>169</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>355</v>
-      </c>
-      <c r="H7">
-        <v>600</v>
       </c>
       <c r="I7">
         <v>600</v>
       </c>
       <c r="J7">
+        <v>600</v>
+      </c>
+      <c r="K7">
         <v>569.5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>392</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>59782.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1.3879999999999999</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1.617</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.71</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.99080000000000001</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.123</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>151.756</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>69</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>383</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>389</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>367</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>514</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>509</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>77.25</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>105</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>67.5</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>61.5</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>169</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2.0390000000000001</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1.476</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1.0629999999999999</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1.603</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2.7080000000000002</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2.2970000000000002</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3.3730000000000002</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>3.0859999999999999</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>11.62</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>56.3</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>91.7</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>95.3</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>98.5</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>103.2</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>101.8</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>86.7</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>89.4</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>93</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>96.7</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>105.5</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>90.9</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>93.2</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>96.8</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>102.3</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>105.5</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>1.3107</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>1.2423696682464449</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <v>0.56018957345971565</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>2.2177664974619291</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>69</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BM7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2">
         <v>44219</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8" t="b">
+      <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>138</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>352.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>513.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>585</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>600</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>406.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>60245</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.827</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2.0169999999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.2969999999999999</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1.5429999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.0760000000000001</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.2149999999999999</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>238.005</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>96</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>387.66666666666669</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>281</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>349</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>391.5</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>435.5</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>174.33333333333329</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>78.5</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>71</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>50.5</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>138</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>5.1829999999999998</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2.09</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1.2</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1.8240000000000001</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>2.827</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>2.8450000000000002</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>3.6970000000000001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>3.637</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2.9369999999999998</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>16.37</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>60.7</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>95.4</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>99.1</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>106.3</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>112.6</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>110.7</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>93.1</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>94.9</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>99.5</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>105.5</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>112.1</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>95.2</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>100.7</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>103.2</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>110.3</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>112.1</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>1.4332</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>1.27850133809099</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <v>0.62087421944692234</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <v>2.059195402298851</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>69</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>44220</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9" t="b">
+      <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>57</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>117.3333333333333</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>73.5</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>45</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>61</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>50.25</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>56.5</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>41.5</v>
-      </c>
-      <c r="AC9">
-        <v>52</v>
       </c>
       <c r="AD9">
         <v>52</v>
       </c>
       <c r="AE9">
+        <v>52</v>
+      </c>
+      <c r="AF9">
         <v>2.1320000000000001</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1.875</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1.29</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1.9339999999999999</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>10.52</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>12.96</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>4.5529999999999999</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>16.79</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>48.7</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>94.9</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>102</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>106</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>109.8</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>87.3</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>93.7</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>100.9</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>104.7</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>112.1</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>91.4</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>101</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>107.4</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>109.9</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>112.1</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>1.9369000000000001</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>1.7278322925958971</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <v>0.77539999999999998</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <v>0.6917038358608385</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <v>2.4979365488779992</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>71</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BN9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>44220</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10" t="b">
+      <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>171</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>345</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>547</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>600</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>563</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>428.5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>59965</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1.54</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1.59</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2.976</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.2490000000000001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.5609999999999999</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>204.07</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>79</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>297.33333333333331</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>326.5</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>321.5</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>384.5</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>600</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>57</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>66.75</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>73.5</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>63.5</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>171</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>4.5339999999999998</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>8.9130000000000003</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>2.2389999999999999</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1.7250000000000001</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>3.96</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>6.798</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>5.1260000000000003</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>3.0009999999999999</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>14.42</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>56.2</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>97.7</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>104</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>106.5</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>109.3</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>109.2</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>90.6</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>95.1</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>99.6</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>102.9</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>113.2</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>95.8</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>100.1</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>106.1</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>108.3</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>113.2</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
         <v>1.3511</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>1.193551236749117</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <v>0.62829999999999997</v>
       </c>
-      <c r="BI10">
+      <c r="BJ10">
         <v>0.55503533568904595</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10">
         <v>2.150405857074646</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>69</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BM10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2">
         <v>44220</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11" t="b">
+      <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>62</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>258</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
       </c>
       <c r="I11">
         <v>600</v>
       </c>
       <c r="J11">
+        <v>600</v>
+      </c>
+      <c r="K11">
         <v>571.5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>328.5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>56462.5</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1.4430000000000001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.0219999999999998</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1.3979999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.347</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2.3010000000000002</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>198.65</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>90</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>272</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>339.5</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>330.5</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>413</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>537.5</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>59</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>53.333333333333343</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>50</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>73.5</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>62</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>2.3239999999999998</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1.119</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1.389</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>4.5880000000000001</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2.9710000000000001</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>3.4649999999999999</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2.145</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>13.01</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>54.1</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>95.9</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>102</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>105.8</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>106.5</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>105.5</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>89.6</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>93.8</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>98.4</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>99.9</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>108.8</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>94.5</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>99.7</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>103.9</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>107.4</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>108.8</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>0.89039999999999997</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>0.81838235294117645</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>0.65149999999999997</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>0.59880514705882348</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <v>1.3666922486569451</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>69</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BM11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2">
         <v>44227</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="D12" t="b">
+      <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>72</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>172.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>201.5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>208</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>195</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>67.5</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>19060</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.29</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>5.008</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>6.9690000000000003</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>5.8609999999999998</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>8.5090000000000003</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.90500000000000003</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>653.495</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>84</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>108.5</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>86</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>71.5</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>78</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>68</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>53.333333333333343</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>63</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>48.5</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>63</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>72</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>0.95289999999999997</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1.758</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1.165</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2.617</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1.29</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>13.61</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>22.8</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>21.67</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>17.55</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>41.1</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>78.5</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>83.1</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>87.3</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>89.5</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>89.6</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>70.900000000000006</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>75.8</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>81.8</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>83.8</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>92.4</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>76.099999999999994</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>81.2</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>86.2</v>
       </c>
-      <c r="BC12">
+      <c r="BD12">
         <v>89</v>
       </c>
-      <c r="BD12">
+      <c r="BE12">
         <v>92.4</v>
       </c>
-      <c r="BF12">
+      <c r="BG12">
         <v>1.4930000000000001</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
         <v>1.615800865800866</v>
       </c>
-      <c r="BH12">
+      <c r="BI12">
         <v>0.53539999999999999</v>
       </c>
-      <c r="BI12">
+      <c r="BJ12">
         <v>0.57943722943722942</v>
       </c>
-      <c r="BJ12">
+      <c r="BK12">
         <v>2.7885692939858049</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>70</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2">
         <v>44227</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13" t="b">
+      <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>59.5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>206</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>303.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>392</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>401</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>91.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>34022.5</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3.29</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>5.4809999999999999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>6.5640000000000001</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>6.9340000000000002</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>17.88</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7.8789999999999996</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1316.55</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>75</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>76</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>70.5</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>59</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>58</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>44</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>46</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>63.5</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>51.5</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>60</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>59.5</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>0.47449999999999998</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1.18</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>2.1230000000000002</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3.29</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>8.5370000000000008</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>16.690000000000001</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>19.329999999999998</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>15.15</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>30.05</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>39.4</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>77.7</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>84.2</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>87.6</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>91</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>97.5</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>69.7</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>75.099999999999994</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>84.2</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>84.5</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>98.3</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>73.2</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>80.2</v>
       </c>
-      <c r="BB13">
+      <c r="BC13">
         <v>88.5</v>
       </c>
-      <c r="BC13">
+      <c r="BD13">
         <v>89.5</v>
       </c>
-      <c r="BD13">
+      <c r="BE13">
         <v>98.3</v>
       </c>
-      <c r="BF13">
+      <c r="BG13">
         <v>1.2902</v>
       </c>
-      <c r="BG13">
+      <c r="BH13">
         <v>1.312512716174975</v>
       </c>
-      <c r="BH13">
+      <c r="BI13">
         <v>0.63119999999999998</v>
       </c>
-      <c r="BI13">
+      <c r="BJ13">
         <v>0.64211597151576805</v>
       </c>
-      <c r="BJ13">
+      <c r="BK13">
         <v>2.04404309252218</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>70</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BM13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2">
         <v>44227</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14" t="b">
+      <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>50</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>139.5</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>221</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>268.5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>300.5</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>77</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>25057.5</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.107</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4.8310000000000004</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.6259999999999999</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2.31</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>5.8719999999999999</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.0979999999999999</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>453.48500000000001</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>72</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>82</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>83</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>69.5</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>65.5</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>65</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>47</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>64</v>
-      </c>
-      <c r="AB14">
-        <v>56.5</v>
       </c>
       <c r="AC14">
         <v>56.5</v>
       </c>
       <c r="AD14">
+        <v>56.5</v>
+      </c>
+      <c r="AE14">
         <v>50</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.89270000000000005</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>0.96940000000000004</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1.2569999999999999</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1.2490000000000001</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1.107</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>11.06</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>11.14</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>12.91</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>9.3059999999999992</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>9.64</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>41.3</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>78.5</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>82.9</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>87.2</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>91.3</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>92.3</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>71.400000000000006</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>75.599999999999994</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>82.1</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>85.4</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>94.5</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>75.599999999999994</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>81</v>
       </c>
-      <c r="BB14">
+      <c r="BC14">
         <v>85.7</v>
       </c>
-      <c r="BC14">
+      <c r="BD14">
         <v>90.4</v>
       </c>
-      <c r="BD14">
+      <c r="BE14">
         <v>94.5</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <v>1.1374</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <v>1.203597883597884</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>0.54620000000000002</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14">
         <v>0.57798941798941805</v>
       </c>
-      <c r="BJ14">
+      <c r="BK14">
         <v>2.0823874038813619</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
         <v>70</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BM14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>44227</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D15" t="b">
+      <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>48</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>135</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>195.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>237.5</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>219</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>63.5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>20055</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.177</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>78</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>183</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>71.5</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>67.5</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>98.333333333333329</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>70</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>49.5</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>61.5</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>62.5</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>54</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>48</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3.1339999999999999</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1.165</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.97</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1.177</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>33.549999999999997</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>17.12</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>28.61</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>40.26</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>21.59</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>40.200000000000003</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>80</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>85.1</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>89.5</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>93.9</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>94.4</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>73.5</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>78.2</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>82.3</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>87.4</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>98</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>76.7</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>82.9</v>
       </c>
-      <c r="BB15">
+      <c r="BC15">
         <v>88.4</v>
       </c>
-      <c r="BC15">
+      <c r="BD15">
         <v>93.4</v>
       </c>
-      <c r="BD15">
+      <c r="BE15">
         <v>98</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
         <v>1.5392999999999999</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <v>1.570714285714286</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <v>0.64100000000000001</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <v>0.65408163265306118</v>
       </c>
-      <c r="BJ15">
+      <c r="BK15">
         <v>2.4014040561622472</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
         <v>70</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="BM15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>44227</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="D16" t="b">
+      <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>43</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>85.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>445.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>483</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>517.5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>119.5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>42057.5</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4.0780000000000003</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>8.0120000000000005</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>7.0179999999999998</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10.050000000000001</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>6.5350000000000001</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>932.18499999999995</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>81</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>84</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>73.333333333333329</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>77</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>68.5</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>61.5</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>51</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>60.5</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>55</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>58</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>43</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1.9330000000000001</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2.5019999999999998</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2.4929999999999999</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>3.1669999999999998</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>23.9</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>20.58</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>21.4</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>27.74</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>20.34</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>42.7</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>82.5</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>87.6</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>90.9</v>
-      </c>
-      <c r="AS16">
-        <v>94.8</v>
       </c>
       <c r="AT16">
         <v>94.8</v>
       </c>
       <c r="AU16">
+        <v>94.8</v>
+      </c>
+      <c r="AV16">
         <v>76.599999999999994</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>81.599999999999994</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>85.9</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>89.2</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>98.3</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>79.400000000000006</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>85.4</v>
       </c>
-      <c r="BB16">
+      <c r="BC16">
         <v>91.7</v>
       </c>
-      <c r="BC16">
+      <c r="BD16">
         <v>95</v>
       </c>
-      <c r="BD16">
+      <c r="BE16">
         <v>98.3</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>1.7470000000000001</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <v>1.7772126144455751</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <v>0.64119999999999999</v>
       </c>
-      <c r="BI16">
+      <c r="BJ16">
         <v>0.65228891149542223</v>
       </c>
-      <c r="BJ16">
+      <c r="BK16">
         <v>2.7245789145352459</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
         <v>70</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BM16" t="s">
         <v>74</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BN16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>44227</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17" t="b">
+      <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>58.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>186</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>248.5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>302.5</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>485.5</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>299</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>41505</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>5.2919999999999998</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>5.0789999999999997</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4.4169999999999998</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>5.2329999999999997</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>6.2990000000000004</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>636.57999999999902</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>70</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>204</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>300</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>78.5</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>295</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>102</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>39.5</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>55</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>76.333333333333329</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>63.333333333333343</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>58.5</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2.5179999999999998</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>3.536</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>3.6419999999999999</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>2.3290000000000002</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>17.88</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>11.58</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>6.57</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>14.57</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>37.17</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>45.1</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>93.2</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>95.4</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>93.1</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>99.3</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>100.6</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>83</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>88.5</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>93.6</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>90.5</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>104.4</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>86.5</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>94.7</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>98.5</v>
       </c>
-      <c r="BC17">
+      <c r="BD17">
         <v>97.4</v>
       </c>
-      <c r="BD17">
+      <c r="BE17">
         <v>104.4</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
         <v>1.1691</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <v>1.119827586206896</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <v>0.60140000000000005</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <v>0.57605363984674329</v>
       </c>
-      <c r="BJ17">
+      <c r="BK17">
         <v>1.9439640838044561</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>70</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>44228</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D18" t="b">
+      <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>58</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>62.5</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>78.5</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>61.333333333333343</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>58</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>41.2</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>92.4</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>95.9</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>85</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>89.4</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>89.7</v>
       </c>
-      <c r="BA18">
+      <c r="BB18">
         <v>94.2</v>
       </c>
-      <c r="BM18" t="s">
+      <c r="BN18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2">
         <v>44228</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="D19" t="b">
+      <c r="E19" t="b">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>64.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>216.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>519.5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>582</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>587</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>309</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>55007.5</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.87509999999999999</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1.496</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.79830000000000001</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.919</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>153.90600000000001</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>73</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>459.5</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>342.66666666666669</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>352</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>505.5</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>40.75</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>43</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>44.5</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>66.5</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>64.5</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2.2879999999999998</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1.5840000000000001</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1.982</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1.2749999999999999</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>3.1219999999999999</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>4.12</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>3.5129999999999999</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.59750000000000003</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>13.49</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>41</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>96</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>102.2</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>107.8</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>109.7</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>88.2</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>92.4</v>
       </c>
-      <c r="AW19">
+      <c r="AX19">
         <v>100.7</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>102</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>110.5</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>93.1</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>98.7</v>
       </c>
-      <c r="BB19">
+      <c r="BC19">
         <v>108</v>
       </c>
-      <c r="BC19">
+      <c r="BD19">
         <v>109.5</v>
       </c>
-      <c r="BD19">
+      <c r="BE19">
         <v>110.5</v>
       </c>
-      <c r="BF19">
+      <c r="BG19">
         <v>0.92620000000000002</v>
       </c>
-      <c r="BG19">
+      <c r="BH19">
         <v>0.83819004524886886</v>
       </c>
-      <c r="BH19">
+      <c r="BI19">
         <v>0.62160000000000004</v>
       </c>
-      <c r="BI19">
+      <c r="BJ19">
         <v>0.5625339366515838</v>
       </c>
-      <c r="BJ19">
+      <c r="BK19">
         <v>1.49002574002574</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BL19" t="s">
         <v>68</v>
       </c>
-      <c r="BL19" t="s">
+      <c r="BM19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2">
         <v>44228</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="D20" t="b">
+      <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>65</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>48.5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>216.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>477.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>343.5</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>538.5</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>276</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>46565</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3.512</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3.952</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3.0049999999999999</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.919</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>3.2349999999999999</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>377.03</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>77</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>299.5</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>227.5</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>308</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>338.5</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>39.333333333333343</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>41</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>43.333333333333343</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>47</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>48.5</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>2.4359999999999999</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2.633</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>2.8140000000000001</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>3.1589999999999998</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>8.5739999999999998</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5.4329999999999998</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>9.1509999999999998</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>6.9089999999999998</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>27.69</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>48</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>104.2</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>109.6</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>116.6</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>112.9</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>95</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>99</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>107.9</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>111.9</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>121.3</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>98.2</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>105.5</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>114.3</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>117.6</v>
       </c>
-      <c r="BD20">
+      <c r="BE20">
         <v>121.3</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <v>1.7053</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <v>1.405853256389118</v>
       </c>
-      <c r="BH20">
+      <c r="BI20">
         <v>0.878</v>
       </c>
-      <c r="BI20">
+      <c r="BJ20">
         <v>0.72382522671063476</v>
       </c>
-      <c r="BJ20">
+      <c r="BK20">
         <v>1.942255125284738</v>
       </c>
-      <c r="BK20" t="s">
+      <c r="BL20" t="s">
         <v>68</v>
       </c>
-      <c r="BL20" t="s">
+      <c r="BM20" t="s">
         <v>74</v>
       </c>
     </row>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4282154-B5F5-4333-AAF0-0789404174CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5016D95D-159D-4374-9DFE-308B7E8627FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
   <si>
     <t>Date of birth</t>
   </si>
@@ -290,6 +290,18 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>1000s</t>
   </si>
 </sst>
 </file>
@@ -351,12 +363,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,3585 +710,3705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN20"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>44219</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>58.5</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>178</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>314.5</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>551</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>589</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>200</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>48742.5</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>2.1539999999999999</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>2.5369999999999999</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>2.2069999999999999</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>3.3959999999999999</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>5.5759999999999996</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>422.93999999999897</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>71.000000099999994</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>225</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>83</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>206</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>221</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>193</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>41</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>48</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>52.5</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>50</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>58.5</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>2.8740000000000001</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>1.6679999999999999</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>0.96350000000000002</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>1.4139999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>11.42</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>12.25</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>13.18</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>11.28</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>32.33</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>53.7</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>92.6</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>98.1</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>100.9</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>104.4</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>104.6</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>85.4</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>90.9</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <v>94.9</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>99.5</v>
       </c>
-      <c r="AZ2">
+      <c r="BB2">
         <v>105.1</v>
       </c>
-      <c r="BA2">
+      <c r="BC2">
         <v>90.2</v>
       </c>
-      <c r="BB2">
+      <c r="BD2">
         <v>96</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>101.3</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>104.5</v>
       </c>
-      <c r="BE2">
+      <c r="BG2">
         <v>105.1</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <v>2.0448</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>1.94557564224548</v>
       </c>
-      <c r="BI2">
+      <c r="BK2">
         <v>0.71850000000000003</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>0.68363463368220745</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>2.8459290187891439</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BN2" t="s">
         <v>68</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BO2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2">
         <v>44219</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>48</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>196.5</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>344.5</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>449.5</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>518</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>284.5</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>46485</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>2.407</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.7829999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>1.425</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>2.1549999999999998</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>2.6480000000000001</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>262.25</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>73</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>265</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>289.5</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>326</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>309</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>370.5</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>43</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>44</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>40</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>34</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>48</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>1.92</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>3.101</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>1.89</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>1.681</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>16.899999999999999</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>13.42</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>9.6669999999999998</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>6.6989999999999998</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>48.37</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>52.1</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>88.9</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>93.4</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>98.2</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>98.8</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>100.4</v>
       </c>
-      <c r="AV3">
+      <c r="AX3">
         <v>82.5</v>
       </c>
-      <c r="AW3">
+      <c r="AY3">
         <v>86.7</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
         <v>92.5</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>94.3</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>101.7</v>
       </c>
-      <c r="BA3">
+      <c r="BC3">
         <v>85.9</v>
       </c>
-      <c r="BB3">
+      <c r="BD3">
         <v>90.7</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>97</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>98.1</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>101.7</v>
       </c>
-      <c r="BG3">
+      <c r="BI3">
         <v>1.7807999999999999</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>1.751032448377581</v>
       </c>
-      <c r="BI3">
+      <c r="BK3">
         <v>0.60589999999999999</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>0.59577187807276299</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>2.9390988611982181</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BN3" t="s">
         <v>68</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BO3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>44219</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="E4" t="b">
+      <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>56.5</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>219</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>334</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>462</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>511</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>189</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>43717.5</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2.5910000000000002</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>3.4980000000000002</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>2.8780000000000001</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>3.0760000000000001</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>5.2809999999999997</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>432.02</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>78</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>256.5</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>250.5</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>139.5</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>248.5</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>90.333333333333329</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>52.333333333333343</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>48</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>40</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>38.5</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>56.5</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>4.1539999999999999</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>2.879</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>1.9770000000000001</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>2.734</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>10.37</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>12.76</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>11.56</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>9.4499999999999993</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>38.47</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>51.3</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>93.5</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>99.3</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>103</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>107</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>106.9</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>86.7</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>91.9</v>
       </c>
-      <c r="AX4">
+      <c r="AZ4">
         <v>96.8</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>102.1</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>109.1</v>
       </c>
-      <c r="BA4">
+      <c r="BC4">
         <v>91.2</v>
       </c>
-      <c r="BB4">
+      <c r="BD4">
         <v>96.1</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>101.3</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>106.7</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>109.1</v>
       </c>
-      <c r="BG4">
+      <c r="BI4">
         <v>2.5185</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>2.308432630614115</v>
       </c>
-      <c r="BI4">
+      <c r="BK4">
         <v>0.74390000000000001</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>0.68185151237396879</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>3.3855356902809519</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BN4" t="s">
         <v>68</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BO4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2">
         <v>44219</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="E5" t="b">
+      <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>73</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>63</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>46.5</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>78</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>63</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>41</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>50</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>64.5</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>63.5</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>42</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>2.3039999999999998</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.99519999999999997</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>1.381</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>43.94</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>10.64</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>39.24</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>51.56</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>49.6</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>91.9</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>98.3</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>102.8</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>105</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>85.2</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>92.5</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>97.1</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>101</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>109.2</v>
       </c>
-      <c r="BA5">
+      <c r="BC5">
         <v>89</v>
       </c>
-      <c r="BB5">
+      <c r="BD5">
         <v>96.7</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>102.3</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>105.7</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>109.2</v>
       </c>
-      <c r="BG5">
+      <c r="BI5">
         <v>2.5485000000000002</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>2.3337912087912089</v>
       </c>
-      <c r="BI5">
+      <c r="BK5">
         <v>0.86140000000000005</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>0.78882783882783891</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>2.9585558393313209</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BO5" t="s">
         <v>71</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BP5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>44219</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="E6" t="b">
+      <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>65</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>38.5</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>160</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>308</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>368</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>445.5</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>99</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>35250</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>1.81</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>2.81</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>4.8310000000000004</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>3.99</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>7</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>4.88</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>626.66</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>70</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>232.5</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>203.5</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>205.5</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>225.5</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>139.5</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>171.33333333333329</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>51.5</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>55</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>46</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>38.5</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>7.3869999999999996</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>2.7650000000000001</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>1.3919999999999999</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>2.5710000000000002</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>1.81</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>8.1869999999999994</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>14.11</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>13.63</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>14.34</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>25.71</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>55.8</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>95.7</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>102.3</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>106.3</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>108.3</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>108.6</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>93.2</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
         <v>95.6</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>100.5</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>103.4</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>110.4</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>96.7</v>
       </c>
-      <c r="BB6">
+      <c r="BD6">
         <v>98.7</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>106.2</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>110.1</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>110.4</v>
       </c>
-      <c r="BG6">
+      <c r="BI6">
         <v>2.5059999999999998</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>2.2699275362318838</v>
       </c>
-      <c r="BI6">
+      <c r="BK6">
         <v>0.71640000000000004</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>0.64891304347826084</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>3.4980457844779451</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BN6" t="s">
         <v>68</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BO6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2">
         <v>44219</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="E7" t="b">
+      <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>169</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>355</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>600</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>600</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>569.5</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>392</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>59782.5</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.3879999999999999</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.617</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>1.71</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.99080000000000001</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.123</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>151.756</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>69</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>383</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>389</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>367</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>514</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>509</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>77.25</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>105</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>67.5</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>61.5</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>169</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>2.0390000000000001</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>1.476</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>1.0629999999999999</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>1.603</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>2.7080000000000002</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>2.2970000000000002</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>3.3730000000000002</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>3.0859999999999999</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>11.62</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>56.3</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>91.7</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>95.3</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>98.5</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>103.2</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>101.8</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>86.7</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>89.4</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>93</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>96.7</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>105.5</v>
       </c>
-      <c r="BA7">
+      <c r="BC7">
         <v>90.9</v>
       </c>
-      <c r="BB7">
+      <c r="BD7">
         <v>93.2</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>96.8</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>102.3</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>105.5</v>
       </c>
-      <c r="BG7">
+      <c r="BI7">
         <v>1.3107</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>1.2423696682464449</v>
       </c>
-      <c r="BI7">
+      <c r="BK7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>0.56018957345971565</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>2.2177664974619291</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BN7" t="s">
         <v>69</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BO7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>44219</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="E8" t="b">
+      <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>66</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>138</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>352.5</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>513.5</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>585</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>600</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>406.5</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>60245</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>2.827</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>2.0169999999999999</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1.2969999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>1.5429999999999999</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>2.0760000000000001</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>2.2149999999999999</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>238.005</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>96</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>387.66666666666669</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>281</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>349</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>391.5</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>435.5</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>174.33333333333329</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>78.5</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>71</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>50.5</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>138</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>5.1829999999999998</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>2.09</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>1.2</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>1.8240000000000001</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>2.827</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>2.8450000000000002</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>3.6970000000000001</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>3.637</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>2.9369999999999998</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>16.37</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>60.7</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>95.4</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>99.1</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>106.3</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>112.6</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>110.7</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>93.1</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <v>94.9</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>99.5</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>105.5</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>112.1</v>
       </c>
-      <c r="BA8">
+      <c r="BC8">
         <v>95.2</v>
       </c>
-      <c r="BB8">
+      <c r="BD8">
         <v>100.7</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>103.2</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>110.3</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>112.1</v>
       </c>
-      <c r="BG8">
+      <c r="BI8">
         <v>1.4332</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>1.27850133809099</v>
       </c>
-      <c r="BI8">
+      <c r="BK8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>0.62087421944692234</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>2.059195402298851</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BN8" t="s">
         <v>69</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BO8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2">
         <v>44220</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="E9" t="b">
+      <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>57</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>117.3333333333333</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>73.5</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>45</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>61</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>50.25</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>56.5</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>41.5</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>52</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>52</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>2.1320000000000001</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>1.875</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>1.29</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>1.9339999999999999</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>10.52</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>12.96</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>4.5529999999999999</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>16.79</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>48.7</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>94.9</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>102</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>106</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>109.8</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>87.3</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>93.7</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>100.9</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>104.7</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>112.1</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>91.4</v>
       </c>
-      <c r="BB9">
+      <c r="BD9">
         <v>101</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>107.4</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>109.9</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>112.1</v>
       </c>
-      <c r="BG9">
+      <c r="BI9">
         <v>1.9369000000000001</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>1.7278322925958971</v>
       </c>
-      <c r="BI9">
+      <c r="BK9">
         <v>0.77539999999999998</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>0.6917038358608385</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>2.4979365488779992</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BO9" t="s">
         <v>71</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BP9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="2">
         <v>44220</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="E10" t="b">
+      <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>171</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>345</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>547</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>600</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>563</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>428.5</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>59965</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>1.54</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>1.59</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>2.976</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>1.2490000000000001</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1.5609999999999999</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>204.07</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>79</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>297.33333333333331</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>326.5</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>321.5</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>384.5</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>600</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>57</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>66.75</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>73.5</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>63.5</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>171</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>4.5339999999999998</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>8.9130000000000003</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>2.2389999999999999</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>1.7250000000000001</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>3.96</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>6.798</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>5.1260000000000003</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>3.0009999999999999</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>14.42</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>56.2</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>97.7</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>104</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>106.5</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>109.3</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>109.2</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>90.6</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <v>95.1</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>99.6</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>102.9</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>113.2</v>
       </c>
-      <c r="BA10">
+      <c r="BC10">
         <v>95.8</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>100.1</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>106.1</v>
       </c>
-      <c r="BD10">
+      <c r="BF10">
         <v>108.3</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>113.2</v>
       </c>
-      <c r="BG10">
+      <c r="BI10">
         <v>1.3511</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>1.193551236749117</v>
       </c>
-      <c r="BI10">
+      <c r="BK10">
         <v>0.62829999999999997</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>0.55503533568904595</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>2.150405857074646</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BN10" t="s">
         <v>69</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BO10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="2">
         <v>44220</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="E11" t="b">
+      <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>62</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>258</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>600</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>600</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>571.5</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>328.5</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>56462.5</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>1.4430000000000001</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>2.0219999999999998</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>1.3979999999999999</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>1.347</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>2.3010000000000002</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>198.65</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>90</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>272</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>339.5</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>330.5</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>413</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>537.5</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>59</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>53.333333333333343</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>50</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>73.5</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>62</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>2.3239999999999998</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>1.119</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>1.389</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>4.5880000000000001</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>2.9710000000000001</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>3.4649999999999999</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>2.145</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>13.01</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>54.1</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>95.9</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>102</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>105.8</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>106.5</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>105.5</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>89.6</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>93.8</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
         <v>98.4</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>99.9</v>
       </c>
-      <c r="AZ11">
+      <c r="BB11">
         <v>108.8</v>
       </c>
-      <c r="BA11">
+      <c r="BC11">
         <v>94.5</v>
       </c>
-      <c r="BB11">
+      <c r="BD11">
         <v>99.7</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>103.9</v>
       </c>
-      <c r="BD11">
+      <c r="BF11">
         <v>107.4</v>
       </c>
-      <c r="BE11">
+      <c r="BG11">
         <v>108.8</v>
       </c>
-      <c r="BG11">
+      <c r="BI11">
         <v>0.89039999999999997</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
         <v>0.81838235294117645</v>
       </c>
-      <c r="BI11">
+      <c r="BK11">
         <v>0.65149999999999997</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>0.59880514705882348</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>1.3666922486569451</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BN11" t="s">
         <v>69</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BO11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E12" s="2">
         <v>44227</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="E12" t="b">
+      <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>72</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>172.5</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>201.5</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>208</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>195</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>67.5</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>19060</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>1.29</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>5.008</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>6.9690000000000003</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>5.8609999999999998</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>8.5090000000000003</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>0.90500000000000003</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>653.495</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>84</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>108.5</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>86</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>71.5</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>78</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>68</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>53.333333333333343</v>
-      </c>
-      <c r="AB12">
-        <v>63</v>
-      </c>
-      <c r="AC12">
-        <v>48.5</v>
       </c>
       <c r="AD12">
         <v>63</v>
       </c>
       <c r="AE12">
+        <v>48.5</v>
+      </c>
+      <c r="AF12">
+        <v>63</v>
+      </c>
+      <c r="AG12">
         <v>72</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>0.95289999999999997</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>1.758</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>1.165</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>2.617</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>1.29</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>13.61</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>22.8</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>21.67</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>17.55</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>41.1</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>78.5</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>83.1</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>87.3</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>89.5</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>89.6</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>70.900000000000006</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
         <v>75.8</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>81.8</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>83.8</v>
       </c>
-      <c r="AZ12">
+      <c r="BB12">
         <v>92.4</v>
       </c>
-      <c r="BA12">
+      <c r="BC12">
         <v>76.099999999999994</v>
       </c>
-      <c r="BB12">
+      <c r="BD12">
         <v>81.2</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>86.2</v>
       </c>
-      <c r="BD12">
+      <c r="BF12">
         <v>89</v>
       </c>
-      <c r="BE12">
+      <c r="BG12">
         <v>92.4</v>
       </c>
-      <c r="BG12">
+      <c r="BI12">
         <v>1.4930000000000001</v>
       </c>
-      <c r="BH12">
+      <c r="BJ12">
         <v>1.615800865800866</v>
       </c>
-      <c r="BI12">
+      <c r="BK12">
         <v>0.53539999999999999</v>
       </c>
-      <c r="BJ12">
+      <c r="BL12">
         <v>0.57943722943722942</v>
       </c>
-      <c r="BK12">
+      <c r="BM12">
         <v>2.7885692939858049</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BN12" t="s">
         <v>70</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BO12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>44227</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="E13" t="b">
+      <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>65</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>59.5</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>206</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>303.5</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>392</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>401</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>91.5</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>34022.5</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>3.29</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>5.4809999999999999</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>6.5640000000000001</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>6.9340000000000002</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>17.88</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>7.8789999999999996</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>1316.55</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>75</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>76</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>70.5</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>59</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>58</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>44</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>46</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>63.5</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>51.5</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>60</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>59.5</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>0.47449999999999998</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>1.18</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>2.1230000000000002</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>3.29</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>8.5370000000000008</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>16.690000000000001</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>19.329999999999998</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>15.15</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>30.05</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>39.4</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>77.7</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>84.2</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>87.6</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>91</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>97.5</v>
       </c>
-      <c r="AV13">
+      <c r="AX13">
         <v>69.7</v>
       </c>
-      <c r="AW13">
+      <c r="AY13">
         <v>75.099999999999994</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>84.2</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>84.5</v>
       </c>
-      <c r="AZ13">
+      <c r="BB13">
         <v>98.3</v>
       </c>
-      <c r="BA13">
+      <c r="BC13">
         <v>73.2</v>
       </c>
-      <c r="BB13">
+      <c r="BD13">
         <v>80.2</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>88.5</v>
       </c>
-      <c r="BD13">
+      <c r="BF13">
         <v>89.5</v>
       </c>
-      <c r="BE13">
+      <c r="BG13">
         <v>98.3</v>
       </c>
-      <c r="BG13">
+      <c r="BI13">
         <v>1.2902</v>
       </c>
-      <c r="BH13">
+      <c r="BJ13">
         <v>1.312512716174975</v>
       </c>
-      <c r="BI13">
+      <c r="BK13">
         <v>0.63119999999999998</v>
       </c>
-      <c r="BJ13">
+      <c r="BL13">
         <v>0.64211597151576805</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>2.04404309252218</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BN13" t="s">
         <v>70</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BO13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E14" s="2">
         <v>44227</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="E14" t="b">
+      <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>67</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>50</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>139.5</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>221</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>268.5</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>300.5</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>77</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>25057.5</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>1.107</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>4.8310000000000004</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>2.6259999999999999</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>2.31</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>5.8719999999999999</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>2.0979999999999999</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>453.48500000000001</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>72</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>82</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>83</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>69.5</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>65.5</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>65</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>47</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>64</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>56.5</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>56.5</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>50</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>0.89270000000000005</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>0.96940000000000004</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>1.2569999999999999</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>1.2490000000000001</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>1.107</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>11.06</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>11.14</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>12.91</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>9.3059999999999992</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>9.64</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>41.3</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>78.5</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>82.9</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>87.2</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>91.3</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>92.3</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>71.400000000000006</v>
       </c>
-      <c r="AW14">
+      <c r="AY14">
         <v>75.599999999999994</v>
       </c>
-      <c r="AX14">
+      <c r="AZ14">
         <v>82.1</v>
       </c>
-      <c r="AY14">
+      <c r="BA14">
         <v>85.4</v>
       </c>
-      <c r="AZ14">
+      <c r="BB14">
         <v>94.5</v>
       </c>
-      <c r="BA14">
+      <c r="BC14">
         <v>75.599999999999994</v>
       </c>
-      <c r="BB14">
+      <c r="BD14">
         <v>81</v>
       </c>
-      <c r="BC14">
+      <c r="BE14">
         <v>85.7</v>
       </c>
-      <c r="BD14">
+      <c r="BF14">
         <v>90.4</v>
       </c>
-      <c r="BE14">
+      <c r="BG14">
         <v>94.5</v>
       </c>
-      <c r="BG14">
+      <c r="BI14">
         <v>1.1374</v>
       </c>
-      <c r="BH14">
+      <c r="BJ14">
         <v>1.203597883597884</v>
       </c>
-      <c r="BI14">
+      <c r="BK14">
         <v>0.54620000000000002</v>
       </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>0.57798941798941805</v>
       </c>
-      <c r="BK14">
+      <c r="BM14">
         <v>2.0823874038813619</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BN14" t="s">
         <v>70</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BO14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
-      <c r="C15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2">
         <v>44227</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="E15" t="b">
+      <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>48</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>135</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>195.5</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>237.5</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>219</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>63.5</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>20055</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>1.177</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>78</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>183</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>71.5</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>67.5</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>98.333333333333329</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>70</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>49.5</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>61.5</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>62.5</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>54</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>48</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>3.1339999999999999</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>1.165</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>0.97</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <v>1.177</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>33.549999999999997</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>17.12</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>28.61</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>40.26</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>21.59</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>40.200000000000003</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>80</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>85.1</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>89.5</v>
       </c>
-      <c r="AT15">
+      <c r="AV15">
         <v>93.9</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>94.4</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>73.5</v>
       </c>
-      <c r="AW15">
+      <c r="AY15">
         <v>78.2</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>82.3</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>87.4</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
         <v>98</v>
       </c>
-      <c r="BA15">
+      <c r="BC15">
         <v>76.7</v>
       </c>
-      <c r="BB15">
+      <c r="BD15">
         <v>82.9</v>
       </c>
-      <c r="BC15">
+      <c r="BE15">
         <v>88.4</v>
       </c>
-      <c r="BD15">
+      <c r="BF15">
         <v>93.4</v>
       </c>
-      <c r="BE15">
+      <c r="BG15">
         <v>98</v>
       </c>
-      <c r="BG15">
+      <c r="BI15">
         <v>1.5392999999999999</v>
       </c>
-      <c r="BH15">
+      <c r="BJ15">
         <v>1.570714285714286</v>
       </c>
-      <c r="BI15">
+      <c r="BK15">
         <v>0.64100000000000001</v>
       </c>
-      <c r="BJ15">
+      <c r="BL15">
         <v>0.65408163265306118</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>2.4014040561622472</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="BN15" t="s">
         <v>70</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="BO15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2">
         <v>44227</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="E16" t="b">
+      <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>43</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>85.5</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>445.5</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>483</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>517.5</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>119.5</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>42057.5</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>4.0780000000000003</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>8.0120000000000005</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>7.0179999999999998</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>10.050000000000001</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>6.5350000000000001</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>932.18499999999995</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>81</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>84</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>73.333333333333329</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>77</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>68.5</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>61.5</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>51</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>60.5</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>55</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>58</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>43</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>1.9330000000000001</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>2.5019999999999998</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>2.4929999999999999</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>3.1669999999999998</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>23.9</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>20.58</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <v>21.4</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <v>27.74</v>
       </c>
-      <c r="AO16">
+      <c r="AQ16">
         <v>20.34</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>42.7</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>82.5</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>87.6</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>90.9</v>
       </c>
-      <c r="AT16">
+      <c r="AV16">
         <v>94.8</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>94.8</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>76.599999999999994</v>
       </c>
-      <c r="AW16">
+      <c r="AY16">
         <v>81.599999999999994</v>
       </c>
-      <c r="AX16">
+      <c r="AZ16">
         <v>85.9</v>
       </c>
-      <c r="AY16">
+      <c r="BA16">
         <v>89.2</v>
       </c>
-      <c r="AZ16">
+      <c r="BB16">
         <v>98.3</v>
       </c>
-      <c r="BA16">
+      <c r="BC16">
         <v>79.400000000000006</v>
       </c>
-      <c r="BB16">
+      <c r="BD16">
         <v>85.4</v>
       </c>
-      <c r="BC16">
+      <c r="BE16">
         <v>91.7</v>
       </c>
-      <c r="BD16">
+      <c r="BF16">
         <v>95</v>
       </c>
-      <c r="BE16">
+      <c r="BG16">
         <v>98.3</v>
       </c>
-      <c r="BG16">
+      <c r="BI16">
         <v>1.7470000000000001</v>
       </c>
-      <c r="BH16">
+      <c r="BJ16">
         <v>1.7772126144455751</v>
       </c>
-      <c r="BI16">
+      <c r="BK16">
         <v>0.64119999999999999</v>
       </c>
-      <c r="BJ16">
+      <c r="BL16">
         <v>0.65228891149542223</v>
       </c>
-      <c r="BK16">
+      <c r="BM16">
         <v>2.7245789145352459</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BN16" t="s">
         <v>70</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BO16" t="s">
         <v>74</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BP16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2">
         <v>44227</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="E17" t="b">
+      <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>58.5</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>186</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>248.5</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>302.5</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>485.5</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>299</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>41505</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>5.2919999999999998</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>5.0789999999999997</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>4.4169999999999998</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>5.2329999999999997</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>6.2990000000000004</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>636.57999999999902</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>70</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>204</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>300</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>78.5</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>295</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>102</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>39.5</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>55</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>76.333333333333329</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>63.333333333333343</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>58.5</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>2.5179999999999998</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>3.536</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <v>3.6419999999999999</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>2.3290000000000002</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>17.88</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>11.58</v>
       </c>
-      <c r="AM17">
+      <c r="AO17">
         <v>6.57</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>14.57</v>
       </c>
-      <c r="AO17">
+      <c r="AQ17">
         <v>37.17</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>45.1</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>93.2</v>
       </c>
-      <c r="AR17">
+      <c r="AT17">
         <v>95.4</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>93.1</v>
       </c>
-      <c r="AT17">
+      <c r="AV17">
         <v>99.3</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>100.6</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>83</v>
       </c>
-      <c r="AW17">
+      <c r="AY17">
         <v>88.5</v>
       </c>
-      <c r="AX17">
+      <c r="AZ17">
         <v>93.6</v>
       </c>
-      <c r="AY17">
+      <c r="BA17">
         <v>90.5</v>
       </c>
-      <c r="AZ17">
+      <c r="BB17">
         <v>104.4</v>
       </c>
-      <c r="BA17">
+      <c r="BC17">
         <v>86.5</v>
       </c>
-      <c r="BB17">
+      <c r="BD17">
         <v>94.7</v>
       </c>
-      <c r="BC17">
+      <c r="BE17">
         <v>98.5</v>
       </c>
-      <c r="BD17">
+      <c r="BF17">
         <v>97.4</v>
       </c>
-      <c r="BE17">
+      <c r="BG17">
         <v>104.4</v>
       </c>
-      <c r="BG17">
+      <c r="BI17">
         <v>1.1691</v>
       </c>
-      <c r="BH17">
+      <c r="BJ17">
         <v>1.119827586206896</v>
       </c>
-      <c r="BI17">
+      <c r="BK17">
         <v>0.60140000000000005</v>
       </c>
-      <c r="BJ17">
+      <c r="BL17">
         <v>0.57605363984674329</v>
       </c>
-      <c r="BK17">
+      <c r="BM17">
         <v>1.9439640838044561</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BN17" t="s">
         <v>70</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BO17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2">
         <v>44228</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="E18" t="b">
+      <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>58</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>62.5</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>78.5</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>61.333333333333343</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>58</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>41.2</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>92.4</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>95.9</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>85</v>
       </c>
-      <c r="AW18">
+      <c r="AY18">
         <v>89.4</v>
       </c>
-      <c r="BA18">
+      <c r="BC18">
         <v>89.7</v>
       </c>
-      <c r="BB18">
+      <c r="BD18">
         <v>94.2</v>
       </c>
-      <c r="BN18" t="s">
+      <c r="BP18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2">
+      <c r="E19" s="2">
         <v>44228</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="E19" t="b">
+      <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>66</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>64.5</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>216.5</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>519.5</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>582</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>587</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>309</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>55007.5</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.87509999999999999</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>1.496</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.79830000000000001</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>1.919</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>153.90600000000001</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>73</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>459.5</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>342.66666666666669</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>352</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>505.5</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>40.75</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>43</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>44.5</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>66.5</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>64.5</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>2.2879999999999998</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>1.5840000000000001</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>1.982</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>1.2749999999999999</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>3.1219999999999999</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <v>4.12</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <v>3.5129999999999999</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <v>0.59750000000000003</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>13.49</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>41</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>96</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>102.2</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>107.8</v>
       </c>
-      <c r="AT19">
+      <c r="AV19">
         <v>109.7</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>88.2</v>
       </c>
-      <c r="AW19">
+      <c r="AY19">
         <v>92.4</v>
       </c>
-      <c r="AX19">
+      <c r="AZ19">
         <v>100.7</v>
       </c>
-      <c r="AY19">
+      <c r="BA19">
         <v>102</v>
       </c>
-      <c r="AZ19">
+      <c r="BB19">
         <v>110.5</v>
       </c>
-      <c r="BA19">
+      <c r="BC19">
         <v>93.1</v>
       </c>
-      <c r="BB19">
+      <c r="BD19">
         <v>98.7</v>
       </c>
-      <c r="BC19">
+      <c r="BE19">
         <v>108</v>
       </c>
-      <c r="BD19">
+      <c r="BF19">
         <v>109.5</v>
       </c>
-      <c r="BE19">
+      <c r="BG19">
         <v>110.5</v>
       </c>
-      <c r="BG19">
+      <c r="BI19">
         <v>0.92620000000000002</v>
       </c>
-      <c r="BH19">
+      <c r="BJ19">
         <v>0.83819004524886886</v>
       </c>
-      <c r="BI19">
+      <c r="BK19">
         <v>0.62160000000000004</v>
       </c>
-      <c r="BJ19">
+      <c r="BL19">
         <v>0.5625339366515838</v>
       </c>
-      <c r="BK19">
+      <c r="BM19">
         <v>1.49002574002574</v>
       </c>
-      <c r="BL19" t="s">
+      <c r="BN19" t="s">
         <v>68</v>
       </c>
-      <c r="BM19" t="s">
+      <c r="BO19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="2">
+      <c r="E20" s="2">
         <v>44228</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="E20" t="b">
+      <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>65</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>48.5</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>216.5</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>477.5</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>343.5</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>538.5</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>276</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>46565</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>3.512</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>3.952</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>3.0049999999999999</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>2.919</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>3.2349999999999999</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>377.03</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>77</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>299.5</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>227.5</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>308</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>338.5</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>39.333333333333343</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>41</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>43.333333333333343</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>47</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>48.5</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>2.4359999999999999</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>2.633</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>2.8140000000000001</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>3.1589999999999998</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>8.5739999999999998</v>
       </c>
-      <c r="AL20">
+      <c r="AN20">
         <v>5.4329999999999998</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <v>9.1509999999999998</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <v>6.9089999999999998</v>
       </c>
-      <c r="AO20">
+      <c r="AQ20">
         <v>27.69</v>
       </c>
-      <c r="AP20">
+      <c r="AR20">
         <v>48</v>
       </c>
-      <c r="AQ20">
+      <c r="AS20">
         <v>104.2</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>109.6</v>
       </c>
-      <c r="AS20">
+      <c r="AU20">
         <v>116.6</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>112.9</v>
       </c>
-      <c r="AV20">
+      <c r="AX20">
         <v>95</v>
       </c>
-      <c r="AW20">
+      <c r="AY20">
         <v>99</v>
       </c>
-      <c r="AX20">
+      <c r="AZ20">
         <v>107.9</v>
       </c>
-      <c r="AY20">
+      <c r="BA20">
         <v>111.9</v>
       </c>
-      <c r="AZ20">
+      <c r="BB20">
         <v>121.3</v>
       </c>
-      <c r="BA20">
+      <c r="BC20">
         <v>98.2</v>
       </c>
-      <c r="BB20">
+      <c r="BD20">
         <v>105.5</v>
       </c>
-      <c r="BC20">
+      <c r="BE20">
         <v>114.3</v>
       </c>
-      <c r="BD20">
+      <c r="BF20">
         <v>117.6</v>
       </c>
-      <c r="BE20">
+      <c r="BG20">
         <v>121.3</v>
       </c>
-      <c r="BG20">
+      <c r="BI20">
         <v>1.7053</v>
       </c>
-      <c r="BH20">
+      <c r="BJ20">
         <v>1.405853256389118</v>
       </c>
-      <c r="BI20">
+      <c r="BK20">
         <v>0.878</v>
       </c>
-      <c r="BJ20">
+      <c r="BL20">
         <v>0.72382522671063476</v>
       </c>
-      <c r="BK20">
+      <c r="BM20">
         <v>1.942255125284738</v>
       </c>
-      <c r="BL20" t="s">
+      <c r="BN20" t="s">
         <v>68</v>
       </c>
-      <c r="BM20" t="s">
+      <c r="BO20" t="s">
         <v>74</v>
       </c>
     </row>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5016D95D-159D-4374-9DFE-308B7E8627FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B22DF-B82D-4327-B55A-11FC0265FE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="112">
   <si>
     <t>Date of birth</t>
   </si>
@@ -301,7 +301,61 @@
     <t>cohort</t>
   </si>
   <si>
-    <t>1000s</t>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>OGTT_age</t>
+  </si>
+  <si>
+    <t>RBGweek20</t>
+  </si>
+  <si>
+    <t>RBGweek21</t>
+  </si>
+  <si>
+    <t>RBGweek22</t>
+  </si>
+  <si>
+    <t>RBGweek23</t>
+  </si>
+  <si>
+    <t>RBGweek24</t>
+  </si>
+  <si>
+    <t>RBGweek25</t>
+  </si>
+  <si>
+    <t>RBGweek26</t>
+  </si>
+  <si>
+    <t>RBGweek27</t>
+  </si>
+  <si>
+    <t>RBGweek28</t>
+  </si>
+  <si>
+    <t>RBGweek29</t>
+  </si>
+  <si>
+    <t>RBGweek30</t>
+  </si>
+  <si>
+    <t>RBGweek31</t>
+  </si>
+  <si>
+    <t>RBGweek32</t>
+  </si>
+  <si>
+    <t>RBGweek33</t>
+  </si>
+  <si>
+    <t>RBGweek34</t>
+  </si>
+  <si>
+    <t>10wk</t>
+  </si>
+  <si>
+    <t>30wk</t>
   </si>
 </sst>
 </file>
@@ -369,7 +423,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -710,18 +764,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:CG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" customWidth="1"/>
+    <col min="14" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -741,193 +802,244 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
@@ -935,7 +1047,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -947,187 +1059,193 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>65</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
         <v>58.5</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>178</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>314.5</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>551</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>589</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>200</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>48742.5</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>2.1539999999999999</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>2.5369999999999999</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>2.2069999999999999</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>3.3959999999999999</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>5.5759999999999996</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>422.93999999999897</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>71.000000099999994</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>225</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>83</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>206</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>221</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>193</v>
       </c>
-      <c r="AC2">
+      <c r="AT2">
         <v>41</v>
       </c>
-      <c r="AD2">
+      <c r="AU2">
         <v>48</v>
       </c>
-      <c r="AE2">
+      <c r="AV2">
         <v>52.5</v>
       </c>
-      <c r="AF2">
+      <c r="AW2">
         <v>50</v>
       </c>
-      <c r="AG2">
+      <c r="AX2">
         <v>58.5</v>
       </c>
-      <c r="AH2">
+      <c r="AY2">
         <v>2.8740000000000001</v>
       </c>
-      <c r="AI2">
+      <c r="AZ2">
         <v>1.6679999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="BA2">
         <v>0.96350000000000002</v>
       </c>
-      <c r="AK2">
+      <c r="BB2">
         <v>1.4139999999999999</v>
       </c>
-      <c r="AL2">
+      <c r="BC2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="AM2">
+      <c r="BD2">
         <v>11.42</v>
       </c>
-      <c r="AN2">
+      <c r="BE2">
         <v>12.25</v>
       </c>
-      <c r="AO2">
+      <c r="BF2">
         <v>13.18</v>
       </c>
-      <c r="AP2">
+      <c r="BG2">
         <v>11.28</v>
       </c>
-      <c r="AQ2">
+      <c r="BH2">
         <v>32.33</v>
       </c>
-      <c r="AR2">
+      <c r="BI2">
         <v>53.7</v>
       </c>
-      <c r="AS2">
+      <c r="BJ2">
         <v>92.6</v>
       </c>
-      <c r="AT2">
+      <c r="BK2">
         <v>98.1</v>
       </c>
-      <c r="AU2">
+      <c r="BL2">
         <v>100.9</v>
       </c>
-      <c r="AV2">
+      <c r="BM2">
         <v>104.4</v>
       </c>
-      <c r="AW2">
+      <c r="BN2">
         <v>104.6</v>
       </c>
-      <c r="AX2">
+      <c r="BO2">
         <v>85.4</v>
       </c>
-      <c r="AY2">
+      <c r="BP2">
         <v>90.9</v>
       </c>
-      <c r="AZ2">
+      <c r="BQ2">
         <v>94.9</v>
       </c>
-      <c r="BA2">
+      <c r="BR2">
         <v>99.5</v>
       </c>
-      <c r="BB2">
+      <c r="BS2">
         <v>105.1</v>
       </c>
-      <c r="BC2">
+      <c r="BT2">
         <v>90.2</v>
       </c>
-      <c r="BD2">
+      <c r="BU2">
         <v>96</v>
       </c>
-      <c r="BE2">
+      <c r="BV2">
         <v>101.3</v>
       </c>
-      <c r="BF2">
+      <c r="BW2">
         <v>104.5</v>
       </c>
-      <c r="BG2">
+      <c r="BX2">
         <v>105.1</v>
       </c>
-      <c r="BI2">
+      <c r="BZ2">
         <v>2.0448</v>
       </c>
-      <c r="BJ2">
+      <c r="CA2">
         <v>1.94557564224548</v>
       </c>
-      <c r="BK2">
+      <c r="CB2">
         <v>0.71850000000000003</v>
       </c>
-      <c r="BL2">
+      <c r="CC2">
         <v>0.68363463368220745</v>
       </c>
-      <c r="BM2">
+      <c r="CD2">
         <v>2.8459290187891439</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CE2" t="s">
         <v>68</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CF2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
@@ -1135,7 +1253,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>44219</v>
@@ -1144,184 +1262,190 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
         <v>48</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>196.5</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>344.5</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>449.5</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>518</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>284.5</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>46485</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>2.407</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>1.7829999999999999</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>1.425</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>2.1549999999999998</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>2.6480000000000001</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>262.25</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>73</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>265</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>289.5</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>326</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>309</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>370.5</v>
       </c>
-      <c r="AC3">
+      <c r="AT3">
         <v>43</v>
       </c>
-      <c r="AD3">
+      <c r="AU3">
         <v>44</v>
       </c>
-      <c r="AE3">
+      <c r="AV3">
         <v>40</v>
       </c>
-      <c r="AF3">
+      <c r="AW3">
         <v>34</v>
       </c>
-      <c r="AG3">
+      <c r="AX3">
         <v>48</v>
       </c>
-      <c r="AH3">
+      <c r="AY3">
         <v>1.92</v>
       </c>
-      <c r="AI3">
+      <c r="AZ3">
         <v>3.101</v>
       </c>
-      <c r="AJ3">
+      <c r="BA3">
         <v>1.89</v>
       </c>
-      <c r="AK3">
+      <c r="BB3">
         <v>1.681</v>
       </c>
-      <c r="AL3">
+      <c r="BC3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="AM3">
+      <c r="BD3">
         <v>16.899999999999999</v>
       </c>
-      <c r="AN3">
+      <c r="BE3">
         <v>13.42</v>
       </c>
-      <c r="AO3">
+      <c r="BF3">
         <v>9.6669999999999998</v>
       </c>
-      <c r="AP3">
+      <c r="BG3">
         <v>6.6989999999999998</v>
       </c>
-      <c r="AQ3">
+      <c r="BH3">
         <v>48.37</v>
       </c>
-      <c r="AR3">
+      <c r="BI3">
         <v>52.1</v>
       </c>
-      <c r="AS3">
+      <c r="BJ3">
         <v>88.9</v>
       </c>
-      <c r="AT3">
+      <c r="BK3">
         <v>93.4</v>
       </c>
-      <c r="AU3">
+      <c r="BL3">
         <v>98.2</v>
       </c>
-      <c r="AV3">
+      <c r="BM3">
         <v>98.8</v>
       </c>
-      <c r="AW3">
+      <c r="BN3">
         <v>100.4</v>
       </c>
-      <c r="AX3">
+      <c r="BO3">
         <v>82.5</v>
       </c>
-      <c r="AY3">
+      <c r="BP3">
         <v>86.7</v>
       </c>
-      <c r="AZ3">
+      <c r="BQ3">
         <v>92.5</v>
       </c>
-      <c r="BA3">
+      <c r="BR3">
         <v>94.3</v>
       </c>
-      <c r="BB3">
+      <c r="BS3">
         <v>101.7</v>
       </c>
-      <c r="BC3">
+      <c r="BT3">
         <v>85.9</v>
       </c>
-      <c r="BD3">
+      <c r="BU3">
         <v>90.7</v>
       </c>
-      <c r="BE3">
+      <c r="BV3">
         <v>97</v>
       </c>
-      <c r="BF3">
+      <c r="BW3">
         <v>98.1</v>
       </c>
-      <c r="BG3">
+      <c r="BX3">
         <v>101.7</v>
       </c>
-      <c r="BI3">
+      <c r="BZ3">
         <v>1.7807999999999999</v>
       </c>
-      <c r="BJ3">
+      <c r="CA3">
         <v>1.751032448377581</v>
       </c>
-      <c r="BK3">
+      <c r="CB3">
         <v>0.60589999999999999</v>
       </c>
-      <c r="BL3">
+      <c r="CC3">
         <v>0.59577187807276299</v>
       </c>
-      <c r="BM3">
+      <c r="CD3">
         <v>2.9390988611982181</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="CE3" t="s">
         <v>68</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="CF3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
@@ -1329,7 +1453,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -1341,187 +1465,193 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
         <v>56.5</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>219</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>334</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>462</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>511</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>189</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>43717.5</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>2.5910000000000002</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>3.4980000000000002</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>2.8780000000000001</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>3.0760000000000001</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>5.2809999999999997</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>432.02</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>78</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>256.5</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>250.5</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>139.5</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>248.5</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>90.333333333333329</v>
       </c>
-      <c r="AC4">
+      <c r="AT4">
         <v>52.333333333333343</v>
       </c>
-      <c r="AD4">
+      <c r="AU4">
         <v>48</v>
       </c>
-      <c r="AE4">
+      <c r="AV4">
         <v>40</v>
       </c>
-      <c r="AF4">
+      <c r="AW4">
         <v>38.5</v>
       </c>
-      <c r="AG4">
+      <c r="AX4">
         <v>56.5</v>
       </c>
-      <c r="AH4">
+      <c r="AY4">
         <v>4.1539999999999999</v>
       </c>
-      <c r="AI4">
+      <c r="AZ4">
         <v>2.879</v>
       </c>
-      <c r="AJ4">
+      <c r="BA4">
         <v>1.9770000000000001</v>
       </c>
-      <c r="AK4">
+      <c r="BB4">
         <v>2.734</v>
       </c>
-      <c r="AL4">
+      <c r="BC4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="AM4">
+      <c r="BD4">
         <v>10.37</v>
       </c>
-      <c r="AN4">
+      <c r="BE4">
         <v>12.76</v>
       </c>
-      <c r="AO4">
+      <c r="BF4">
         <v>11.56</v>
       </c>
-      <c r="AP4">
+      <c r="BG4">
         <v>9.4499999999999993</v>
       </c>
-      <c r="AQ4">
+      <c r="BH4">
         <v>38.47</v>
       </c>
-      <c r="AR4">
+      <c r="BI4">
         <v>51.3</v>
       </c>
-      <c r="AS4">
+      <c r="BJ4">
         <v>93.5</v>
       </c>
-      <c r="AT4">
+      <c r="BK4">
         <v>99.3</v>
       </c>
-      <c r="AU4">
+      <c r="BL4">
         <v>103</v>
       </c>
-      <c r="AV4">
+      <c r="BM4">
         <v>107</v>
       </c>
-      <c r="AW4">
+      <c r="BN4">
         <v>106.9</v>
       </c>
-      <c r="AX4">
+      <c r="BO4">
         <v>86.7</v>
       </c>
-      <c r="AY4">
+      <c r="BP4">
         <v>91.9</v>
       </c>
-      <c r="AZ4">
+      <c r="BQ4">
         <v>96.8</v>
       </c>
-      <c r="BA4">
+      <c r="BR4">
         <v>102.1</v>
       </c>
-      <c r="BB4">
+      <c r="BS4">
         <v>109.1</v>
       </c>
-      <c r="BC4">
+      <c r="BT4">
         <v>91.2</v>
       </c>
-      <c r="BD4">
+      <c r="BU4">
         <v>96.1</v>
       </c>
-      <c r="BE4">
+      <c r="BV4">
         <v>101.3</v>
       </c>
-      <c r="BF4">
+      <c r="BW4">
         <v>106.7</v>
       </c>
-      <c r="BG4">
+      <c r="BX4">
         <v>109.1</v>
       </c>
-      <c r="BI4">
+      <c r="BZ4">
         <v>2.5185</v>
       </c>
-      <c r="BJ4">
+      <c r="CA4">
         <v>2.308432630614115</v>
       </c>
-      <c r="BK4">
+      <c r="CB4">
         <v>0.74390000000000001</v>
       </c>
-      <c r="BL4">
+      <c r="CC4">
         <v>0.68185151237396879</v>
       </c>
-      <c r="BM4">
+      <c r="CD4">
         <v>3.3855356902809519</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="CE4" t="s">
         <v>68</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="CF4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
@@ -1529,7 +1659,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2">
         <v>44219</v>
@@ -1540,134 +1670,137 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>73</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>63</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>46.5</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>78</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>63</v>
       </c>
-      <c r="AC5">
+      <c r="AT5">
         <v>41</v>
       </c>
-      <c r="AD5">
+      <c r="AU5">
         <v>50</v>
       </c>
-      <c r="AE5">
+      <c r="AV5">
         <v>64.5</v>
       </c>
-      <c r="AF5">
+      <c r="AW5">
         <v>63.5</v>
       </c>
-      <c r="AG5">
+      <c r="AX5">
         <v>42</v>
       </c>
-      <c r="AH5">
+      <c r="AY5">
         <v>2.3039999999999998</v>
       </c>
-      <c r="AI5">
+      <c r="AZ5">
         <v>0.99519999999999997</v>
       </c>
-      <c r="AJ5">
+      <c r="BA5">
         <v>1.381</v>
       </c>
-      <c r="AK5">
+      <c r="BB5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AL5">
+      <c r="BC5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="AM5">
+      <c r="BD5">
         <v>43.94</v>
       </c>
-      <c r="AN5">
+      <c r="BE5">
         <v>10.64</v>
       </c>
-      <c r="AO5">
+      <c r="BF5">
         <v>39.24</v>
       </c>
-      <c r="AP5">
+      <c r="BG5">
         <v>51.56</v>
       </c>
-      <c r="AR5">
+      <c r="BI5">
         <v>49.6</v>
       </c>
-      <c r="AS5">
+      <c r="BJ5">
         <v>91.9</v>
       </c>
-      <c r="AT5">
+      <c r="BK5">
         <v>98.3</v>
       </c>
-      <c r="AU5">
+      <c r="BL5">
         <v>102.8</v>
       </c>
-      <c r="AV5">
+      <c r="BM5">
         <v>105</v>
       </c>
-      <c r="AX5">
+      <c r="BO5">
         <v>85.2</v>
       </c>
-      <c r="AY5">
+      <c r="BP5">
         <v>92.5</v>
       </c>
-      <c r="AZ5">
+      <c r="BQ5">
         <v>97.1</v>
       </c>
-      <c r="BA5">
+      <c r="BR5">
         <v>101</v>
       </c>
-      <c r="BB5">
+      <c r="BS5">
         <v>109.2</v>
       </c>
-      <c r="BC5">
+      <c r="BT5">
         <v>89</v>
       </c>
-      <c r="BD5">
+      <c r="BU5">
         <v>96.7</v>
       </c>
-      <c r="BE5">
+      <c r="BV5">
         <v>102.3</v>
       </c>
-      <c r="BF5">
+      <c r="BW5">
         <v>105.7</v>
       </c>
-      <c r="BG5">
+      <c r="BX5">
         <v>109.2</v>
       </c>
-      <c r="BI5">
+      <c r="BZ5">
         <v>2.5485000000000002</v>
       </c>
-      <c r="BJ5">
+      <c r="CA5">
         <v>2.3337912087912089</v>
       </c>
-      <c r="BK5">
+      <c r="CB5">
         <v>0.86140000000000005</v>
       </c>
-      <c r="BL5">
+      <c r="CC5">
         <v>0.78882783882783891</v>
       </c>
-      <c r="BM5">
+      <c r="CD5">
         <v>2.9585558393313209</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="CF5" t="s">
         <v>71</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="CG5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
@@ -1675,7 +1808,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
@@ -1687,187 +1820,193 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>65</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
         <v>38.5</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>160</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>308</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>368</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>445.5</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>99</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>35250</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>1.81</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>2.81</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>4.8310000000000004</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3.99</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>7</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>4.88</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>626.66</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>70</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>232.5</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>203.5</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>205.5</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>225.5</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>139.5</v>
       </c>
-      <c r="AC6">
+      <c r="AT6">
         <v>171.33333333333329</v>
       </c>
-      <c r="AD6">
+      <c r="AU6">
         <v>51.5</v>
       </c>
-      <c r="AE6">
+      <c r="AV6">
         <v>55</v>
       </c>
-      <c r="AF6">
+      <c r="AW6">
         <v>46</v>
       </c>
-      <c r="AG6">
+      <c r="AX6">
         <v>38.5</v>
       </c>
-      <c r="AH6">
+      <c r="AY6">
         <v>7.3869999999999996</v>
       </c>
-      <c r="AI6">
+      <c r="AZ6">
         <v>2.7650000000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="BA6">
         <v>1.3919999999999999</v>
       </c>
-      <c r="AK6">
+      <c r="BB6">
         <v>2.5710000000000002</v>
       </c>
-      <c r="AL6">
+      <c r="BC6">
         <v>1.81</v>
       </c>
-      <c r="AM6">
+      <c r="BD6">
         <v>8.1869999999999994</v>
       </c>
-      <c r="AN6">
+      <c r="BE6">
         <v>14.11</v>
       </c>
-      <c r="AO6">
+      <c r="BF6">
         <v>13.63</v>
       </c>
-      <c r="AP6">
+      <c r="BG6">
         <v>14.34</v>
       </c>
-      <c r="AQ6">
+      <c r="BH6">
         <v>25.71</v>
       </c>
-      <c r="AR6">
+      <c r="BI6">
         <v>55.8</v>
       </c>
-      <c r="AS6">
+      <c r="BJ6">
         <v>95.7</v>
       </c>
-      <c r="AT6">
+      <c r="BK6">
         <v>102.3</v>
       </c>
-      <c r="AU6">
+      <c r="BL6">
         <v>106.3</v>
       </c>
-      <c r="AV6">
+      <c r="BM6">
         <v>108.3</v>
       </c>
-      <c r="AW6">
+      <c r="BN6">
         <v>108.6</v>
       </c>
-      <c r="AX6">
+      <c r="BO6">
         <v>93.2</v>
       </c>
-      <c r="AY6">
+      <c r="BP6">
         <v>95.6</v>
       </c>
-      <c r="AZ6">
+      <c r="BQ6">
         <v>100.5</v>
       </c>
-      <c r="BA6">
+      <c r="BR6">
         <v>103.4</v>
       </c>
-      <c r="BB6">
+      <c r="BS6">
         <v>110.4</v>
       </c>
-      <c r="BC6">
+      <c r="BT6">
         <v>96.7</v>
       </c>
-      <c r="BD6">
+      <c r="BU6">
         <v>98.7</v>
       </c>
-      <c r="BE6">
+      <c r="BV6">
         <v>106.2</v>
       </c>
-      <c r="BF6">
+      <c r="BW6">
         <v>110.1</v>
       </c>
-      <c r="BG6">
+      <c r="BX6">
         <v>110.4</v>
       </c>
-      <c r="BI6">
+      <c r="BZ6">
         <v>2.5059999999999998</v>
       </c>
-      <c r="BJ6">
+      <c r="CA6">
         <v>2.2699275362318838</v>
       </c>
-      <c r="BK6">
+      <c r="CB6">
         <v>0.71640000000000004</v>
       </c>
-      <c r="BL6">
+      <c r="CC6">
         <v>0.64891304347826084</v>
       </c>
-      <c r="BM6">
+      <c r="CD6">
         <v>3.4980457844779451</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="CE6" t="s">
         <v>68</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="CF6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
@@ -1875,7 +2014,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2">
         <v>44219</v>
@@ -1884,184 +2023,190 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
         <v>169</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>355</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>600</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>600</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>569.5</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>392</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>59782.5</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>1.3879999999999999</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>1.617</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.71</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.99080000000000001</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>1.123</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>151.756</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>69</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>383</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>389</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>367</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>514</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>509</v>
       </c>
-      <c r="AC7">
+      <c r="AT7">
         <v>77.25</v>
       </c>
-      <c r="AD7">
+      <c r="AU7">
         <v>105</v>
       </c>
-      <c r="AE7">
+      <c r="AV7">
         <v>67.5</v>
       </c>
-      <c r="AF7">
+      <c r="AW7">
         <v>61.5</v>
       </c>
-      <c r="AG7">
+      <c r="AX7">
         <v>169</v>
       </c>
-      <c r="AH7">
+      <c r="AY7">
         <v>2.0390000000000001</v>
       </c>
-      <c r="AI7">
+      <c r="AZ7">
         <v>1.476</v>
       </c>
-      <c r="AJ7">
+      <c r="BA7">
         <v>1.0629999999999999</v>
       </c>
-      <c r="AK7">
+      <c r="BB7">
         <v>1.603</v>
       </c>
-      <c r="AL7">
+      <c r="BC7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="AM7">
+      <c r="BD7">
         <v>2.7080000000000002</v>
       </c>
-      <c r="AN7">
+      <c r="BE7">
         <v>2.2970000000000002</v>
       </c>
-      <c r="AO7">
+      <c r="BF7">
         <v>3.3730000000000002</v>
       </c>
-      <c r="AP7">
+      <c r="BG7">
         <v>3.0859999999999999</v>
       </c>
-      <c r="AQ7">
+      <c r="BH7">
         <v>11.62</v>
       </c>
-      <c r="AR7">
+      <c r="BI7">
         <v>56.3</v>
       </c>
-      <c r="AS7">
+      <c r="BJ7">
         <v>91.7</v>
       </c>
-      <c r="AT7">
+      <c r="BK7">
         <v>95.3</v>
       </c>
-      <c r="AU7">
+      <c r="BL7">
         <v>98.5</v>
       </c>
-      <c r="AV7">
+      <c r="BM7">
         <v>103.2</v>
       </c>
-      <c r="AW7">
+      <c r="BN7">
         <v>101.8</v>
       </c>
-      <c r="AX7">
+      <c r="BO7">
         <v>86.7</v>
       </c>
-      <c r="AY7">
+      <c r="BP7">
         <v>89.4</v>
       </c>
-      <c r="AZ7">
+      <c r="BQ7">
         <v>93</v>
       </c>
-      <c r="BA7">
+      <c r="BR7">
         <v>96.7</v>
       </c>
-      <c r="BB7">
+      <c r="BS7">
         <v>105.5</v>
       </c>
-      <c r="BC7">
+      <c r="BT7">
         <v>90.9</v>
       </c>
-      <c r="BD7">
+      <c r="BU7">
         <v>93.2</v>
       </c>
-      <c r="BE7">
+      <c r="BV7">
         <v>96.8</v>
       </c>
-      <c r="BF7">
+      <c r="BW7">
         <v>102.3</v>
       </c>
-      <c r="BG7">
+      <c r="BX7">
         <v>105.5</v>
       </c>
-      <c r="BI7">
+      <c r="BZ7">
         <v>1.3107</v>
       </c>
-      <c r="BJ7">
+      <c r="CA7">
         <v>1.2423696682464449</v>
       </c>
-      <c r="BK7">
+      <c r="CB7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="BL7">
+      <c r="CC7">
         <v>0.56018957345971565</v>
       </c>
-      <c r="BM7">
+      <c r="CD7">
         <v>2.2177664974619291</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="CE7" t="s">
         <v>69</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="CF7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
@@ -2069,7 +2214,7 @@
         <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
         <v>83</v>
@@ -2081,187 +2226,193 @@
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>66</v>
       </c>
-      <c r="I8">
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
         <v>138</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>352.5</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>513.5</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>585</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>600</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>406.5</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>60245</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>2.827</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>2.0169999999999999</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>1.2969999999999999</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.5429999999999999</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>2.0760000000000001</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>2.2149999999999999</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>238.005</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>96</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>387.66666666666669</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>281</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>349</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>391.5</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>435.5</v>
       </c>
-      <c r="AC8">
+      <c r="AT8">
         <v>174.33333333333329</v>
       </c>
-      <c r="AD8">
+      <c r="AU8">
         <v>78.5</v>
       </c>
-      <c r="AE8">
+      <c r="AV8">
         <v>71</v>
       </c>
-      <c r="AF8">
+      <c r="AW8">
         <v>50.5</v>
       </c>
-      <c r="AG8">
+      <c r="AX8">
         <v>138</v>
       </c>
-      <c r="AH8">
+      <c r="AY8">
         <v>5.1829999999999998</v>
       </c>
-      <c r="AI8">
+      <c r="AZ8">
         <v>2.09</v>
       </c>
-      <c r="AJ8">
+      <c r="BA8">
         <v>1.2</v>
       </c>
-      <c r="AK8">
+      <c r="BB8">
         <v>1.8240000000000001</v>
       </c>
-      <c r="AL8">
+      <c r="BC8">
         <v>2.827</v>
       </c>
-      <c r="AM8">
+      <c r="BD8">
         <v>2.8450000000000002</v>
       </c>
-      <c r="AN8">
+      <c r="BE8">
         <v>3.6970000000000001</v>
       </c>
-      <c r="AO8">
+      <c r="BF8">
         <v>3.637</v>
       </c>
-      <c r="AP8">
+      <c r="BG8">
         <v>2.9369999999999998</v>
       </c>
-      <c r="AQ8">
+      <c r="BH8">
         <v>16.37</v>
       </c>
-      <c r="AR8">
+      <c r="BI8">
         <v>60.7</v>
       </c>
-      <c r="AS8">
+      <c r="BJ8">
         <v>95.4</v>
       </c>
-      <c r="AT8">
+      <c r="BK8">
         <v>99.1</v>
       </c>
-      <c r="AU8">
+      <c r="BL8">
         <v>106.3</v>
       </c>
-      <c r="AV8">
+      <c r="BM8">
         <v>112.6</v>
       </c>
-      <c r="AW8">
+      <c r="BN8">
         <v>110.7</v>
       </c>
-      <c r="AX8">
+      <c r="BO8">
         <v>93.1</v>
       </c>
-      <c r="AY8">
+      <c r="BP8">
         <v>94.9</v>
       </c>
-      <c r="AZ8">
+      <c r="BQ8">
         <v>99.5</v>
       </c>
-      <c r="BA8">
+      <c r="BR8">
         <v>105.5</v>
       </c>
-      <c r="BB8">
+      <c r="BS8">
         <v>112.1</v>
       </c>
-      <c r="BC8">
+      <c r="BT8">
         <v>95.2</v>
       </c>
-      <c r="BD8">
+      <c r="BU8">
         <v>100.7</v>
       </c>
-      <c r="BE8">
+      <c r="BV8">
         <v>103.2</v>
       </c>
-      <c r="BF8">
+      <c r="BW8">
         <v>110.3</v>
       </c>
-      <c r="BG8">
+      <c r="BX8">
         <v>112.1</v>
       </c>
-      <c r="BI8">
+      <c r="BZ8">
         <v>1.4332</v>
       </c>
-      <c r="BJ8">
+      <c r="CA8">
         <v>1.27850133809099</v>
       </c>
-      <c r="BK8">
+      <c r="CB8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="BL8">
+      <c r="CC8">
         <v>0.62087421944692234</v>
       </c>
-      <c r="BM8">
+      <c r="CD8">
         <v>2.059195402298851</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="CE8" t="s">
         <v>69</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="CF8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
@@ -2269,7 +2420,7 @@
         <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2">
         <v>44220</v>
@@ -2280,134 +2431,137 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>57</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>117.3333333333333</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>73.5</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>45</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>61</v>
       </c>
-      <c r="AC9">
+      <c r="AT9">
         <v>50.25</v>
       </c>
-      <c r="AD9">
+      <c r="AU9">
         <v>56.5</v>
       </c>
-      <c r="AE9">
+      <c r="AV9">
         <v>41.5</v>
       </c>
-      <c r="AF9">
+      <c r="AW9">
         <v>52</v>
       </c>
-      <c r="AG9">
+      <c r="AX9">
         <v>52</v>
       </c>
-      <c r="AH9">
+      <c r="AY9">
         <v>2.1320000000000001</v>
       </c>
-      <c r="AI9">
+      <c r="AZ9">
         <v>1.875</v>
       </c>
-      <c r="AJ9">
+      <c r="BA9">
         <v>1.29</v>
       </c>
-      <c r="AK9">
+      <c r="BB9">
         <v>1.9339999999999999</v>
       </c>
-      <c r="AL9">
+      <c r="BC9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="AM9">
+      <c r="BD9">
         <v>10.52</v>
       </c>
-      <c r="AN9">
+      <c r="BE9">
         <v>12.96</v>
       </c>
-      <c r="AO9">
+      <c r="BF9">
         <v>4.5529999999999999</v>
       </c>
-      <c r="AP9">
+      <c r="BG9">
         <v>16.79</v>
       </c>
-      <c r="AR9">
+      <c r="BI9">
         <v>48.7</v>
       </c>
-      <c r="AS9">
+      <c r="BJ9">
         <v>94.9</v>
       </c>
-      <c r="AT9">
+      <c r="BK9">
         <v>102</v>
       </c>
-      <c r="AU9">
+      <c r="BL9">
         <v>106</v>
       </c>
-      <c r="AV9">
+      <c r="BM9">
         <v>109.8</v>
       </c>
-      <c r="AX9">
+      <c r="BO9">
         <v>87.3</v>
       </c>
-      <c r="AY9">
+      <c r="BP9">
         <v>93.7</v>
       </c>
-      <c r="AZ9">
+      <c r="BQ9">
         <v>100.9</v>
       </c>
-      <c r="BA9">
+      <c r="BR9">
         <v>104.7</v>
       </c>
-      <c r="BB9">
+      <c r="BS9">
         <v>112.1</v>
       </c>
-      <c r="BC9">
+      <c r="BT9">
         <v>91.4</v>
       </c>
-      <c r="BD9">
+      <c r="BU9">
         <v>101</v>
       </c>
-      <c r="BE9">
+      <c r="BV9">
         <v>107.4</v>
       </c>
-      <c r="BF9">
+      <c r="BW9">
         <v>109.9</v>
       </c>
-      <c r="BG9">
+      <c r="BX9">
         <v>112.1</v>
       </c>
-      <c r="BI9">
+      <c r="BZ9">
         <v>1.9369000000000001</v>
       </c>
-      <c r="BJ9">
+      <c r="CA9">
         <v>1.7278322925958971</v>
       </c>
-      <c r="BK9">
+      <c r="CB9">
         <v>0.77539999999999998</v>
       </c>
-      <c r="BL9">
+      <c r="CC9">
         <v>0.6917038358608385</v>
       </c>
-      <c r="BM9">
+      <c r="CD9">
         <v>2.4979365488779992</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="CF9" t="s">
         <v>71</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="CG9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
@@ -2415,7 +2569,7 @@
         <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2">
         <v>44220</v>
@@ -2424,184 +2578,190 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
         <v>171</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>345</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>547</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>600</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>563</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>428.5</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>59965</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1.54</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>1.59</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>2.976</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>1.2490000000000001</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>1.5609999999999999</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>204.07</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>79</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>297.33333333333331</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>326.5</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>321.5</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>384.5</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>600</v>
       </c>
-      <c r="AC10">
+      <c r="AT10">
         <v>57</v>
       </c>
-      <c r="AD10">
+      <c r="AU10">
         <v>66.75</v>
       </c>
-      <c r="AE10">
+      <c r="AV10">
         <v>73.5</v>
       </c>
-      <c r="AF10">
+      <c r="AW10">
         <v>63.5</v>
       </c>
-      <c r="AG10">
+      <c r="AX10">
         <v>171</v>
       </c>
-      <c r="AH10">
+      <c r="AY10">
         <v>4.5339999999999998</v>
       </c>
-      <c r="AI10">
+      <c r="AZ10">
         <v>8.9130000000000003</v>
       </c>
-      <c r="AJ10">
+      <c r="BA10">
         <v>2.2389999999999999</v>
       </c>
-      <c r="AK10">
+      <c r="BB10">
         <v>1.7250000000000001</v>
       </c>
-      <c r="AL10">
+      <c r="BC10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="AM10">
+      <c r="BD10">
         <v>3.96</v>
       </c>
-      <c r="AN10">
+      <c r="BE10">
         <v>6.798</v>
       </c>
-      <c r="AO10">
+      <c r="BF10">
         <v>5.1260000000000003</v>
       </c>
-      <c r="AP10">
+      <c r="BG10">
         <v>3.0009999999999999</v>
       </c>
-      <c r="AQ10">
+      <c r="BH10">
         <v>14.42</v>
       </c>
-      <c r="AR10">
+      <c r="BI10">
         <v>56.2</v>
       </c>
-      <c r="AS10">
+      <c r="BJ10">
         <v>97.7</v>
       </c>
-      <c r="AT10">
+      <c r="BK10">
         <v>104</v>
       </c>
-      <c r="AU10">
+      <c r="BL10">
         <v>106.5</v>
       </c>
-      <c r="AV10">
+      <c r="BM10">
         <v>109.3</v>
       </c>
-      <c r="AW10">
+      <c r="BN10">
         <v>109.2</v>
       </c>
-      <c r="AX10">
+      <c r="BO10">
         <v>90.6</v>
       </c>
-      <c r="AY10">
+      <c r="BP10">
         <v>95.1</v>
       </c>
-      <c r="AZ10">
+      <c r="BQ10">
         <v>99.6</v>
       </c>
-      <c r="BA10">
+      <c r="BR10">
         <v>102.9</v>
       </c>
-      <c r="BB10">
+      <c r="BS10">
         <v>113.2</v>
       </c>
-      <c r="BC10">
+      <c r="BT10">
         <v>95.8</v>
       </c>
-      <c r="BD10">
+      <c r="BU10">
         <v>100.1</v>
       </c>
-      <c r="BE10">
+      <c r="BV10">
         <v>106.1</v>
       </c>
-      <c r="BF10">
+      <c r="BW10">
         <v>108.3</v>
       </c>
-      <c r="BG10">
+      <c r="BX10">
         <v>113.2</v>
       </c>
-      <c r="BI10">
+      <c r="BZ10">
         <v>1.3511</v>
       </c>
-      <c r="BJ10">
+      <c r="CA10">
         <v>1.193551236749117</v>
       </c>
-      <c r="BK10">
+      <c r="CB10">
         <v>0.62829999999999997</v>
       </c>
-      <c r="BL10">
+      <c r="CC10">
         <v>0.55503533568904595</v>
       </c>
-      <c r="BM10">
+      <c r="CD10">
         <v>2.150405857074646</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="CE10" t="s">
         <v>69</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="CF10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
@@ -2609,7 +2769,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2621,184 +2781,190 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
         <v>62</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>258</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>600</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>600</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>571.5</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>328.5</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>56462.5</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>1.4430000000000001</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>2.0219999999999998</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1.3979999999999999</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>1.347</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>2.3010000000000002</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>198.65</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>90</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>272</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>339.5</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>330.5</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>413</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>537.5</v>
       </c>
-      <c r="AC11">
+      <c r="AT11">
         <v>59</v>
       </c>
-      <c r="AD11">
+      <c r="AU11">
         <v>53.333333333333343</v>
       </c>
-      <c r="AE11">
+      <c r="AV11">
         <v>50</v>
       </c>
-      <c r="AF11">
+      <c r="AW11">
         <v>73.5</v>
       </c>
-      <c r="AG11">
+      <c r="AX11">
         <v>62</v>
       </c>
-      <c r="AH11">
+      <c r="AY11">
         <v>2.3239999999999998</v>
       </c>
-      <c r="AJ11">
+      <c r="BA11">
         <v>1.119</v>
       </c>
-      <c r="AK11">
+      <c r="BB11">
         <v>1.389</v>
       </c>
-      <c r="AL11">
+      <c r="BC11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="AM11">
+      <c r="BD11">
         <v>4.5880000000000001</v>
       </c>
-      <c r="AN11">
+      <c r="BE11">
         <v>2.9710000000000001</v>
       </c>
-      <c r="AO11">
+      <c r="BF11">
         <v>3.4649999999999999</v>
       </c>
-      <c r="AP11">
+      <c r="BG11">
         <v>2.145</v>
       </c>
-      <c r="AQ11">
+      <c r="BH11">
         <v>13.01</v>
       </c>
-      <c r="AR11">
+      <c r="BI11">
         <v>54.1</v>
       </c>
-      <c r="AS11">
+      <c r="BJ11">
         <v>95.9</v>
       </c>
-      <c r="AT11">
+      <c r="BK11">
         <v>102</v>
       </c>
-      <c r="AU11">
+      <c r="BL11">
         <v>105.8</v>
       </c>
-      <c r="AV11">
+      <c r="BM11">
         <v>106.5</v>
       </c>
-      <c r="AW11">
+      <c r="BN11">
         <v>105.5</v>
       </c>
-      <c r="AX11">
+      <c r="BO11">
         <v>89.6</v>
       </c>
-      <c r="AY11">
+      <c r="BP11">
         <v>93.8</v>
       </c>
-      <c r="AZ11">
+      <c r="BQ11">
         <v>98.4</v>
       </c>
-      <c r="BA11">
+      <c r="BR11">
         <v>99.9</v>
       </c>
-      <c r="BB11">
+      <c r="BS11">
         <v>108.8</v>
       </c>
-      <c r="BC11">
+      <c r="BT11">
         <v>94.5</v>
       </c>
-      <c r="BD11">
+      <c r="BU11">
         <v>99.7</v>
       </c>
-      <c r="BE11">
+      <c r="BV11">
         <v>103.9</v>
       </c>
-      <c r="BF11">
+      <c r="BW11">
         <v>107.4</v>
       </c>
-      <c r="BG11">
+      <c r="BX11">
         <v>108.8</v>
       </c>
-      <c r="BI11">
+      <c r="BZ11">
         <v>0.89039999999999997</v>
       </c>
-      <c r="BJ11">
+      <c r="CA11">
         <v>0.81838235294117645</v>
       </c>
-      <c r="BK11">
+      <c r="CB11">
         <v>0.65149999999999997</v>
       </c>
-      <c r="BL11">
+      <c r="CC11">
         <v>0.59880514705882348</v>
       </c>
-      <c r="BM11">
+      <c r="CD11">
         <v>1.3666922486569451</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="CE11" t="s">
         <v>69</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="CF11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
@@ -2806,7 +2972,7 @@
         <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
@@ -2818,187 +2984,193 @@
         <v>2</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
         <v>72</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>172.5</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>201.5</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>208</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>195</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>67.5</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>19060</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>1.29</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>5.008</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>6.9690000000000003</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>5.8609999999999998</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>8.5090000000000003</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.90500000000000003</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>653.495</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>84</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>108.5</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>86</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>71.5</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>78</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>68</v>
       </c>
-      <c r="AC12">
+      <c r="AT12">
         <v>53.333333333333343</v>
       </c>
-      <c r="AD12">
+      <c r="AU12">
         <v>63</v>
       </c>
-      <c r="AE12">
+      <c r="AV12">
         <v>48.5</v>
       </c>
-      <c r="AF12">
+      <c r="AW12">
         <v>63</v>
       </c>
-      <c r="AG12">
+      <c r="AX12">
         <v>72</v>
       </c>
-      <c r="AH12">
+      <c r="AY12">
         <v>0.95289999999999997</v>
       </c>
-      <c r="AI12">
+      <c r="AZ12">
         <v>1.758</v>
       </c>
-      <c r="AJ12">
+      <c r="BA12">
         <v>1.165</v>
       </c>
-      <c r="AK12">
+      <c r="BB12">
         <v>2.617</v>
       </c>
-      <c r="AL12">
+      <c r="BC12">
         <v>1.29</v>
       </c>
-      <c r="AM12">
+      <c r="BD12">
         <v>13.61</v>
       </c>
-      <c r="AN12">
+      <c r="BE12">
         <v>22.8</v>
       </c>
-      <c r="AO12">
+      <c r="BF12">
         <v>21.67</v>
       </c>
-      <c r="AP12">
+      <c r="BG12">
         <v>17.55</v>
       </c>
-      <c r="AQ12">
+      <c r="BH12">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AR12">
+      <c r="BI12">
         <v>41.1</v>
       </c>
-      <c r="AS12">
+      <c r="BJ12">
         <v>78.5</v>
       </c>
-      <c r="AT12">
+      <c r="BK12">
         <v>83.1</v>
       </c>
-      <c r="AU12">
+      <c r="BL12">
         <v>87.3</v>
       </c>
-      <c r="AV12">
+      <c r="BM12">
         <v>89.5</v>
       </c>
-      <c r="AW12">
+      <c r="BN12">
         <v>89.6</v>
       </c>
-      <c r="AX12">
+      <c r="BO12">
         <v>70.900000000000006</v>
       </c>
-      <c r="AY12">
+      <c r="BP12">
         <v>75.8</v>
       </c>
-      <c r="AZ12">
+      <c r="BQ12">
         <v>81.8</v>
       </c>
-      <c r="BA12">
+      <c r="BR12">
         <v>83.8</v>
       </c>
-      <c r="BB12">
+      <c r="BS12">
         <v>92.4</v>
       </c>
-      <c r="BC12">
+      <c r="BT12">
         <v>76.099999999999994</v>
       </c>
-      <c r="BD12">
+      <c r="BU12">
         <v>81.2</v>
       </c>
-      <c r="BE12">
+      <c r="BV12">
         <v>86.2</v>
       </c>
-      <c r="BF12">
+      <c r="BW12">
         <v>89</v>
       </c>
-      <c r="BG12">
+      <c r="BX12">
         <v>92.4</v>
       </c>
-      <c r="BI12">
+      <c r="BZ12">
         <v>1.4930000000000001</v>
       </c>
-      <c r="BJ12">
+      <c r="CA12">
         <v>1.615800865800866</v>
       </c>
-      <c r="BK12">
+      <c r="CB12">
         <v>0.53539999999999999</v>
       </c>
-      <c r="BL12">
+      <c r="CC12">
         <v>0.57943722943722942</v>
       </c>
-      <c r="BM12">
+      <c r="CD12">
         <v>2.7885692939858049</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="CE12" t="s">
         <v>70</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="CF12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
@@ -3006,7 +3178,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -3018,187 +3190,193 @@
         <v>2</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="I13">
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
         <v>59.5</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>206</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>303.5</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>392</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>401</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>91.5</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>34022.5</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>3.29</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>5.4809999999999999</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>6.5640000000000001</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>6.9340000000000002</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>17.88</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>7.8789999999999996</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>1316.55</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>75</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>76</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>70.5</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>59</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>58</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>44</v>
       </c>
-      <c r="AC13">
+      <c r="AT13">
         <v>46</v>
       </c>
-      <c r="AD13">
+      <c r="AU13">
         <v>63.5</v>
       </c>
-      <c r="AE13">
+      <c r="AV13">
         <v>51.5</v>
       </c>
-      <c r="AF13">
+      <c r="AW13">
         <v>60</v>
       </c>
-      <c r="AG13">
+      <c r="AX13">
         <v>59.5</v>
       </c>
-      <c r="AH13">
+      <c r="AY13">
         <v>0.47449999999999998</v>
       </c>
-      <c r="AI13">
+      <c r="AZ13">
         <v>1.18</v>
       </c>
-      <c r="AJ13">
+      <c r="BA13">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AK13">
+      <c r="BB13">
         <v>2.1230000000000002</v>
       </c>
-      <c r="AL13">
+      <c r="BC13">
         <v>3.29</v>
       </c>
-      <c r="AM13">
+      <c r="BD13">
         <v>8.5370000000000008</v>
       </c>
-      <c r="AN13">
+      <c r="BE13">
         <v>16.690000000000001</v>
       </c>
-      <c r="AO13">
+      <c r="BF13">
         <v>19.329999999999998</v>
       </c>
-      <c r="AP13">
+      <c r="BG13">
         <v>15.15</v>
       </c>
-      <c r="AQ13">
+      <c r="BH13">
         <v>30.05</v>
       </c>
-      <c r="AR13">
+      <c r="BI13">
         <v>39.4</v>
       </c>
-      <c r="AS13">
+      <c r="BJ13">
         <v>77.7</v>
       </c>
-      <c r="AT13">
+      <c r="BK13">
         <v>84.2</v>
       </c>
-      <c r="AU13">
+      <c r="BL13">
         <v>87.6</v>
       </c>
-      <c r="AV13">
+      <c r="BM13">
         <v>91</v>
       </c>
-      <c r="AW13">
+      <c r="BN13">
         <v>97.5</v>
       </c>
-      <c r="AX13">
+      <c r="BO13">
         <v>69.7</v>
       </c>
-      <c r="AY13">
+      <c r="BP13">
         <v>75.099999999999994</v>
       </c>
-      <c r="AZ13">
+      <c r="BQ13">
         <v>84.2</v>
       </c>
-      <c r="BA13">
+      <c r="BR13">
         <v>84.5</v>
       </c>
-      <c r="BB13">
+      <c r="BS13">
         <v>98.3</v>
       </c>
-      <c r="BC13">
+      <c r="BT13">
         <v>73.2</v>
       </c>
-      <c r="BD13">
+      <c r="BU13">
         <v>80.2</v>
       </c>
-      <c r="BE13">
+      <c r="BV13">
         <v>88.5</v>
       </c>
-      <c r="BF13">
+      <c r="BW13">
         <v>89.5</v>
       </c>
-      <c r="BG13">
+      <c r="BX13">
         <v>98.3</v>
       </c>
-      <c r="BI13">
+      <c r="BZ13">
         <v>1.2902</v>
       </c>
-      <c r="BJ13">
+      <c r="CA13">
         <v>1.312512716174975</v>
       </c>
-      <c r="BK13">
+      <c r="CB13">
         <v>0.63119999999999998</v>
       </c>
-      <c r="BL13">
+      <c r="CC13">
         <v>0.64211597151576805</v>
       </c>
-      <c r="BM13">
+      <c r="CD13">
         <v>2.04404309252218</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="CE13" t="s">
         <v>70</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="CF13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
@@ -3206,7 +3384,7 @@
         <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>87</v>
@@ -3218,187 +3396,193 @@
         <v>2</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
         <v>50</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>139.5</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>221</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>268.5</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>300.5</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>77</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>25057.5</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>1.107</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>4.8310000000000004</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>2.6259999999999999</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>2.31</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>5.8719999999999999</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>2.0979999999999999</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>453.48500000000001</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>72</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>82</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>83</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>69.5</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>65.5</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>65</v>
       </c>
-      <c r="AC14">
+      <c r="AT14">
         <v>47</v>
       </c>
-      <c r="AD14">
+      <c r="AU14">
         <v>64</v>
       </c>
-      <c r="AE14">
+      <c r="AV14">
         <v>56.5</v>
       </c>
-      <c r="AF14">
+      <c r="AW14">
         <v>56.5</v>
       </c>
-      <c r="AG14">
+      <c r="AX14">
         <v>50</v>
       </c>
-      <c r="AH14">
+      <c r="AY14">
         <v>0.89270000000000005</v>
       </c>
-      <c r="AI14">
+      <c r="AZ14">
         <v>0.96940000000000004</v>
       </c>
-      <c r="AJ14">
+      <c r="BA14">
         <v>1.2569999999999999</v>
       </c>
-      <c r="AK14">
+      <c r="BB14">
         <v>1.2490000000000001</v>
       </c>
-      <c r="AL14">
+      <c r="BC14">
         <v>1.107</v>
       </c>
-      <c r="AM14">
+      <c r="BD14">
         <v>11.06</v>
       </c>
-      <c r="AN14">
+      <c r="BE14">
         <v>11.14</v>
       </c>
-      <c r="AO14">
+      <c r="BF14">
         <v>12.91</v>
       </c>
-      <c r="AP14">
+      <c r="BG14">
         <v>9.3059999999999992</v>
       </c>
-      <c r="AQ14">
+      <c r="BH14">
         <v>9.64</v>
       </c>
-      <c r="AR14">
+      <c r="BI14">
         <v>41.3</v>
       </c>
-      <c r="AS14">
+      <c r="BJ14">
         <v>78.5</v>
       </c>
-      <c r="AT14">
+      <c r="BK14">
         <v>82.9</v>
       </c>
-      <c r="AU14">
+      <c r="BL14">
         <v>87.2</v>
       </c>
-      <c r="AV14">
+      <c r="BM14">
         <v>91.3</v>
       </c>
-      <c r="AW14">
+      <c r="BN14">
         <v>92.3</v>
       </c>
-      <c r="AX14">
+      <c r="BO14">
         <v>71.400000000000006</v>
       </c>
-      <c r="AY14">
+      <c r="BP14">
         <v>75.599999999999994</v>
       </c>
-      <c r="AZ14">
+      <c r="BQ14">
         <v>82.1</v>
       </c>
-      <c r="BA14">
+      <c r="BR14">
         <v>85.4</v>
       </c>
-      <c r="BB14">
+      <c r="BS14">
         <v>94.5</v>
       </c>
-      <c r="BC14">
+      <c r="BT14">
         <v>75.599999999999994</v>
       </c>
-      <c r="BD14">
+      <c r="BU14">
         <v>81</v>
       </c>
-      <c r="BE14">
+      <c r="BV14">
         <v>85.7</v>
       </c>
-      <c r="BF14">
+      <c r="BW14">
         <v>90.4</v>
       </c>
-      <c r="BG14">
+      <c r="BX14">
         <v>94.5</v>
       </c>
-      <c r="BI14">
+      <c r="BZ14">
         <v>1.1374</v>
       </c>
-      <c r="BJ14">
+      <c r="CA14">
         <v>1.203597883597884</v>
       </c>
-      <c r="BK14">
+      <c r="CB14">
         <v>0.54620000000000002</v>
       </c>
-      <c r="BL14">
+      <c r="CC14">
         <v>0.57798941798941805</v>
       </c>
-      <c r="BM14">
+      <c r="CD14">
         <v>2.0823874038813619</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="CE14" t="s">
         <v>70</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="CF14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
@@ -3406,7 +3590,7 @@
         <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2">
         <v>44227</v>
@@ -3415,166 +3599,172 @@
         <v>2</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
         <v>48</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>135</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>195.5</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>237.5</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>219</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>63.5</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>20055</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>1.177</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>78</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>183</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>71.5</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>67.5</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>98.333333333333329</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>70</v>
       </c>
-      <c r="AC15">
+      <c r="AT15">
         <v>49.5</v>
       </c>
-      <c r="AD15">
+      <c r="AU15">
         <v>61.5</v>
       </c>
-      <c r="AE15">
+      <c r="AV15">
         <v>62.5</v>
       </c>
-      <c r="AF15">
+      <c r="AW15">
         <v>54</v>
       </c>
-      <c r="AG15">
+      <c r="AX15">
         <v>48</v>
       </c>
-      <c r="AH15">
+      <c r="AY15">
         <v>3.1339999999999999</v>
       </c>
-      <c r="AI15">
+      <c r="AZ15">
         <v>1.165</v>
       </c>
-      <c r="AJ15">
+      <c r="BA15">
         <v>0.97</v>
       </c>
-      <c r="AK15">
+      <c r="BB15">
         <v>1.0549999999999999</v>
       </c>
-      <c r="AL15">
+      <c r="BC15">
         <v>1.177</v>
       </c>
-      <c r="AM15">
+      <c r="BD15">
         <v>33.549999999999997</v>
       </c>
-      <c r="AN15">
+      <c r="BE15">
         <v>17.12</v>
       </c>
-      <c r="AO15">
+      <c r="BF15">
         <v>28.61</v>
       </c>
-      <c r="AP15">
+      <c r="BG15">
         <v>40.26</v>
       </c>
-      <c r="AQ15">
+      <c r="BH15">
         <v>21.59</v>
       </c>
-      <c r="AR15">
+      <c r="BI15">
         <v>40.200000000000003</v>
       </c>
-      <c r="AS15">
+      <c r="BJ15">
         <v>80</v>
       </c>
-      <c r="AT15">
+      <c r="BK15">
         <v>85.1</v>
       </c>
-      <c r="AU15">
+      <c r="BL15">
         <v>89.5</v>
       </c>
-      <c r="AV15">
+      <c r="BM15">
         <v>93.9</v>
       </c>
-      <c r="AW15">
+      <c r="BN15">
         <v>94.4</v>
       </c>
-      <c r="AX15">
+      <c r="BO15">
         <v>73.5</v>
       </c>
-      <c r="AY15">
+      <c r="BP15">
         <v>78.2</v>
       </c>
-      <c r="AZ15">
+      <c r="BQ15">
         <v>82.3</v>
       </c>
-      <c r="BA15">
+      <c r="BR15">
         <v>87.4</v>
       </c>
-      <c r="BB15">
+      <c r="BS15">
         <v>98</v>
       </c>
-      <c r="BC15">
+      <c r="BT15">
         <v>76.7</v>
       </c>
-      <c r="BD15">
+      <c r="BU15">
         <v>82.9</v>
       </c>
-      <c r="BE15">
+      <c r="BV15">
         <v>88.4</v>
       </c>
-      <c r="BF15">
+      <c r="BW15">
         <v>93.4</v>
       </c>
-      <c r="BG15">
+      <c r="BX15">
         <v>98</v>
       </c>
-      <c r="BI15">
+      <c r="BZ15">
         <v>1.5392999999999999</v>
       </c>
-      <c r="BJ15">
+      <c r="CA15">
         <v>1.570714285714286</v>
       </c>
-      <c r="BK15">
+      <c r="CB15">
         <v>0.64100000000000001</v>
       </c>
-      <c r="BL15">
+      <c r="CC15">
         <v>0.65408163265306118</v>
       </c>
-      <c r="BM15">
+      <c r="CD15">
         <v>2.4014040561622472</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="CE15" t="s">
         <v>70</v>
       </c>
-      <c r="BO15" t="s">
+      <c r="CF15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
@@ -3582,7 +3772,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E16" s="2">
         <v>44227</v>
@@ -3591,187 +3781,193 @@
         <v>2</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
         <v>43</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>85.5</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>445.5</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>483</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>517.5</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>119.5</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>42057.5</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>4.0780000000000003</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>8.0120000000000005</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>7.0179999999999998</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>10.050000000000001</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>6.5350000000000001</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>932.18499999999995</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>81</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>84</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>73.333333333333329</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>77</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>68.5</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>61.5</v>
       </c>
-      <c r="AC16">
+      <c r="AT16">
         <v>51</v>
       </c>
-      <c r="AD16">
+      <c r="AU16">
         <v>60.5</v>
       </c>
-      <c r="AE16">
+      <c r="AV16">
         <v>55</v>
       </c>
-      <c r="AF16">
+      <c r="AW16">
         <v>58</v>
       </c>
-      <c r="AG16">
+      <c r="AX16">
         <v>43</v>
       </c>
-      <c r="AH16">
+      <c r="AY16">
         <v>1.9330000000000001</v>
       </c>
-      <c r="AI16">
+      <c r="AZ16">
         <v>2.5019999999999998</v>
       </c>
-      <c r="AJ16">
+      <c r="BA16">
         <v>2.4929999999999999</v>
       </c>
-      <c r="AK16">
+      <c r="BB16">
         <v>3.1669999999999998</v>
       </c>
-      <c r="AL16">
+      <c r="BC16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="AM16">
+      <c r="BD16">
         <v>23.9</v>
       </c>
-      <c r="AN16">
+      <c r="BE16">
         <v>20.58</v>
       </c>
-      <c r="AO16">
+      <c r="BF16">
         <v>21.4</v>
       </c>
-      <c r="AP16">
+      <c r="BG16">
         <v>27.74</v>
       </c>
-      <c r="AQ16">
+      <c r="BH16">
         <v>20.34</v>
       </c>
-      <c r="AR16">
+      <c r="BI16">
         <v>42.7</v>
       </c>
-      <c r="AS16">
+      <c r="BJ16">
         <v>82.5</v>
       </c>
-      <c r="AT16">
+      <c r="BK16">
         <v>87.6</v>
       </c>
-      <c r="AU16">
+      <c r="BL16">
         <v>90.9</v>
       </c>
-      <c r="AV16">
+      <c r="BM16">
         <v>94.8</v>
       </c>
-      <c r="AW16">
+      <c r="BN16">
         <v>94.8</v>
       </c>
-      <c r="AX16">
+      <c r="BO16">
         <v>76.599999999999994</v>
       </c>
-      <c r="AY16">
+      <c r="BP16">
         <v>81.599999999999994</v>
       </c>
-      <c r="AZ16">
+      <c r="BQ16">
         <v>85.9</v>
       </c>
-      <c r="BA16">
+      <c r="BR16">
         <v>89.2</v>
       </c>
-      <c r="BB16">
+      <c r="BS16">
         <v>98.3</v>
       </c>
-      <c r="BC16">
+      <c r="BT16">
         <v>79.400000000000006</v>
       </c>
-      <c r="BD16">
+      <c r="BU16">
         <v>85.4</v>
       </c>
-      <c r="BE16">
+      <c r="BV16">
         <v>91.7</v>
       </c>
-      <c r="BF16">
+      <c r="BW16">
         <v>95</v>
       </c>
-      <c r="BG16">
+      <c r="BX16">
         <v>98.3</v>
       </c>
-      <c r="BI16">
+      <c r="BZ16">
         <v>1.7470000000000001</v>
       </c>
-      <c r="BJ16">
+      <c r="CA16">
         <v>1.7772126144455751</v>
       </c>
-      <c r="BK16">
+      <c r="CB16">
         <v>0.64119999999999999</v>
       </c>
-      <c r="BL16">
+      <c r="CC16">
         <v>0.65228891149542223</v>
       </c>
-      <c r="BM16">
+      <c r="CD16">
         <v>2.7245789145352459</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="CE16" t="s">
         <v>70</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="CF16" t="s">
         <v>74</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="CG16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
@@ -3779,7 +3975,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2">
         <v>44227</v>
@@ -3788,184 +3984,190 @@
         <v>2</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
         <v>58.5</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>186</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>248.5</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>302.5</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>485.5</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>299</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>41505</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>5.2919999999999998</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>5.0789999999999997</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>4.4169999999999998</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>5.2329999999999997</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>6.2990000000000004</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>636.57999999999902</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>70</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>204</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>300</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>78.5</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>295</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>102</v>
       </c>
-      <c r="AC17">
+      <c r="AT17">
         <v>39.5</v>
       </c>
-      <c r="AD17">
+      <c r="AU17">
         <v>55</v>
       </c>
-      <c r="AE17">
+      <c r="AV17">
         <v>76.333333333333329</v>
       </c>
-      <c r="AF17">
+      <c r="AW17">
         <v>63.333333333333343</v>
       </c>
-      <c r="AG17">
+      <c r="AX17">
         <v>58.5</v>
       </c>
-      <c r="AH17">
+      <c r="AY17">
         <v>2.5179999999999998</v>
       </c>
-      <c r="AI17">
+      <c r="AZ17">
         <v>3.536</v>
       </c>
-      <c r="AJ17">
+      <c r="BA17">
         <v>3.6419999999999999</v>
       </c>
-      <c r="AK17">
+      <c r="BB17">
         <v>2.3290000000000002</v>
       </c>
-      <c r="AL17">
+      <c r="BC17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="AM17">
+      <c r="BD17">
         <v>17.88</v>
       </c>
-      <c r="AN17">
+      <c r="BE17">
         <v>11.58</v>
       </c>
-      <c r="AO17">
+      <c r="BF17">
         <v>6.57</v>
       </c>
-      <c r="AP17">
+      <c r="BG17">
         <v>14.57</v>
       </c>
-      <c r="AQ17">
+      <c r="BH17">
         <v>37.17</v>
       </c>
-      <c r="AR17">
+      <c r="BI17">
         <v>45.1</v>
       </c>
-      <c r="AS17">
+      <c r="BJ17">
         <v>93.2</v>
       </c>
-      <c r="AT17">
+      <c r="BK17">
         <v>95.4</v>
       </c>
-      <c r="AU17">
+      <c r="BL17">
         <v>93.1</v>
       </c>
-      <c r="AV17">
+      <c r="BM17">
         <v>99.3</v>
       </c>
-      <c r="AW17">
+      <c r="BN17">
         <v>100.6</v>
       </c>
-      <c r="AX17">
+      <c r="BO17">
         <v>83</v>
       </c>
-      <c r="AY17">
+      <c r="BP17">
         <v>88.5</v>
       </c>
-      <c r="AZ17">
+      <c r="BQ17">
         <v>93.6</v>
       </c>
-      <c r="BA17">
+      <c r="BR17">
         <v>90.5</v>
       </c>
-      <c r="BB17">
+      <c r="BS17">
         <v>104.4</v>
       </c>
-      <c r="BC17">
+      <c r="BT17">
         <v>86.5</v>
       </c>
-      <c r="BD17">
+      <c r="BU17">
         <v>94.7</v>
       </c>
-      <c r="BE17">
+      <c r="BV17">
         <v>98.5</v>
       </c>
-      <c r="BF17">
+      <c r="BW17">
         <v>97.4</v>
       </c>
-      <c r="BG17">
+      <c r="BX17">
         <v>104.4</v>
       </c>
-      <c r="BI17">
+      <c r="BZ17">
         <v>1.1691</v>
       </c>
-      <c r="BJ17">
+      <c r="CA17">
         <v>1.119827586206896</v>
       </c>
-      <c r="BK17">
+      <c r="CB17">
         <v>0.60140000000000005</v>
       </c>
-      <c r="BL17">
+      <c r="CC17">
         <v>0.57605363984674329</v>
       </c>
-      <c r="BM17">
+      <c r="CD17">
         <v>1.9439640838044561</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="CE17" t="s">
         <v>70</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="CF17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
@@ -3973,7 +4175,7 @@
         <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2">
         <v>44228</v>
@@ -3984,47 +4186,50 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="W18">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>58</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>62.5</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>78.5</v>
       </c>
-      <c r="AC18">
+      <c r="AT18">
         <v>61.333333333333343</v>
       </c>
-      <c r="AD18">
+      <c r="AU18">
         <v>58</v>
       </c>
-      <c r="AR18">
+      <c r="BI18">
         <v>41.2</v>
       </c>
-      <c r="AS18">
+      <c r="BJ18">
         <v>92.4</v>
       </c>
-      <c r="AT18">
+      <c r="BK18">
         <v>95.9</v>
       </c>
-      <c r="AX18">
+      <c r="BO18">
         <v>85</v>
       </c>
-      <c r="AY18">
+      <c r="BP18">
         <v>89.4</v>
       </c>
-      <c r="BC18">
+      <c r="BT18">
         <v>89.7</v>
       </c>
-      <c r="BD18">
+      <c r="BU18">
         <v>94.2</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="CG18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
@@ -4032,7 +4237,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>88</v>
@@ -4044,181 +4249,187 @@
         <v>3</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>66</v>
       </c>
-      <c r="I19">
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
         <v>64.5</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>216.5</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>519.5</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>582</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>587</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>309</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>55007.5</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.87509999999999999</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>1.496</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>0.79830000000000001</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>1.919</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>153.90600000000001</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>73</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>459.5</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>342.66666666666669</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>352</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>505.5</v>
       </c>
-      <c r="AC19">
+      <c r="AT19">
         <v>40.75</v>
       </c>
-      <c r="AD19">
+      <c r="AU19">
         <v>43</v>
       </c>
-      <c r="AE19">
+      <c r="AV19">
         <v>44.5</v>
       </c>
-      <c r="AF19">
+      <c r="AW19">
         <v>66.5</v>
       </c>
-      <c r="AG19">
+      <c r="AX19">
         <v>64.5</v>
       </c>
-      <c r="AH19">
+      <c r="AY19">
         <v>2.2879999999999998</v>
       </c>
-      <c r="AI19">
+      <c r="AZ19">
         <v>1.5840000000000001</v>
       </c>
-      <c r="AJ19">
+      <c r="BA19">
         <v>1.982</v>
       </c>
-      <c r="AK19">
+      <c r="BB19">
         <v>1.2749999999999999</v>
       </c>
-      <c r="AL19">
+      <c r="BC19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="AM19">
+      <c r="BD19">
         <v>3.1219999999999999</v>
       </c>
-      <c r="AN19">
+      <c r="BE19">
         <v>4.12</v>
       </c>
-      <c r="AO19">
+      <c r="BF19">
         <v>3.5129999999999999</v>
       </c>
-      <c r="AP19">
+      <c r="BG19">
         <v>0.59750000000000003</v>
       </c>
-      <c r="AQ19">
+      <c r="BH19">
         <v>13.49</v>
       </c>
-      <c r="AR19">
+      <c r="BI19">
         <v>41</v>
       </c>
-      <c r="AS19">
+      <c r="BJ19">
         <v>96</v>
       </c>
-      <c r="AT19">
+      <c r="BK19">
         <v>102.2</v>
       </c>
-      <c r="AU19">
+      <c r="BL19">
         <v>107.8</v>
       </c>
-      <c r="AV19">
+      <c r="BM19">
         <v>109.7</v>
       </c>
-      <c r="AX19">
+      <c r="BO19">
         <v>88.2</v>
       </c>
-      <c r="AY19">
+      <c r="BP19">
         <v>92.4</v>
       </c>
-      <c r="AZ19">
+      <c r="BQ19">
         <v>100.7</v>
       </c>
-      <c r="BA19">
+      <c r="BR19">
         <v>102</v>
       </c>
-      <c r="BB19">
+      <c r="BS19">
         <v>110.5</v>
       </c>
-      <c r="BC19">
+      <c r="BT19">
         <v>93.1</v>
       </c>
-      <c r="BD19">
+      <c r="BU19">
         <v>98.7</v>
       </c>
-      <c r="BE19">
+      <c r="BV19">
         <v>108</v>
       </c>
-      <c r="BF19">
+      <c r="BW19">
         <v>109.5</v>
       </c>
-      <c r="BG19">
+      <c r="BX19">
         <v>110.5</v>
       </c>
-      <c r="BI19">
+      <c r="BZ19">
         <v>0.92620000000000002</v>
       </c>
-      <c r="BJ19">
+      <c r="CA19">
         <v>0.83819004524886886</v>
       </c>
-      <c r="BK19">
+      <c r="CB19">
         <v>0.62160000000000004</v>
       </c>
-      <c r="BL19">
+      <c r="CC19">
         <v>0.5625339366515838</v>
       </c>
-      <c r="BM19">
+      <c r="CD19">
         <v>1.49002574002574</v>
       </c>
-      <c r="BN19" t="s">
+      <c r="CE19" t="s">
         <v>68</v>
       </c>
-      <c r="BO19" t="s">
+      <c r="CF19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
@@ -4226,7 +4437,7 @@
         <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>89</v>
@@ -4238,178 +4449,1108 @@
         <v>3</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
         <v>65</v>
       </c>
-      <c r="I20">
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
         <v>48.5</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>216.5</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>477.5</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>343.5</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>538.5</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>276</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>46565</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>3.512</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>3.952</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>3.0049999999999999</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>2.919</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>3.2349999999999999</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>377.03</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>77</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>299.5</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>227.5</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>308</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>338.5</v>
       </c>
-      <c r="AC20">
+      <c r="AT20">
         <v>39.333333333333343</v>
       </c>
-      <c r="AD20">
+      <c r="AU20">
         <v>41</v>
       </c>
-      <c r="AE20">
+      <c r="AV20">
         <v>43.333333333333343</v>
       </c>
-      <c r="AF20">
+      <c r="AW20">
         <v>47</v>
       </c>
-      <c r="AG20">
+      <c r="AX20">
         <v>48.5</v>
       </c>
-      <c r="AH20">
+      <c r="AY20">
         <v>2.4359999999999999</v>
       </c>
-      <c r="AI20">
+      <c r="AZ20">
         <v>2.633</v>
       </c>
-      <c r="AJ20">
+      <c r="BA20">
         <v>2.8140000000000001</v>
       </c>
-      <c r="AK20">
+      <c r="BB20">
         <v>3.1589999999999998</v>
       </c>
-      <c r="AL20">
+      <c r="BC20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="AM20">
+      <c r="BD20">
         <v>8.5739999999999998</v>
       </c>
-      <c r="AN20">
+      <c r="BE20">
         <v>5.4329999999999998</v>
       </c>
-      <c r="AO20">
+      <c r="BF20">
         <v>9.1509999999999998</v>
       </c>
-      <c r="AP20">
+      <c r="BG20">
         <v>6.9089999999999998</v>
       </c>
-      <c r="AQ20">
+      <c r="BH20">
         <v>27.69</v>
       </c>
-      <c r="AR20">
+      <c r="BI20">
         <v>48</v>
       </c>
-      <c r="AS20">
+      <c r="BJ20">
         <v>104.2</v>
       </c>
-      <c r="AT20">
+      <c r="BK20">
         <v>109.6</v>
       </c>
-      <c r="AU20">
+      <c r="BL20">
         <v>116.6</v>
       </c>
-      <c r="AV20">
+      <c r="BM20">
         <v>112.9</v>
       </c>
-      <c r="AX20">
+      <c r="BO20">
         <v>95</v>
       </c>
-      <c r="AY20">
+      <c r="BP20">
         <v>99</v>
       </c>
-      <c r="AZ20">
+      <c r="BQ20">
         <v>107.9</v>
       </c>
-      <c r="BA20">
+      <c r="BR20">
         <v>111.9</v>
       </c>
-      <c r="BB20">
+      <c r="BS20">
         <v>121.3</v>
       </c>
-      <c r="BC20">
+      <c r="BT20">
         <v>98.2</v>
       </c>
-      <c r="BD20">
+      <c r="BU20">
         <v>105.5</v>
       </c>
-      <c r="BE20">
+      <c r="BV20">
         <v>114.3</v>
       </c>
-      <c r="BF20">
+      <c r="BW20">
         <v>117.6</v>
       </c>
-      <c r="BG20">
+      <c r="BX20">
         <v>121.3</v>
       </c>
-      <c r="BI20">
+      <c r="BZ20">
         <v>1.7053</v>
       </c>
-      <c r="BJ20">
+      <c r="CA20">
         <v>1.405853256389118</v>
       </c>
-      <c r="BK20">
+      <c r="CB20">
         <v>0.878</v>
       </c>
-      <c r="BL20">
+      <c r="CC20">
         <v>0.72382522671063476</v>
       </c>
-      <c r="BM20">
+      <c r="CD20">
         <v>1.942255125284738</v>
       </c>
-      <c r="BN20" t="s">
+      <c r="CE20" t="s">
         <v>68</v>
       </c>
-      <c r="BO20" t="s">
+      <c r="CF20" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1727</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <v>105</v>
+      </c>
+      <c r="L21">
+        <v>135</v>
+      </c>
+      <c r="M21">
+        <v>218</v>
+      </c>
+      <c r="N21">
+        <v>298.5</v>
+      </c>
+      <c r="O21">
+        <v>433.5</v>
+      </c>
+      <c r="P21">
+        <v>289</v>
+      </c>
+      <c r="Q21">
+        <v>38202.5</v>
+      </c>
+      <c r="AE21">
+        <v>185</v>
+      </c>
+      <c r="AF21">
+        <v>129</v>
+      </c>
+      <c r="AG21">
+        <v>122</v>
+      </c>
+      <c r="AH21">
+        <v>262</v>
+      </c>
+      <c r="AI21">
+        <v>278.5</v>
+      </c>
+      <c r="AJ21">
+        <v>229</v>
+      </c>
+      <c r="AK21">
+        <v>222</v>
+      </c>
+      <c r="AL21">
+        <v>198.5</v>
+      </c>
+      <c r="AM21">
+        <v>180</v>
+      </c>
+      <c r="AN21">
+        <v>182</v>
+      </c>
+      <c r="AO21">
+        <v>221</v>
+      </c>
+      <c r="AP21">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1728</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>120.5</v>
+      </c>
+      <c r="L22">
+        <v>221</v>
+      </c>
+      <c r="M22">
+        <v>306.5</v>
+      </c>
+      <c r="N22">
+        <v>394.5</v>
+      </c>
+      <c r="O22">
+        <v>452</v>
+      </c>
+      <c r="P22">
+        <v>322</v>
+      </c>
+      <c r="Q22">
+        <v>43767.5</v>
+      </c>
+      <c r="AE22">
+        <v>76</v>
+      </c>
+      <c r="AF22">
+        <v>212</v>
+      </c>
+      <c r="AG22">
+        <v>224</v>
+      </c>
+      <c r="AH22">
+        <v>223</v>
+      </c>
+      <c r="AI22">
+        <v>241</v>
+      </c>
+      <c r="AJ22">
+        <v>241</v>
+      </c>
+      <c r="AK22">
+        <v>215</v>
+      </c>
+      <c r="AL22">
+        <v>294</v>
+      </c>
+      <c r="AM22">
+        <v>278.5</v>
+      </c>
+      <c r="AN22">
+        <v>229.5</v>
+      </c>
+      <c r="AO22">
+        <v>276</v>
+      </c>
+      <c r="AP22">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1731</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+      <c r="K23">
+        <v>67</v>
+      </c>
+      <c r="L23">
+        <v>143.5</v>
+      </c>
+      <c r="M23">
+        <v>316</v>
+      </c>
+      <c r="N23">
+        <v>296.5</v>
+      </c>
+      <c r="O23">
+        <v>376.3</v>
+      </c>
+      <c r="P23">
+        <v>447.5</v>
+      </c>
+      <c r="Q23">
+        <v>41218.5</v>
+      </c>
+      <c r="AE23">
+        <v>94</v>
+      </c>
+      <c r="AF23">
+        <v>78</v>
+      </c>
+      <c r="AG23">
+        <v>124</v>
+      </c>
+      <c r="AH23">
+        <v>102</v>
+      </c>
+      <c r="AI23">
+        <v>88</v>
+      </c>
+      <c r="AJ23">
+        <v>80</v>
+      </c>
+      <c r="AK23">
+        <v>74</v>
+      </c>
+      <c r="AL23">
+        <v>76</v>
+      </c>
+      <c r="AM23">
+        <v>82</v>
+      </c>
+      <c r="AN23">
+        <v>78</v>
+      </c>
+      <c r="AO23">
+        <v>113</v>
+      </c>
+      <c r="AP23">
+        <v>97.5</v>
+      </c>
+      <c r="AQ23">
+        <v>67</v>
+      </c>
+      <c r="AR23">
+        <v>127</v>
+      </c>
+      <c r="AS23">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1732</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>32</v>
+      </c>
+      <c r="K24">
+        <v>96.5</v>
+      </c>
+      <c r="L24">
+        <v>147</v>
+      </c>
+      <c r="M24">
+        <v>236.5</v>
+      </c>
+      <c r="N24">
+        <v>269</v>
+      </c>
+      <c r="O24">
+        <v>399.5</v>
+      </c>
+      <c r="P24">
+        <v>339.5</v>
+      </c>
+      <c r="Q24">
+        <v>37860</v>
+      </c>
+      <c r="AI24">
+        <v>75.5</v>
+      </c>
+      <c r="AJ24">
+        <v>68</v>
+      </c>
+      <c r="AK24">
+        <v>90</v>
+      </c>
+      <c r="AL24">
+        <v>64</v>
+      </c>
+      <c r="AM24">
+        <v>79</v>
+      </c>
+      <c r="AN24">
+        <v>88</v>
+      </c>
+      <c r="AO24">
+        <v>96</v>
+      </c>
+      <c r="AP24">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1735</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>33</v>
+      </c>
+      <c r="K25">
+        <v>73</v>
+      </c>
+      <c r="L25">
+        <v>137.5</v>
+      </c>
+      <c r="M25">
+        <v>301.5</v>
+      </c>
+      <c r="N25">
+        <v>357</v>
+      </c>
+      <c r="O25">
+        <v>371</v>
+      </c>
+      <c r="P25">
+        <v>250</v>
+      </c>
+      <c r="Q25">
+        <v>36090</v>
+      </c>
+      <c r="AE25">
+        <v>69</v>
+      </c>
+      <c r="AF25">
+        <v>67</v>
+      </c>
+      <c r="AG25">
+        <v>76</v>
+      </c>
+      <c r="AH25">
+        <v>72</v>
+      </c>
+      <c r="AI25">
+        <v>96</v>
+      </c>
+      <c r="AJ25">
+        <v>63</v>
+      </c>
+      <c r="AK25">
+        <v>84</v>
+      </c>
+      <c r="AL25">
+        <v>83</v>
+      </c>
+      <c r="AM25">
+        <v>86</v>
+      </c>
+      <c r="AN25">
+        <v>81</v>
+      </c>
+      <c r="AO25">
+        <v>107</v>
+      </c>
+      <c r="AP25">
+        <v>99.5</v>
+      </c>
+      <c r="AQ25">
+        <v>176</v>
+      </c>
+      <c r="AR25">
+        <v>224.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1741</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+      <c r="K26">
+        <v>63.5</v>
+      </c>
+      <c r="L26">
+        <v>244.5</v>
+      </c>
+      <c r="M26">
+        <v>345</v>
+      </c>
+      <c r="N26">
+        <v>357.5</v>
+      </c>
+      <c r="O26">
+        <v>484.5</v>
+      </c>
+      <c r="P26">
+        <v>296</v>
+      </c>
+      <c r="Q26">
+        <v>44045</v>
+      </c>
+      <c r="AE26">
+        <v>64</v>
+      </c>
+      <c r="AF26">
+        <v>69</v>
+      </c>
+      <c r="AG26">
+        <v>79.5</v>
+      </c>
+      <c r="AH26">
+        <v>68.5</v>
+      </c>
+      <c r="AI26">
+        <v>84.5</v>
+      </c>
+      <c r="AJ26">
+        <v>78</v>
+      </c>
+      <c r="AK26">
+        <v>88</v>
+      </c>
+      <c r="AL26">
+        <v>94</v>
+      </c>
+      <c r="AM26">
+        <v>142</v>
+      </c>
+      <c r="AN26">
+        <v>155</v>
+      </c>
+      <c r="AO26">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1745</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>61</v>
+      </c>
+      <c r="AF27">
+        <v>143</v>
+      </c>
+      <c r="AG27">
+        <v>135</v>
+      </c>
+      <c r="AH27">
+        <v>99</v>
+      </c>
+      <c r="AI27">
+        <v>248</v>
+      </c>
+      <c r="AJ27">
+        <v>266</v>
+      </c>
+      <c r="AK27">
+        <v>348</v>
+      </c>
+      <c r="AL27">
+        <v>323</v>
+      </c>
+      <c r="AM27">
+        <v>329.5</v>
+      </c>
+      <c r="AN27">
+        <v>404</v>
+      </c>
+      <c r="AO27">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1746</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>34</v>
+      </c>
+      <c r="K28">
+        <v>81</v>
+      </c>
+      <c r="L28">
+        <v>135</v>
+      </c>
+      <c r="M28">
+        <v>194.5</v>
+      </c>
+      <c r="N28">
+        <v>246</v>
+      </c>
+      <c r="O28">
+        <v>296</v>
+      </c>
+      <c r="P28">
+        <v>261.5</v>
+      </c>
+      <c r="Q28">
+        <v>29785</v>
+      </c>
+      <c r="AE28">
+        <v>69</v>
+      </c>
+      <c r="AF28">
+        <v>75</v>
+      </c>
+      <c r="AG28">
+        <v>97.5</v>
+      </c>
+      <c r="AH28">
+        <v>80</v>
+      </c>
+      <c r="AI28">
+        <v>81</v>
+      </c>
+      <c r="AJ28">
+        <v>92</v>
+      </c>
+      <c r="AK28">
+        <v>81</v>
+      </c>
+      <c r="AL28">
+        <v>60</v>
+      </c>
+      <c r="AM28">
+        <v>73</v>
+      </c>
+      <c r="AN28">
+        <v>107</v>
+      </c>
+      <c r="AO28">
+        <v>84</v>
+      </c>
+      <c r="AP28">
+        <v>114</v>
+      </c>
+      <c r="AQ28">
+        <v>193</v>
+      </c>
+      <c r="AR28">
+        <v>105</v>
+      </c>
+      <c r="AS28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1748</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>33</v>
+      </c>
+      <c r="K29">
+        <v>66.5</v>
+      </c>
+      <c r="L29">
+        <v>210.5</v>
+      </c>
+      <c r="M29">
+        <v>219</v>
+      </c>
+      <c r="N29">
+        <v>465</v>
+      </c>
+      <c r="O29">
+        <v>387.5</v>
+      </c>
+      <c r="P29">
+        <v>209.5</v>
+      </c>
+      <c r="Q29">
+        <v>37650</v>
+      </c>
+      <c r="AE29">
+        <v>88</v>
+      </c>
+      <c r="AF29">
+        <v>73</v>
+      </c>
+      <c r="AG29">
+        <v>100</v>
+      </c>
+      <c r="AH29">
+        <v>82</v>
+      </c>
+      <c r="AI29">
+        <v>92</v>
+      </c>
+      <c r="AJ29">
+        <v>72</v>
+      </c>
+      <c r="AK29">
+        <v>83</v>
+      </c>
+      <c r="AL29">
+        <v>72</v>
+      </c>
+      <c r="AM29">
+        <v>59</v>
+      </c>
+      <c r="AN29">
+        <v>81</v>
+      </c>
+      <c r="AO29">
+        <v>74</v>
+      </c>
+      <c r="AP29">
+        <v>149</v>
+      </c>
+      <c r="AQ29">
+        <v>218</v>
+      </c>
+      <c r="AR29">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1755</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>75</v>
+      </c>
+      <c r="AF30">
+        <v>82</v>
+      </c>
+      <c r="AG30">
+        <v>107.5</v>
+      </c>
+      <c r="AH30">
+        <v>105</v>
+      </c>
+      <c r="AI30">
+        <v>107.5</v>
+      </c>
+      <c r="AJ30">
+        <v>121</v>
+      </c>
+      <c r="AK30">
+        <v>113.5</v>
+      </c>
+      <c r="AL30">
+        <v>88</v>
+      </c>
+      <c r="AM30">
+        <v>111</v>
+      </c>
+      <c r="AN30">
+        <v>116</v>
+      </c>
+      <c r="AO30">
+        <v>110</v>
+      </c>
+      <c r="AP30">
+        <v>116</v>
+      </c>
+      <c r="AQ30">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1742</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1743</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1754</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1788</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1789</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1798</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1809</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1810</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1811</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1812</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1857</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B22DF-B82D-4327-B55A-11FC0265FE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE32935B-DE3D-4735-86E3-EBD35C5E52FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -365,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +393,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -425,6 +450,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,11 +796,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
@@ -782,7 +813,7 @@
     <col min="17" max="17" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:85">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1039,7 +1070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
@@ -1245,7 +1276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
@@ -1445,7 +1476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
@@ -1651,7 +1682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
@@ -1800,7 +1831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
@@ -2006,7 +2037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
@@ -2206,7 +2237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
@@ -2412,7 +2443,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
@@ -2561,7 +2592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
@@ -2761,7 +2792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
@@ -2964,7 +2995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
@@ -3170,7 +3201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
@@ -3376,7 +3407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
@@ -3582,7 +3613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
@@ -3764,7 +3795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
@@ -3967,7 +3998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
@@ -4167,7 +4198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
@@ -4229,7 +4260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
@@ -4429,7 +4460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
@@ -4629,7 +4660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:85">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -4706,7 +4737,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:85">
       <c r="A22">
         <v>1728</v>
       </c>
@@ -4783,7 +4814,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:85">
       <c r="A23">
         <v>1731</v>
       </c>
@@ -4869,7 +4900,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:85">
       <c r="A24">
         <v>1732</v>
       </c>
@@ -4934,7 +4965,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:85">
       <c r="A25">
         <v>1735</v>
       </c>
@@ -5017,7 +5048,7 @@
         <v>224.5</v>
       </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:85">
       <c r="A26">
         <v>1741</v>
       </c>
@@ -5091,7 +5122,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:85">
       <c r="A27">
         <v>1745</v>
       </c>
@@ -5141,7 +5172,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:85">
       <c r="A28">
         <v>1746</v>
       </c>
@@ -5227,7 +5258,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:85">
       <c r="A29">
         <v>1748</v>
       </c>
@@ -5310,7 +5341,7 @@
         <v>246.5</v>
       </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:85">
       <c r="A30">
         <v>1755</v>
       </c>
@@ -5366,7 +5397,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:85">
       <c r="A31">
         <v>1742</v>
       </c>
@@ -5382,8 +5413,69 @@
       <c r="H31" t="b">
         <v>1</v>
       </c>
+      <c r="J31" s="4">
+        <v>36</v>
+      </c>
+      <c r="K31" s="4">
+        <v>77</v>
+      </c>
+      <c r="L31" s="4">
+        <v>113</v>
+      </c>
+      <c r="M31" s="4">
+        <v>159.5</v>
+      </c>
+      <c r="N31" s="4">
+        <v>235</v>
+      </c>
+      <c r="O31" s="4">
+        <v>289.5</v>
+      </c>
+      <c r="P31" s="4">
+        <v>163.5</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>25742.5</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>66</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>102</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>89</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>82</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>83</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>61</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>89</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>86</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>71</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>91</v>
+      </c>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:85">
       <c r="A32">
         <v>1743</v>
       </c>
@@ -5399,8 +5491,67 @@
       <c r="H32" t="b">
         <v>1</v>
       </c>
+      <c r="J32">
+        <v>35</v>
+      </c>
+      <c r="K32" s="4">
+        <f>AVERAGE(82,69)</f>
+        <v>75.5</v>
+      </c>
+      <c r="L32" s="4">
+        <f>AVERAGE(143,162)</f>
+        <v>152.5</v>
+      </c>
+      <c r="M32" s="4">
+        <f>AVERAGE(199,208)</f>
+        <v>203.5</v>
+      </c>
+      <c r="N32" s="4">
+        <f>AVERAGE(297,299)</f>
+        <v>298</v>
+      </c>
+      <c r="O32" s="4">
+        <f>AVERAGE(438,460)</f>
+        <v>449</v>
+      </c>
+      <c r="P32" s="4">
+        <f>AVERAGE(189,188)</f>
+        <v>188.5</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>35757.5</v>
+      </c>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4">
+        <v>107</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>86</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>76</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>111</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>84</v>
+      </c>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" ht="15.5">
       <c r="A33">
         <v>1754</v>
       </c>
@@ -5416,8 +5567,78 @@
       <c r="H33" t="b">
         <v>1</v>
       </c>
+      <c r="J33">
+        <v>35</v>
+      </c>
+      <c r="K33" s="4">
+        <f>AVERAGE(65,79)</f>
+        <v>72</v>
+      </c>
+      <c r="L33" s="4">
+        <f>AVERAGE(167,165)</f>
+        <v>166</v>
+      </c>
+      <c r="M33" s="4">
+        <f>AVERAGE(201,198)</f>
+        <v>199.5</v>
+      </c>
+      <c r="N33" s="4">
+        <f>AVERAGE(273,304)</f>
+        <v>288.5</v>
+      </c>
+      <c r="O33" s="4">
+        <f>AVERAGE(317,337)</f>
+        <v>327</v>
+      </c>
+      <c r="P33" s="4">
+        <f>AVERAGE(232)</f>
+        <v>232</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>31460</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>77</v>
+      </c>
+      <c r="AF33" s="5">
+        <f>(95+98)/2</f>
+        <v>96.5</v>
+      </c>
+      <c r="AG33" s="5">
+        <f>(114+117)/2</f>
+        <v>115.5</v>
+      </c>
+      <c r="AH33" s="5">
+        <f>(107+110)/2</f>
+        <v>108.5</v>
+      </c>
+      <c r="AI33" s="5">
+        <f>(99+107)/2</f>
+        <v>103</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f>(108+111)/2</f>
+        <v>109.5</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>87</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>87</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>93</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>106</v>
+      </c>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45">
       <c r="A34">
         <v>1788</v>
       </c>
@@ -5434,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45">
       <c r="A35">
         <v>1789</v>
       </c>
@@ -5451,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45">
       <c r="A36">
         <v>1798</v>
       </c>
@@ -5468,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:45">
       <c r="A37">
         <v>1809</v>
       </c>
@@ -5485,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:45">
       <c r="A38">
         <v>1810</v>
       </c>
@@ -5502,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:45">
       <c r="A39">
         <v>1811</v>
       </c>
@@ -5519,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:45">
       <c r="A40">
         <v>1812</v>
       </c>
@@ -5536,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:45">
       <c r="A41">
         <v>1857</v>
       </c>
@@ -5555,5 +5776,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE32935B-DE3D-4735-86E3-EBD35C5E52FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE412FB3-A55D-4D17-A686-3E737038D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>Date of birth</t>
   </si>
@@ -369,6 +369,36 @@
   </si>
   <si>
     <t>30wk</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -442,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -451,7 +481,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -794,11 +823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG41"/>
+  <dimension ref="A1:CG33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O66" sqref="O66"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4670,6 +4699,9 @@
       <c r="C21" t="s">
         <v>111</v>
       </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
@@ -4747,6 +4779,9 @@
       <c r="C22" t="s">
         <v>111</v>
       </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
@@ -4824,6 +4859,9 @@
       <c r="C23" t="s">
         <v>111</v>
       </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
@@ -4910,6 +4948,9 @@
       <c r="C24" t="s">
         <v>111</v>
       </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
@@ -4975,6 +5016,9 @@
       <c r="C25" t="s">
         <v>111</v>
       </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
@@ -5058,6 +5102,9 @@
       <c r="C26" t="s">
         <v>111</v>
       </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
@@ -5133,7 +5180,7 @@
         <v>111</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -5182,6 +5229,9 @@
       <c r="C28" t="s">
         <v>111</v>
       </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
@@ -5268,6 +5318,9 @@
       <c r="C29" t="s">
         <v>111</v>
       </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
@@ -5352,7 +5405,7 @@
         <v>111</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -5407,73 +5460,72 @@
       <c r="C31" t="s">
         <v>111</v>
       </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>36</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31">
         <v>77</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31">
         <v>113</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31">
         <v>159.5</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31">
         <v>235</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31">
         <v>289.5</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31">
         <v>163.5</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>25742.5</v>
       </c>
-      <c r="AE31" s="4">
+      <c r="AE31">
         <v>66</v>
       </c>
-      <c r="AF31" s="4">
+      <c r="AF31">
         <v>102</v>
       </c>
-      <c r="AG31" s="4">
+      <c r="AG31">
         <v>89</v>
       </c>
-      <c r="AH31" s="4">
+      <c r="AH31">
         <v>88.5</v>
       </c>
-      <c r="AI31" s="4">
+      <c r="AI31">
         <v>82</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AJ31">
         <v>83</v>
       </c>
-      <c r="AK31" s="4">
+      <c r="AK31">
         <v>61</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AL31">
         <v>89</v>
       </c>
-      <c r="AM31" s="4">
+      <c r="AM31">
         <v>86</v>
       </c>
-      <c r="AN31" s="4">
+      <c r="AN31">
         <v>71</v>
       </c>
-      <c r="AO31" s="4">
+      <c r="AO31">
         <v>91</v>
       </c>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
     </row>
     <row r="32" spans="1:85">
       <c r="A32">
@@ -5485,6 +5537,9 @@
       <c r="C32" t="s">
         <v>111</v>
       </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
@@ -5494,64 +5549,56 @@
       <c r="J32">
         <v>35</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32">
         <f>AVERAGE(82,69)</f>
         <v>75.5</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32">
         <f>AVERAGE(143,162)</f>
         <v>152.5</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32">
         <f>AVERAGE(199,208)</f>
         <v>203.5</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32">
         <f>AVERAGE(297,299)</f>
         <v>298</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32">
         <f>AVERAGE(438,460)</f>
         <v>449</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32">
         <f>AVERAGE(189,188)</f>
         <v>188.5</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>35757.5</v>
       </c>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4">
+      <c r="AI32">
         <v>107</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AJ32">
         <v>90</v>
       </c>
-      <c r="AK32" s="4">
+      <c r="AK32">
         <v>96.5</v>
       </c>
-      <c r="AL32" s="4">
+      <c r="AL32">
         <v>86</v>
       </c>
-      <c r="AM32" s="4">
+      <c r="AM32">
         <v>76</v>
       </c>
-      <c r="AN32" s="4">
+      <c r="AN32">
         <v>111</v>
       </c>
-      <c r="AO32" s="4">
+      <c r="AO32">
         <v>84</v>
       </c>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="4"/>
     </row>
-    <row r="33" spans="1:45" ht="15.5">
+    <row r="33" spans="1:40" ht="15.5">
       <c r="A33">
         <v>1754</v>
       </c>
@@ -5561,6 +5608,9 @@
       <c r="C33" t="s">
         <v>111</v>
       </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
@@ -5570,208 +5620,67 @@
       <c r="J33">
         <v>35</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33">
         <f>AVERAGE(65,79)</f>
         <v>72</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33">
         <f>AVERAGE(167,165)</f>
         <v>166</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33">
         <f>AVERAGE(201,198)</f>
         <v>199.5</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33">
         <f>AVERAGE(273,304)</f>
         <v>288.5</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33">
         <f>AVERAGE(317,337)</f>
         <v>327</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33">
         <f>AVERAGE(232)</f>
         <v>232</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>31460</v>
       </c>
-      <c r="AE33" s="5">
+      <c r="AE33" s="4">
         <v>77</v>
       </c>
-      <c r="AF33" s="5">
+      <c r="AF33" s="4">
         <f>(95+98)/2</f>
         <v>96.5</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AG33" s="4">
         <f>(114+117)/2</f>
         <v>115.5</v>
       </c>
-      <c r="AH33" s="5">
+      <c r="AH33" s="4">
         <f>(107+110)/2</f>
         <v>108.5</v>
       </c>
-      <c r="AI33" s="5">
+      <c r="AI33" s="4">
         <f>(99+107)/2</f>
         <v>103</v>
       </c>
-      <c r="AJ33" s="5">
+      <c r="AJ33" s="4">
         <f>(108+111)/2</f>
         <v>109.5</v>
       </c>
-      <c r="AK33" s="5">
+      <c r="AK33" s="4">
         <v>87</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AL33" s="4">
         <v>87</v>
       </c>
-      <c r="AM33" s="5">
+      <c r="AM33" s="4">
         <v>93</v>
       </c>
-      <c r="AN33" s="5">
+      <c r="AN33" s="4">
         <v>106</v>
-      </c>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
-    </row>
-    <row r="34" spans="1:45">
-      <c r="A34">
-        <v>1788</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45">
-      <c r="A35">
-        <v>1789</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45">
-      <c r="A36">
-        <v>1798</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45">
-      <c r="A37">
-        <v>1809</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45">
-      <c r="A38">
-        <v>1810</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45">
-      <c r="A39">
-        <v>1811</v>
-      </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45">
-      <c r="A40">
-        <v>1812</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45">
-      <c r="A41">
-        <v>1857</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE412FB3-A55D-4D17-A686-3E737038D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BE756-5127-4754-BA7C-6A2F71CCA3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
   <si>
     <t>Date of birth</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>original</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG33"/>
+  <dimension ref="A1:CH33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -834,15 +837,16 @@
   <cols>
     <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" customWidth="1"/>
-    <col min="14" max="15" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" customWidth="1"/>
+    <col min="15" max="16" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85">
+    <row r="1" spans="1:86">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -862,244 +866,247 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:85">
+    <row r="2" spans="1:86">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
@@ -1119,193 +1126,196 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>65</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>58.5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>178</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>314.5</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>551</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>589</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>200</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>48742.5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2.1539999999999999</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2.5369999999999999</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2.2069999999999999</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3.3959999999999999</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5.5759999999999996</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>422.93999999999897</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>71.000000099999994</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>225</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>83</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>206</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>221</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>193</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>41</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>48</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>52.5</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>50</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>58.5</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>2.8740000000000001</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>1.6679999999999999</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>0.96350000000000002</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>1.4139999999999999</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>11.42</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>12.25</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>13.18</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>11.28</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>32.33</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>53.7</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>92.6</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <v>98.1</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>100.9</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>104.4</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <v>104.6</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>85.4</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>90.9</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>94.9</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>99.5</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>105.1</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>90.2</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>96</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>101.3</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>104.5</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>105.1</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <v>2.0448</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>1.94557564224548</v>
       </c>
-      <c r="CB2">
+      <c r="CC2">
         <v>0.71850000000000003</v>
       </c>
-      <c r="CC2">
+      <c r="CD2">
         <v>0.68363463368220745</v>
       </c>
-      <c r="CD2">
+      <c r="CE2">
         <v>2.8459290187891439</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>68</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:85">
+    <row r="3" spans="1:86">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
@@ -1322,190 +1332,193 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>48</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>196.5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>344.5</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>449.5</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>518</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>284.5</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>46485</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2.407</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.7829999999999999</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1.425</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2.1549999999999998</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2.6480000000000001</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>262.25</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>73</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>265</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>289.5</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>326</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>309</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>370.5</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>43</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>44</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>40</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>34</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>48</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>1.92</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>3.101</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>1.89</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>1.681</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>16.899999999999999</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>13.42</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>9.6669999999999998</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>6.6989999999999998</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>48.37</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>52.1</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>88.9</v>
       </c>
-      <c r="BK3">
+      <c r="BL3">
         <v>93.4</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>98.2</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <v>98.8</v>
       </c>
-      <c r="BN3">
+      <c r="BO3">
         <v>100.4</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>82.5</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>86.7</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>92.5</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>94.3</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>101.7</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>85.9</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>90.7</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>97</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>98.1</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>101.7</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>1.7807999999999999</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>1.751032448377581</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>0.60589999999999999</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>0.59577187807276299</v>
       </c>
-      <c r="CD3">
+      <c r="CE3">
         <v>2.9390988611982181</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CF3" t="s">
         <v>68</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CG3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
+    <row r="4" spans="1:86">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
@@ -1525,193 +1538,196 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>56.5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>219</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>334</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>462</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>511</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>189</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>43717.5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2.5910000000000002</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3.4980000000000002</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2.8780000000000001</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3.0760000000000001</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5.2809999999999997</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>432.02</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>78</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>256.5</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>250.5</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>139.5</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>248.5</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>90.333333333333329</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>52.333333333333343</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>48</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>40</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>38.5</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>56.5</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>4.1539999999999999</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>2.879</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>1.9770000000000001</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>2.734</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>10.37</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>12.76</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>11.56</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>9.4499999999999993</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>38.47</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <v>51.3</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>93.5</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <v>99.3</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>103</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <v>107</v>
       </c>
-      <c r="BN4">
+      <c r="BO4">
         <v>106.9</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>86.7</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>91.9</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>96.8</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>102.1</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>109.1</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>91.2</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>96.1</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>101.3</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>106.7</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>109.1</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>2.5185</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>2.308432630614115</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>0.74390000000000001</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>0.68185151237396879</v>
       </c>
-      <c r="CD4">
+      <c r="CE4">
         <v>3.3855356902809519</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CF4" t="s">
         <v>68</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CG4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:85">
+    <row r="5" spans="1:86">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
@@ -1733,134 +1749,137 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>73</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>63</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>46.5</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>78</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>63</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>41</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>50</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>64.5</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>63.5</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>42</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>2.3039999999999998</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.99519999999999997</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>1.381</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>43.94</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>10.64</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>39.24</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>51.56</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5">
         <v>49.6</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <v>91.9</v>
       </c>
-      <c r="BK5">
+      <c r="BL5">
         <v>98.3</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>102.8</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <v>105</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>85.2</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>92.5</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>97.1</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>101</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>109.2</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>89</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>96.7</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>102.3</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>105.7</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>109.2</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>2.5485000000000002</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>2.3337912087912089</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>0.86140000000000005</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>0.78882783882783891</v>
       </c>
-      <c r="CD5">
+      <c r="CE5">
         <v>2.9585558393313209</v>
       </c>
-      <c r="CF5" t="s">
+      <c r="CG5" t="s">
         <v>71</v>
       </c>
-      <c r="CG5" t="s">
+      <c r="CH5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:85">
+    <row r="6" spans="1:86">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
@@ -1880,193 +1899,196 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>38.5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>160</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>308</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>368</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>445.5</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>99</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>35250</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.81</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.81</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>4.8310000000000004</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3.99</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4.88</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>626.66</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>70</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>232.5</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>203.5</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>205.5</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>225.5</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>139.5</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>171.33333333333329</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>51.5</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>55</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>46</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>38.5</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>7.3869999999999996</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>2.7650000000000001</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>1.3919999999999999</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>2.5710000000000002</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>1.81</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>8.1869999999999994</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>14.11</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>13.63</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>14.34</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>25.71</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <v>55.8</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <v>95.7</v>
       </c>
-      <c r="BK6">
+      <c r="BL6">
         <v>102.3</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <v>106.3</v>
       </c>
-      <c r="BM6">
+      <c r="BN6">
         <v>108.3</v>
       </c>
-      <c r="BN6">
+      <c r="BO6">
         <v>108.6</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <v>93.2</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>95.6</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>100.5</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>103.4</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <v>110.4</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <v>96.7</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <v>98.7</v>
       </c>
-      <c r="BV6">
+      <c r="BW6">
         <v>106.2</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>110.1</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>110.4</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>2.5059999999999998</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>2.2699275362318838</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>0.71640000000000004</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>0.64891304347826084</v>
       </c>
-      <c r="CD6">
+      <c r="CE6">
         <v>3.4980457844779451</v>
       </c>
-      <c r="CE6" t="s">
+      <c r="CF6" t="s">
         <v>68</v>
       </c>
-      <c r="CF6" t="s">
+      <c r="CG6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:85">
+    <row r="7" spans="1:86">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
@@ -2083,190 +2105,193 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>169</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>355</v>
-      </c>
-      <c r="M7">
-        <v>600</v>
       </c>
       <c r="N7">
         <v>600</v>
       </c>
       <c r="O7">
+        <v>600</v>
+      </c>
+      <c r="P7">
         <v>569.5</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>392</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>59782.5</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.3879999999999999</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.617</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1.71</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.99080000000000001</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1.123</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>151.756</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>69</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>383</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>389</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>367</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>514</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>509</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>77.25</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>105</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>67.5</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>61.5</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>169</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>2.0390000000000001</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>1.476</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>1.0629999999999999</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>1.603</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>2.7080000000000002</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>2.2970000000000002</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>3.3730000000000002</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>3.0859999999999999</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>11.62</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <v>56.3</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>91.7</v>
       </c>
-      <c r="BK7">
+      <c r="BL7">
         <v>95.3</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <v>98.5</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <v>103.2</v>
       </c>
-      <c r="BN7">
+      <c r="BO7">
         <v>101.8</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <v>86.7</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>89.4</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>93</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>96.7</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <v>105.5</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <v>90.9</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <v>93.2</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
         <v>96.8</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>102.3</v>
       </c>
-      <c r="BX7">
+      <c r="BY7">
         <v>105.5</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>1.3107</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>1.2423696682464449</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>0.56018957345971565</v>
       </c>
-      <c r="CD7">
+      <c r="CE7">
         <v>2.2177664974619291</v>
       </c>
-      <c r="CE7" t="s">
+      <c r="CF7" t="s">
         <v>69</v>
       </c>
-      <c r="CF7" t="s">
+      <c r="CG7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:85">
+    <row r="8" spans="1:86">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
@@ -2286,193 +2311,196 @@
         <v>0</v>
       </c>
       <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>66</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>138</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>352.5</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>513.5</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>585</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>600</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>406.5</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>60245</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.827</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2.0169999999999999</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.2969999999999999</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.5429999999999999</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2.0760000000000001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2.2149999999999999</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>238.005</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>96</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>387.66666666666669</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>281</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>349</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>391.5</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>435.5</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>174.33333333333329</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>78.5</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>71</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>50.5</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>138</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>5.1829999999999998</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>2.09</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>1.2</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>1.8240000000000001</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>2.827</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>2.8450000000000002</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>3.6970000000000001</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>3.637</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>2.9369999999999998</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <v>16.37</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <v>60.7</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <v>95.4</v>
       </c>
-      <c r="BK8">
+      <c r="BL8">
         <v>99.1</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>106.3</v>
       </c>
-      <c r="BM8">
+      <c r="BN8">
         <v>112.6</v>
       </c>
-      <c r="BN8">
+      <c r="BO8">
         <v>110.7</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <v>93.1</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>94.9</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>99.5</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>105.5</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>112.1</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>95.2</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <v>100.7</v>
       </c>
-      <c r="BV8">
+      <c r="BW8">
         <v>103.2</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>110.3</v>
       </c>
-      <c r="BX8">
+      <c r="BY8">
         <v>112.1</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>1.4332</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>1.27850133809099</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>0.62087421944692234</v>
       </c>
-      <c r="CD8">
+      <c r="CE8">
         <v>2.059195402298851</v>
       </c>
-      <c r="CE8" t="s">
+      <c r="CF8" t="s">
         <v>69</v>
       </c>
-      <c r="CF8" t="s">
+      <c r="CG8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:85">
+    <row r="9" spans="1:86">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
@@ -2494,134 +2522,137 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>57</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>117.3333333333333</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>73.5</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>45</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>61</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>50.25</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>56.5</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>41.5</v>
-      </c>
-      <c r="AW9">
-        <v>52</v>
       </c>
       <c r="AX9">
         <v>52</v>
       </c>
       <c r="AY9">
+        <v>52</v>
+      </c>
+      <c r="AZ9">
         <v>2.1320000000000001</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>1.875</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>1.29</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>1.9339999999999999</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>10.52</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>12.96</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>4.5529999999999999</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>16.79</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <v>48.7</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <v>94.9</v>
       </c>
-      <c r="BK9">
+      <c r="BL9">
         <v>102</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>106</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <v>109.8</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <v>87.3</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>93.7</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>100.9</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <v>104.7</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <v>112.1</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>91.4</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <v>101</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>107.4</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>109.9</v>
       </c>
-      <c r="BX9">
+      <c r="BY9">
         <v>112.1</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>1.9369000000000001</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>1.7278322925958971</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>0.77539999999999998</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>0.6917038358608385</v>
       </c>
-      <c r="CD9">
+      <c r="CE9">
         <v>2.4979365488779992</v>
       </c>
-      <c r="CF9" t="s">
+      <c r="CG9" t="s">
         <v>71</v>
       </c>
-      <c r="CG9" t="s">
+      <c r="CH9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:85">
+    <row r="10" spans="1:86">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
@@ -2638,190 +2669,193 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>12</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>171</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>345</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>547</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>600</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>563</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>428.5</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>59965</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1.54</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.59</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2.976</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1.2490000000000001</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1.5609999999999999</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>204.07</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>79</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>297.33333333333331</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>326.5</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>321.5</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>384.5</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>600</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>57</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>66.75</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>73.5</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>63.5</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>171</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>4.5339999999999998</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>8.9130000000000003</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>2.2389999999999999</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>1.7250000000000001</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>3.96</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>6.798</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
         <v>5.1260000000000003</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>3.0009999999999999</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <v>14.42</v>
       </c>
-      <c r="BI10">
+      <c r="BJ10">
         <v>56.2</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10">
         <v>97.7</v>
       </c>
-      <c r="BK10">
+      <c r="BL10">
         <v>104</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <v>106.5</v>
       </c>
-      <c r="BM10">
+      <c r="BN10">
         <v>109.3</v>
       </c>
-      <c r="BN10">
+      <c r="BO10">
         <v>109.2</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <v>90.6</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>95.1</v>
       </c>
-      <c r="BQ10">
+      <c r="BR10">
         <v>99.6</v>
       </c>
-      <c r="BR10">
+      <c r="BS10">
         <v>102.9</v>
       </c>
-      <c r="BS10">
+      <c r="BT10">
         <v>113.2</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <v>95.8</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <v>100.1</v>
       </c>
-      <c r="BV10">
+      <c r="BW10">
         <v>106.1</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>108.3</v>
       </c>
-      <c r="BX10">
+      <c r="BY10">
         <v>113.2</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>1.3511</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>1.193551236749117</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>0.62829999999999997</v>
       </c>
-      <c r="CC10">
+      <c r="CD10">
         <v>0.55503533568904595</v>
       </c>
-      <c r="CD10">
+      <c r="CE10">
         <v>2.150405857074646</v>
       </c>
-      <c r="CE10" t="s">
+      <c r="CF10" t="s">
         <v>69</v>
       </c>
-      <c r="CF10" t="s">
+      <c r="CG10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:85">
+    <row r="11" spans="1:86">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
@@ -2841,190 +2875,193 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>62</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>258</v>
-      </c>
-      <c r="M11">
-        <v>600</v>
       </c>
       <c r="N11">
         <v>600</v>
       </c>
       <c r="O11">
+        <v>600</v>
+      </c>
+      <c r="P11">
         <v>571.5</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>328.5</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>56462.5</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.4430000000000001</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2.0219999999999998</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1.3979999999999999</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1.347</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2.3010000000000002</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>198.65</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>90</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>272</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>339.5</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>330.5</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>413</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>537.5</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>59</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>53.333333333333343</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>50</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>73.5</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>62</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>2.3239999999999998</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>1.119</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>1.389</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>4.5880000000000001</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>2.9710000000000001</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>3.4649999999999999</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>2.145</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>13.01</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>54.1</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <v>95.9</v>
       </c>
-      <c r="BK11">
+      <c r="BL11">
         <v>102</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>105.8</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <v>106.5</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <v>105.5</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>89.6</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>93.8</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>98.4</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>99.9</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <v>108.8</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>94.5</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>99.7</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>103.9</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>107.4</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>108.8</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>0.89039999999999997</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>0.81838235294117645</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>0.65149999999999997</v>
       </c>
-      <c r="CC11">
+      <c r="CD11">
         <v>0.59880514705882348</v>
       </c>
-      <c r="CD11">
+      <c r="CE11">
         <v>1.3666922486569451</v>
       </c>
-      <c r="CE11" t="s">
+      <c r="CF11" t="s">
         <v>69</v>
       </c>
-      <c r="CF11" t="s">
+      <c r="CG11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:85">
+    <row r="12" spans="1:86">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
@@ -3044,193 +3081,196 @@
         <v>2</v>
       </c>
       <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>67</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>12</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>72</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>172.5</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>201.5</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>208</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>195</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>67.5</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>19060</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.29</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>5.008</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>6.9690000000000003</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>5.8609999999999998</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>8.5090000000000003</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.90500000000000003</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>653.495</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>84</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>108.5</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>86</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>71.5</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>78</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>68</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>53.333333333333343</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>63</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>48.5</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>63</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>72</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>0.95289999999999997</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>1.758</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>1.165</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>2.617</v>
       </c>
-      <c r="BC12">
+      <c r="BD12">
         <v>1.29</v>
       </c>
-      <c r="BD12">
+      <c r="BE12">
         <v>13.61</v>
       </c>
-      <c r="BE12">
+      <c r="BF12">
         <v>22.8</v>
       </c>
-      <c r="BF12">
+      <c r="BG12">
         <v>21.67</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
         <v>17.55</v>
       </c>
-      <c r="BH12">
+      <c r="BI12">
         <v>8.2899999999999991</v>
       </c>
-      <c r="BI12">
+      <c r="BJ12">
         <v>41.1</v>
       </c>
-      <c r="BJ12">
+      <c r="BK12">
         <v>78.5</v>
       </c>
-      <c r="BK12">
+      <c r="BL12">
         <v>83.1</v>
       </c>
-      <c r="BL12">
+      <c r="BM12">
         <v>87.3</v>
       </c>
-      <c r="BM12">
+      <c r="BN12">
         <v>89.5</v>
       </c>
-      <c r="BN12">
+      <c r="BO12">
         <v>89.6</v>
       </c>
-      <c r="BO12">
+      <c r="BP12">
         <v>70.900000000000006</v>
       </c>
-      <c r="BP12">
+      <c r="BQ12">
         <v>75.8</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>81.8</v>
       </c>
-      <c r="BR12">
+      <c r="BS12">
         <v>83.8</v>
       </c>
-      <c r="BS12">
+      <c r="BT12">
         <v>92.4</v>
       </c>
-      <c r="BT12">
+      <c r="BU12">
         <v>76.099999999999994</v>
       </c>
-      <c r="BU12">
+      <c r="BV12">
         <v>81.2</v>
       </c>
-      <c r="BV12">
+      <c r="BW12">
         <v>86.2</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>89</v>
       </c>
-      <c r="BX12">
+      <c r="BY12">
         <v>92.4</v>
       </c>
-      <c r="BZ12">
+      <c r="CA12">
         <v>1.4930000000000001</v>
       </c>
-      <c r="CA12">
+      <c r="CB12">
         <v>1.615800865800866</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>0.53539999999999999</v>
       </c>
-      <c r="CC12">
+      <c r="CD12">
         <v>0.57943722943722942</v>
       </c>
-      <c r="CD12">
+      <c r="CE12">
         <v>2.7885692939858049</v>
       </c>
-      <c r="CE12" t="s">
+      <c r="CF12" t="s">
         <v>70</v>
       </c>
-      <c r="CF12" t="s">
+      <c r="CG12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:85">
+    <row r="13" spans="1:86">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
@@ -3250,193 +3290,196 @@
         <v>2</v>
       </c>
       <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>65</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>59.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>206</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>303.5</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>392</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>401</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>91.5</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>34022.5</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3.29</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>5.4809999999999999</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>6.5640000000000001</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>6.9340000000000002</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>17.88</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>7.8789999999999996</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1316.55</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>75</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>76</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>70.5</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>59</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>58</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>44</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>46</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>63.5</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>51.5</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>60</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>59.5</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>0.47449999999999998</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>1.18</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>1.0549999999999999</v>
       </c>
-      <c r="BB13">
+      <c r="BC13">
         <v>2.1230000000000002</v>
       </c>
-      <c r="BC13">
+      <c r="BD13">
         <v>3.29</v>
       </c>
-      <c r="BD13">
+      <c r="BE13">
         <v>8.5370000000000008</v>
       </c>
-      <c r="BE13">
+      <c r="BF13">
         <v>16.690000000000001</v>
       </c>
-      <c r="BF13">
+      <c r="BG13">
         <v>19.329999999999998</v>
       </c>
-      <c r="BG13">
+      <c r="BH13">
         <v>15.15</v>
       </c>
-      <c r="BH13">
+      <c r="BI13">
         <v>30.05</v>
       </c>
-      <c r="BI13">
+      <c r="BJ13">
         <v>39.4</v>
       </c>
-      <c r="BJ13">
+      <c r="BK13">
         <v>77.7</v>
       </c>
-      <c r="BK13">
+      <c r="BL13">
         <v>84.2</v>
       </c>
-      <c r="BL13">
+      <c r="BM13">
         <v>87.6</v>
       </c>
-      <c r="BM13">
+      <c r="BN13">
         <v>91</v>
       </c>
-      <c r="BN13">
+      <c r="BO13">
         <v>97.5</v>
       </c>
-      <c r="BO13">
+      <c r="BP13">
         <v>69.7</v>
       </c>
-      <c r="BP13">
+      <c r="BQ13">
         <v>75.099999999999994</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>84.2</v>
       </c>
-      <c r="BR13">
+      <c r="BS13">
         <v>84.5</v>
       </c>
-      <c r="BS13">
+      <c r="BT13">
         <v>98.3</v>
       </c>
-      <c r="BT13">
+      <c r="BU13">
         <v>73.2</v>
       </c>
-      <c r="BU13">
+      <c r="BV13">
         <v>80.2</v>
       </c>
-      <c r="BV13">
+      <c r="BW13">
         <v>88.5</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>89.5</v>
       </c>
-      <c r="BX13">
+      <c r="BY13">
         <v>98.3</v>
       </c>
-      <c r="BZ13">
+      <c r="CA13">
         <v>1.2902</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>1.312512716174975</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>0.63119999999999998</v>
       </c>
-      <c r="CC13">
+      <c r="CD13">
         <v>0.64211597151576805</v>
       </c>
-      <c r="CD13">
+      <c r="CE13">
         <v>2.04404309252218</v>
       </c>
-      <c r="CE13" t="s">
+      <c r="CF13" t="s">
         <v>70</v>
       </c>
-      <c r="CF13" t="s">
+      <c r="CG13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:85">
+    <row r="14" spans="1:86">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
@@ -3456,193 +3499,196 @@
         <v>2</v>
       </c>
       <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>67</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>12</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>139.5</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>221</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>268.5</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>300.5</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>77</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>25057.5</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.107</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>4.8310000000000004</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2.6259999999999999</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2.31</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>5.8719999999999999</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2.0979999999999999</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>453.48500000000001</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>72</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>82</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>83</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>69.5</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>65.5</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>65</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>47</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>64</v>
-      </c>
-      <c r="AV14">
-        <v>56.5</v>
       </c>
       <c r="AW14">
         <v>56.5</v>
       </c>
       <c r="AX14">
+        <v>56.5</v>
+      </c>
+      <c r="AY14">
         <v>50</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>0.89270000000000005</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>0.96940000000000004</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>1.2569999999999999</v>
       </c>
-      <c r="BB14">
+      <c r="BC14">
         <v>1.2490000000000001</v>
       </c>
-      <c r="BC14">
+      <c r="BD14">
         <v>1.107</v>
       </c>
-      <c r="BD14">
+      <c r="BE14">
         <v>11.06</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>11.14</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <v>12.91</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <v>9.3059999999999992</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>9.64</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14">
         <v>41.3</v>
       </c>
-      <c r="BJ14">
+      <c r="BK14">
         <v>78.5</v>
       </c>
-      <c r="BK14">
+      <c r="BL14">
         <v>82.9</v>
       </c>
-      <c r="BL14">
+      <c r="BM14">
         <v>87.2</v>
       </c>
-      <c r="BM14">
+      <c r="BN14">
         <v>91.3</v>
       </c>
-      <c r="BN14">
+      <c r="BO14">
         <v>92.3</v>
       </c>
-      <c r="BO14">
+      <c r="BP14">
         <v>71.400000000000006</v>
       </c>
-      <c r="BP14">
+      <c r="BQ14">
         <v>75.599999999999994</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>82.1</v>
       </c>
-      <c r="BR14">
+      <c r="BS14">
         <v>85.4</v>
       </c>
-      <c r="BS14">
+      <c r="BT14">
         <v>94.5</v>
       </c>
-      <c r="BT14">
+      <c r="BU14">
         <v>75.599999999999994</v>
       </c>
-      <c r="BU14">
+      <c r="BV14">
         <v>81</v>
       </c>
-      <c r="BV14">
+      <c r="BW14">
         <v>85.7</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>90.4</v>
       </c>
-      <c r="BX14">
+      <c r="BY14">
         <v>94.5</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>1.1374</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>1.203597883597884</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>0.54620000000000002</v>
       </c>
-      <c r="CC14">
+      <c r="CD14">
         <v>0.57798941798941805</v>
       </c>
-      <c r="CD14">
+      <c r="CE14">
         <v>2.0823874038813619</v>
       </c>
-      <c r="CE14" t="s">
+      <c r="CF14" t="s">
         <v>70</v>
       </c>
-      <c r="CF14" t="s">
+      <c r="CG14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:85">
+    <row r="15" spans="1:86">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
@@ -3659,172 +3705,175 @@
         <v>2</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
         <v>12</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>48</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>135</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>195.5</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>237.5</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>219</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>63.5</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>20055</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.177</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>78</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>183</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>71.5</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>67.5</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>98.333333333333329</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>70</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>49.5</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>61.5</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>62.5</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>54</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>48</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>3.1339999999999999</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>1.165</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>0.97</v>
       </c>
-      <c r="BB15">
+      <c r="BC15">
         <v>1.0549999999999999</v>
       </c>
-      <c r="BC15">
+      <c r="BD15">
         <v>1.177</v>
       </c>
-      <c r="BD15">
+      <c r="BE15">
         <v>33.549999999999997</v>
       </c>
-      <c r="BE15">
+      <c r="BF15">
         <v>17.12</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
         <v>28.61</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <v>40.26</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <v>21.59</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <v>40.200000000000003</v>
       </c>
-      <c r="BJ15">
+      <c r="BK15">
         <v>80</v>
       </c>
-      <c r="BK15">
+      <c r="BL15">
         <v>85.1</v>
       </c>
-      <c r="BL15">
+      <c r="BM15">
         <v>89.5</v>
       </c>
-      <c r="BM15">
+      <c r="BN15">
         <v>93.9</v>
       </c>
-      <c r="BN15">
+      <c r="BO15">
         <v>94.4</v>
       </c>
-      <c r="BO15">
+      <c r="BP15">
         <v>73.5</v>
       </c>
-      <c r="BP15">
+      <c r="BQ15">
         <v>78.2</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>82.3</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>87.4</v>
       </c>
-      <c r="BS15">
+      <c r="BT15">
         <v>98</v>
       </c>
-      <c r="BT15">
+      <c r="BU15">
         <v>76.7</v>
       </c>
-      <c r="BU15">
+      <c r="BV15">
         <v>82.9</v>
       </c>
-      <c r="BV15">
+      <c r="BW15">
         <v>88.4</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>93.4</v>
       </c>
-      <c r="BX15">
+      <c r="BY15">
         <v>98</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>1.5392999999999999</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>1.570714285714286</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>0.64100000000000001</v>
       </c>
-      <c r="CC15">
+      <c r="CD15">
         <v>0.65408163265306118</v>
       </c>
-      <c r="CD15">
+      <c r="CE15">
         <v>2.4014040561622472</v>
       </c>
-      <c r="CE15" t="s">
+      <c r="CF15" t="s">
         <v>70</v>
       </c>
-      <c r="CF15" t="s">
+      <c r="CG15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:85">
+    <row r="16" spans="1:86">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
@@ -3841,193 +3890,196 @@
         <v>2</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>43</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>85.5</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>445.5</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>483</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>517.5</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>119.5</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>42057.5</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>4.0780000000000003</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>8.0120000000000005</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>7.0179999999999998</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>10.050000000000001</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>6.5350000000000001</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>932.18499999999995</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>81</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>84</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>73.333333333333329</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>77</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>68.5</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>61.5</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>51</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>60.5</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>55</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>58</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>43</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>1.9330000000000001</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>2.5019999999999998</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>2.4929999999999999</v>
       </c>
-      <c r="BB16">
+      <c r="BC16">
         <v>3.1669999999999998</v>
       </c>
-      <c r="BC16">
+      <c r="BD16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="BD16">
+      <c r="BE16">
         <v>23.9</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>20.58</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>21.4</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <v>27.74</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <v>20.34</v>
       </c>
-      <c r="BI16">
+      <c r="BJ16">
         <v>42.7</v>
       </c>
-      <c r="BJ16">
+      <c r="BK16">
         <v>82.5</v>
       </c>
-      <c r="BK16">
+      <c r="BL16">
         <v>87.6</v>
       </c>
-      <c r="BL16">
+      <c r="BM16">
         <v>90.9</v>
-      </c>
-      <c r="BM16">
-        <v>94.8</v>
       </c>
       <c r="BN16">
         <v>94.8</v>
       </c>
       <c r="BO16">
+        <v>94.8</v>
+      </c>
+      <c r="BP16">
         <v>76.599999999999994</v>
       </c>
-      <c r="BP16">
+      <c r="BQ16">
         <v>81.599999999999994</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>85.9</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>89.2</v>
       </c>
-      <c r="BS16">
+      <c r="BT16">
         <v>98.3</v>
       </c>
-      <c r="BT16">
+      <c r="BU16">
         <v>79.400000000000006</v>
       </c>
-      <c r="BU16">
+      <c r="BV16">
         <v>85.4</v>
       </c>
-      <c r="BV16">
+      <c r="BW16">
         <v>91.7</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>95</v>
       </c>
-      <c r="BX16">
+      <c r="BY16">
         <v>98.3</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>1.7470000000000001</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>1.7772126144455751</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>0.64119999999999999</v>
       </c>
-      <c r="CC16">
+      <c r="CD16">
         <v>0.65228891149542223</v>
       </c>
-      <c r="CD16">
+      <c r="CE16">
         <v>2.7245789145352459</v>
       </c>
-      <c r="CE16" t="s">
+      <c r="CF16" t="s">
         <v>70</v>
       </c>
-      <c r="CF16" t="s">
+      <c r="CG16" t="s">
         <v>74</v>
       </c>
-      <c r="CG16" t="s">
+      <c r="CH16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:85">
+    <row r="17" spans="1:86">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
@@ -4044,190 +4096,193 @@
         <v>2</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>12</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>58.5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>186</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>248.5</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>302.5</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>485.5</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>299</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>41505</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>5.2919999999999998</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5.0789999999999997</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>4.4169999999999998</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>5.2329999999999997</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>6.2990000000000004</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>636.57999999999902</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>70</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>204</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>300</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>78.5</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>295</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>102</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>39.5</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>55</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>76.333333333333329</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>63.333333333333343</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>58.5</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>2.5179999999999998</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>3.536</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>3.6419999999999999</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>2.3290000000000002</v>
       </c>
-      <c r="BC17">
+      <c r="BD17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="BD17">
+      <c r="BE17">
         <v>17.88</v>
       </c>
-      <c r="BE17">
+      <c r="BF17">
         <v>11.58</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
         <v>6.57</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <v>14.57</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <v>37.17</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <v>45.1</v>
       </c>
-      <c r="BJ17">
+      <c r="BK17">
         <v>93.2</v>
       </c>
-      <c r="BK17">
+      <c r="BL17">
         <v>95.4</v>
       </c>
-      <c r="BL17">
+      <c r="BM17">
         <v>93.1</v>
       </c>
-      <c r="BM17">
+      <c r="BN17">
         <v>99.3</v>
       </c>
-      <c r="BN17">
+      <c r="BO17">
         <v>100.6</v>
       </c>
-      <c r="BO17">
+      <c r="BP17">
         <v>83</v>
       </c>
-      <c r="BP17">
+      <c r="BQ17">
         <v>88.5</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>93.6</v>
       </c>
-      <c r="BR17">
+      <c r="BS17">
         <v>90.5</v>
       </c>
-      <c r="BS17">
+      <c r="BT17">
         <v>104.4</v>
       </c>
-      <c r="BT17">
+      <c r="BU17">
         <v>86.5</v>
       </c>
-      <c r="BU17">
+      <c r="BV17">
         <v>94.7</v>
       </c>
-      <c r="BV17">
+      <c r="BW17">
         <v>98.5</v>
       </c>
-      <c r="BW17">
+      <c r="BX17">
         <v>97.4</v>
       </c>
-      <c r="BX17">
+      <c r="BY17">
         <v>104.4</v>
       </c>
-      <c r="BZ17">
+      <c r="CA17">
         <v>1.1691</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>1.119827586206896</v>
       </c>
-      <c r="CB17">
+      <c r="CC17">
         <v>0.60140000000000005</v>
       </c>
-      <c r="CC17">
+      <c r="CD17">
         <v>0.57605363984674329</v>
       </c>
-      <c r="CD17">
+      <c r="CE17">
         <v>1.9439640838044561</v>
       </c>
-      <c r="CE17" t="s">
+      <c r="CF17" t="s">
         <v>70</v>
       </c>
-      <c r="CF17" t="s">
+      <c r="CG17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:85">
+    <row r="18" spans="1:86">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
@@ -4249,47 +4304,50 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>58</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>62.5</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>78.5</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>61.333333333333343</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>58</v>
       </c>
-      <c r="BI18">
+      <c r="BJ18">
         <v>41.2</v>
       </c>
-      <c r="BJ18">
+      <c r="BK18">
         <v>92.4</v>
       </c>
-      <c r="BK18">
+      <c r="BL18">
         <v>95.9</v>
       </c>
-      <c r="BO18">
+      <c r="BP18">
         <v>85</v>
       </c>
-      <c r="BP18">
+      <c r="BQ18">
         <v>89.4</v>
       </c>
-      <c r="BT18">
+      <c r="BU18">
         <v>89.7</v>
       </c>
-      <c r="BU18">
+      <c r="BV18">
         <v>94.2</v>
       </c>
-      <c r="CG18" t="s">
+      <c r="CH18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:85">
+    <row r="19" spans="1:86">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
@@ -4309,187 +4367,190 @@
         <v>3</v>
       </c>
       <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>12</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>64.5</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>216.5</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>519.5</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>582</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>587</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>309</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>55007.5</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.87509999999999999</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1.496</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.79830000000000001</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1.919</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>153.90600000000001</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>73</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>459.5</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>342.66666666666669</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>352</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>505.5</v>
       </c>
-      <c r="AT19">
+      <c r="AU19">
         <v>40.75</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>43</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>44.5</v>
       </c>
-      <c r="AW19">
+      <c r="AX19">
         <v>66.5</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>64.5</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>2.2879999999999998</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>1.5840000000000001</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>1.982</v>
       </c>
-      <c r="BB19">
+      <c r="BC19">
         <v>1.2749999999999999</v>
       </c>
-      <c r="BC19">
+      <c r="BD19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="BD19">
+      <c r="BE19">
         <v>3.1219999999999999</v>
       </c>
-      <c r="BE19">
+      <c r="BF19">
         <v>4.12</v>
       </c>
-      <c r="BF19">
+      <c r="BG19">
         <v>3.5129999999999999</v>
       </c>
-      <c r="BG19">
+      <c r="BH19">
         <v>0.59750000000000003</v>
       </c>
-      <c r="BH19">
+      <c r="BI19">
         <v>13.49</v>
       </c>
-      <c r="BI19">
+      <c r="BJ19">
         <v>41</v>
       </c>
-      <c r="BJ19">
+      <c r="BK19">
         <v>96</v>
       </c>
-      <c r="BK19">
+      <c r="BL19">
         <v>102.2</v>
       </c>
-      <c r="BL19">
+      <c r="BM19">
         <v>107.8</v>
       </c>
-      <c r="BM19">
+      <c r="BN19">
         <v>109.7</v>
       </c>
-      <c r="BO19">
+      <c r="BP19">
         <v>88.2</v>
       </c>
-      <c r="BP19">
+      <c r="BQ19">
         <v>92.4</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>100.7</v>
       </c>
-      <c r="BR19">
+      <c r="BS19">
         <v>102</v>
       </c>
-      <c r="BS19">
+      <c r="BT19">
         <v>110.5</v>
       </c>
-      <c r="BT19">
+      <c r="BU19">
         <v>93.1</v>
       </c>
-      <c r="BU19">
+      <c r="BV19">
         <v>98.7</v>
       </c>
-      <c r="BV19">
+      <c r="BW19">
         <v>108</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>109.5</v>
       </c>
-      <c r="BX19">
+      <c r="BY19">
         <v>110.5</v>
       </c>
-      <c r="BZ19">
+      <c r="CA19">
         <v>0.92620000000000002</v>
       </c>
-      <c r="CA19">
+      <c r="CB19">
         <v>0.83819004524886886</v>
       </c>
-      <c r="CB19">
+      <c r="CC19">
         <v>0.62160000000000004</v>
       </c>
-      <c r="CC19">
+      <c r="CD19">
         <v>0.5625339366515838</v>
       </c>
-      <c r="CD19">
+      <c r="CE19">
         <v>1.49002574002574</v>
       </c>
-      <c r="CE19" t="s">
+      <c r="CF19" t="s">
         <v>68</v>
       </c>
-      <c r="CF19" t="s">
+      <c r="CG19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:85">
+    <row r="20" spans="1:86">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
@@ -4509,187 +4570,190 @@
         <v>3</v>
       </c>
       <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
         <v>65</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>48.5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>216.5</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>477.5</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>343.5</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>538.5</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>276</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>46565</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>3.512</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>3.952</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3.0049999999999999</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2.919</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3.2349999999999999</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>377.03</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>77</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>299.5</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>227.5</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>308</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>338.5</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>39.333333333333343</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>41</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>43.333333333333343</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>47</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>48.5</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>2.4359999999999999</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>2.633</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>2.8140000000000001</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>3.1589999999999998</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="BD20">
+      <c r="BE20">
         <v>8.5739999999999998</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>5.4329999999999998</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <v>9.1509999999999998</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <v>6.9089999999999998</v>
       </c>
-      <c r="BH20">
+      <c r="BI20">
         <v>27.69</v>
       </c>
-      <c r="BI20">
+      <c r="BJ20">
         <v>48</v>
       </c>
-      <c r="BJ20">
+      <c r="BK20">
         <v>104.2</v>
       </c>
-      <c r="BK20">
+      <c r="BL20">
         <v>109.6</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <v>116.6</v>
       </c>
-      <c r="BM20">
+      <c r="BN20">
         <v>112.9</v>
       </c>
-      <c r="BO20">
+      <c r="BP20">
         <v>95</v>
       </c>
-      <c r="BP20">
+      <c r="BQ20">
         <v>99</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>107.9</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>111.9</v>
       </c>
-      <c r="BS20">
+      <c r="BT20">
         <v>121.3</v>
       </c>
-      <c r="BT20">
+      <c r="BU20">
         <v>98.2</v>
       </c>
-      <c r="BU20">
+      <c r="BV20">
         <v>105.5</v>
       </c>
-      <c r="BV20">
+      <c r="BW20">
         <v>114.3</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>117.6</v>
       </c>
-      <c r="BX20">
+      <c r="BY20">
         <v>121.3</v>
       </c>
-      <c r="BZ20">
+      <c r="CA20">
         <v>1.7053</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>1.405853256389118</v>
       </c>
-      <c r="CB20">
+      <c r="CC20">
         <v>0.878</v>
       </c>
-      <c r="CC20">
+      <c r="CD20">
         <v>0.72382522671063476</v>
       </c>
-      <c r="CD20">
+      <c r="CE20">
         <v>1.942255125284738</v>
       </c>
-      <c r="CE20" t="s">
+      <c r="CF20" t="s">
         <v>68</v>
       </c>
-      <c r="CF20" t="s">
+      <c r="CG20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:85">
+    <row r="21" spans="1:86">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -4703,73 +4767,76 @@
         <v>118</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>31</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>105</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>135</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>218</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>298.5</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>433.5</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>289</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>38202.5</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>185</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>129</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>122</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>262</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>278.5</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>229</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>222</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>198.5</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>180</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>182</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>221</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:85">
+    <row r="22" spans="1:86">
       <c r="A22">
         <v>1728</v>
       </c>
@@ -4783,73 +4850,76 @@
         <v>120</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>31</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>120.5</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>221</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>306.5</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>394.5</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>452</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>322</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>43767.5</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>76</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>212</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>224</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>223</v>
-      </c>
-      <c r="AI22">
-        <v>241</v>
       </c>
       <c r="AJ22">
         <v>241</v>
       </c>
       <c r="AK22">
+        <v>241</v>
+      </c>
+      <c r="AL22">
         <v>215</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>294</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>278.5</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>229.5</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>276</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:85">
+    <row r="23" spans="1:86">
       <c r="A23">
         <v>1731</v>
       </c>
@@ -4863,82 +4933,85 @@
         <v>119</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>34</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>67</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>143.5</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>316</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>296.5</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>376.3</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>447.5</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>41218.5</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>94</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>78</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>124</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>102</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>88</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>80</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>74</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>76</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>82</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>78</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>113</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>97.5</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>67</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>127</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>87.5</v>
       </c>
     </row>
-    <row r="24" spans="1:85">
+    <row r="24" spans="1:86">
       <c r="A24">
         <v>1732</v>
       </c>
@@ -4952,61 +5025,64 @@
         <v>117</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="J24">
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <v>32</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>96.5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>147</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>236.5</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>269</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>399.5</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>339.5</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>37860</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>75.5</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>68</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>90</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>64</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>79</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>88</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>96</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:85">
+    <row r="25" spans="1:86">
       <c r="A25">
         <v>1735</v>
       </c>
@@ -5020,79 +5096,82 @@
         <v>115</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
-      <c r="J25">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>33</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>73</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>137.5</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>301.5</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>357</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>371</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>250</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>36090</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>69</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>67</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>76</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>72</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>96</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>63</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>84</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>83</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>86</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>81</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>107</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>99.5</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>176</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>224.5</v>
       </c>
     </row>
-    <row r="26" spans="1:85">
+    <row r="26" spans="1:86">
       <c r="A26">
         <v>1741</v>
       </c>
@@ -5106,70 +5185,73 @@
         <v>121</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>32</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>63.5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>244.5</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>345</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>357.5</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>484.5</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>296</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>44045</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>64</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>69</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>79.5</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>68.5</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>84.5</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>78</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>88</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>94</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>142</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>155</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:85">
+    <row r="27" spans="1:86">
       <c r="A27">
         <v>1745</v>
       </c>
@@ -5180,46 +5262,49 @@
         <v>111</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
         <v>0</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>61</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>143</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>135</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>99</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>248</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>266</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>348</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>323</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>329.5</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>404</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:85">
+    <row r="28" spans="1:86">
       <c r="A28">
         <v>1746</v>
       </c>
@@ -5233,82 +5318,85 @@
         <v>113</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="J28">
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>34</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>81</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>135</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>194.5</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>246</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>296</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>261.5</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>29785</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>69</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>75</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>97.5</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>80</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>81</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>92</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>81</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>60</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>73</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>107</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>84</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <v>114</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>193</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>105</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:85">
+    <row r="29" spans="1:86">
       <c r="A29">
         <v>1748</v>
       </c>
@@ -5322,79 +5410,82 @@
         <v>116</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>33</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>66.5</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>210.5</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>219</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>465</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>387.5</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>209.5</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>37650</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>88</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>73</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>100</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>82</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>92</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>72</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>83</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>72</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>59</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>81</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>74</v>
       </c>
-      <c r="AP29">
+      <c r="AQ29">
         <v>149</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>218</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>246.5</v>
       </c>
     </row>
-    <row r="30" spans="1:85">
+    <row r="30" spans="1:86">
       <c r="A30">
         <v>1755</v>
       </c>
@@ -5405,52 +5496,55 @@
         <v>111</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
         <v>0</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>75</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>82</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>107.5</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>105</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>107.5</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>121</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>113.5</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>88</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>111</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>116</v>
       </c>
-      <c r="AO30">
+      <c r="AP30">
         <v>110</v>
       </c>
-      <c r="AP30">
+      <c r="AQ30">
         <v>116</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:85">
+    <row r="31" spans="1:86">
       <c r="A31">
         <v>1742</v>
       </c>
@@ -5464,70 +5558,73 @@
         <v>112</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
         <v>36</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>77</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>113</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>159.5</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>235</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>289.5</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>163.5</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="R31" s="5">
         <v>25742.5</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>66</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>102</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>89</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>88.5</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>82</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>83</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>61</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>89</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>86</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>71</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:85">
+    <row r="32" spans="1:86">
       <c r="A32">
         <v>1743</v>
       </c>
@@ -5541,64 +5638,67 @@
         <v>114</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32">
         <v>35</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <f>AVERAGE(82,69)</f>
         <v>75.5</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f>AVERAGE(143,162)</f>
         <v>152.5</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f>AVERAGE(199,208)</f>
         <v>203.5</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f>AVERAGE(297,299)</f>
         <v>298</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <f>AVERAGE(438,460)</f>
         <v>449</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <f>AVERAGE(189,188)</f>
         <v>188.5</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="R32" s="5">
         <v>35757.5</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>107</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>90</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>96.5</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>86</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>76</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>111</v>
       </c>
-      <c r="AO32">
+      <c r="AP32">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15.5">
+    <row r="33" spans="1:41" ht="15.5">
       <c r="A33">
         <v>1754</v>
       </c>
@@ -5612,74 +5712,77 @@
         <v>91</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <v>35</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f>AVERAGE(65,79)</f>
         <v>72</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f>AVERAGE(167,165)</f>
         <v>166</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f>AVERAGE(201,198)</f>
         <v>199.5</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f>AVERAGE(273,304)</f>
         <v>288.5</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <f>AVERAGE(317,337)</f>
         <v>327</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f>AVERAGE(232)</f>
         <v>232</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="R33" s="5">
         <v>31460</v>
       </c>
-      <c r="AE33" s="4">
+      <c r="AF33" s="4">
         <v>77</v>
       </c>
-      <c r="AF33" s="4">
+      <c r="AG33" s="4">
         <f>(95+98)/2</f>
         <v>96.5</v>
       </c>
-      <c r="AG33" s="4">
+      <c r="AH33" s="4">
         <f>(114+117)/2</f>
         <v>115.5</v>
       </c>
-      <c r="AH33" s="4">
+      <c r="AI33" s="4">
         <f>(107+110)/2</f>
         <v>108.5</v>
       </c>
-      <c r="AI33" s="4">
+      <c r="AJ33" s="4">
         <f>(99+107)/2</f>
         <v>103</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AK33" s="4">
         <f>(108+111)/2</f>
         <v>109.5</v>
       </c>
-      <c r="AK33" s="4">
-        <v>87</v>
-      </c>
       <c r="AL33" s="4">
         <v>87</v>
       </c>
       <c r="AM33" s="4">
+        <v>87</v>
+      </c>
+      <c r="AN33" s="4">
         <v>93</v>
       </c>
-      <c r="AN33" s="4">
+      <c r="AO33" s="4">
         <v>106</v>
       </c>
     </row>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BE756-5127-4754-BA7C-6A2F71CCA3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5438C-5501-48C6-A0B2-59B8F19C88FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="extra rows" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="123">
   <si>
     <t>Date of birth</t>
   </si>
@@ -826,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH33"/>
+  <dimension ref="A1:CH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5253,14 +5254,17 @@
     </row>
     <row r="27" spans="1:86">
       <c r="A27">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>111</v>
       </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
@@ -5268,45 +5272,81 @@
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>34</v>
+      </c>
+      <c r="L27">
+        <v>81</v>
+      </c>
+      <c r="M27">
+        <v>135</v>
+      </c>
+      <c r="N27">
+        <v>194.5</v>
+      </c>
+      <c r="O27">
+        <v>246</v>
+      </c>
+      <c r="P27">
+        <v>296</v>
+      </c>
+      <c r="Q27">
+        <v>261.5</v>
+      </c>
+      <c r="R27">
+        <v>29785</v>
       </c>
       <c r="AF27">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AG27">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AH27">
-        <v>135</v>
+        <v>97.5</v>
       </c>
       <c r="AI27">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ27">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AK27">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="AL27">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AM27">
-        <v>323</v>
+        <v>60</v>
       </c>
       <c r="AN27">
-        <v>329.5</v>
+        <v>73</v>
       </c>
       <c r="AO27">
-        <v>404</v>
+        <v>107</v>
       </c>
       <c r="AP27">
-        <v>422</v>
+        <v>84</v>
+      </c>
+      <c r="AQ27">
+        <v>114</v>
+      </c>
+      <c r="AR27">
+        <v>193</v>
+      </c>
+      <c r="AS27">
+        <v>105</v>
+      </c>
+      <c r="AT27">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:86">
       <c r="A28">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B28" t="s">
         <v>89</v>
@@ -5315,7 +5355,7 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -5327,78 +5367,75 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28">
+        <v>66.5</v>
+      </c>
+      <c r="M28">
+        <v>210.5</v>
+      </c>
+      <c r="N28">
+        <v>219</v>
+      </c>
+      <c r="O28">
+        <v>465</v>
+      </c>
+      <c r="P28">
+        <v>387.5</v>
+      </c>
+      <c r="Q28">
+        <v>209.5</v>
+      </c>
+      <c r="R28">
+        <v>37650</v>
+      </c>
+      <c r="AF28">
+        <v>88</v>
+      </c>
+      <c r="AG28">
+        <v>73</v>
+      </c>
+      <c r="AH28">
+        <v>100</v>
+      </c>
+      <c r="AI28">
+        <v>82</v>
+      </c>
+      <c r="AJ28">
+        <v>92</v>
+      </c>
+      <c r="AK28">
+        <v>72</v>
+      </c>
+      <c r="AL28">
+        <v>83</v>
+      </c>
+      <c r="AM28">
+        <v>72</v>
+      </c>
+      <c r="AN28">
+        <v>59</v>
+      </c>
+      <c r="AO28">
         <v>81</v>
       </c>
-      <c r="M28">
-        <v>135</v>
-      </c>
-      <c r="N28">
-        <v>194.5</v>
-      </c>
-      <c r="O28">
-        <v>246</v>
-      </c>
-      <c r="P28">
-        <v>296</v>
-      </c>
-      <c r="Q28">
-        <v>261.5</v>
-      </c>
-      <c r="R28">
-        <v>29785</v>
-      </c>
-      <c r="AF28">
-        <v>69</v>
-      </c>
-      <c r="AG28">
-        <v>75</v>
-      </c>
-      <c r="AH28">
-        <v>97.5</v>
-      </c>
-      <c r="AI28">
-        <v>80</v>
-      </c>
-      <c r="AJ28">
-        <v>81</v>
-      </c>
-      <c r="AK28">
-        <v>92</v>
-      </c>
-      <c r="AL28">
-        <v>81</v>
-      </c>
-      <c r="AM28">
-        <v>60</v>
-      </c>
-      <c r="AN28">
-        <v>73</v>
-      </c>
-      <c r="AO28">
-        <v>107</v>
-      </c>
       <c r="AP28">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AQ28">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="AR28">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="AS28">
-        <v>105</v>
-      </c>
-      <c r="AT28">
-        <v>116</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="29" spans="1:86">
       <c r="A29">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
@@ -5407,7 +5444,7 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -5419,75 +5456,66 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L29">
-        <v>66.5</v>
+        <v>77</v>
       </c>
       <c r="M29">
-        <v>210.5</v>
+        <v>113</v>
       </c>
       <c r="N29">
-        <v>219</v>
+        <v>159.5</v>
       </c>
       <c r="O29">
-        <v>465</v>
+        <v>235</v>
       </c>
       <c r="P29">
-        <v>387.5</v>
+        <v>289.5</v>
       </c>
       <c r="Q29">
-        <v>209.5</v>
-      </c>
-      <c r="R29">
-        <v>37650</v>
+        <v>163.5</v>
+      </c>
+      <c r="R29" s="5">
+        <v>25742.5</v>
       </c>
       <c r="AF29">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AG29">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AH29">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AI29">
+        <v>88.5</v>
+      </c>
+      <c r="AJ29">
         <v>82</v>
       </c>
-      <c r="AJ29">
-        <v>92</v>
-      </c>
       <c r="AK29">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AL29">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AM29">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AN29">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="AO29">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AP29">
-        <v>74</v>
-      </c>
-      <c r="AQ29">
-        <v>149</v>
-      </c>
-      <c r="AR29">
-        <v>218</v>
-      </c>
-      <c r="AS29">
-        <v>246.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:86">
       <c r="A30">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
@@ -5495,6 +5523,9 @@
       <c r="C30" t="s">
         <v>111</v>
       </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
@@ -5502,51 +5533,63 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>75</v>
-      </c>
-      <c r="AG30">
-        <v>82</v>
-      </c>
-      <c r="AH30">
-        <v>107.5</v>
-      </c>
-      <c r="AI30">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>35</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE(82,69)</f>
+        <v>75.5</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(143,162)</f>
+        <v>152.5</v>
+      </c>
+      <c r="N30">
+        <f>AVERAGE(199,208)</f>
+        <v>203.5</v>
+      </c>
+      <c r="O30">
+        <f>AVERAGE(297,299)</f>
+        <v>298</v>
+      </c>
+      <c r="P30">
+        <f>AVERAGE(438,460)</f>
+        <v>449</v>
+      </c>
+      <c r="Q30">
+        <f>AVERAGE(189,188)</f>
+        <v>188.5</v>
+      </c>
+      <c r="R30" s="5">
+        <v>35757.5</v>
       </c>
       <c r="AJ30">
-        <v>107.5</v>
+        <v>107</v>
       </c>
       <c r="AK30">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="AL30">
-        <v>113.5</v>
+        <v>96.5</v>
       </c>
       <c r="AM30">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AN30">
+        <v>76</v>
+      </c>
+      <c r="AO30">
         <v>111</v>
       </c>
-      <c r="AO30">
-        <v>116</v>
-      </c>
       <c r="AP30">
-        <v>110</v>
-      </c>
-      <c r="AQ30">
-        <v>116</v>
-      </c>
-      <c r="AR30">
-        <v>161</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:86">
+    <row r="31" spans="1:86" ht="15.5">
       <c r="A31">
-        <v>1742</v>
+        <v>1754</v>
       </c>
       <c r="B31" t="s">
         <v>89</v>
@@ -5555,7 +5598,7 @@
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -5567,222 +5610,68 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31">
-        <v>77</v>
-      </c>
-      <c r="M31">
-        <v>113</v>
-      </c>
-      <c r="N31">
-        <v>159.5</v>
-      </c>
-      <c r="O31">
-        <v>235</v>
-      </c>
-      <c r="P31">
-        <v>289.5</v>
-      </c>
-      <c r="Q31">
-        <v>163.5</v>
-      </c>
-      <c r="R31" s="5">
-        <v>25742.5</v>
-      </c>
-      <c r="AF31">
-        <v>66</v>
-      </c>
-      <c r="AG31">
-        <v>102</v>
-      </c>
-      <c r="AH31">
-        <v>89</v>
-      </c>
-      <c r="AI31">
-        <v>88.5</v>
-      </c>
-      <c r="AJ31">
-        <v>82</v>
-      </c>
-      <c r="AK31">
-        <v>83</v>
-      </c>
-      <c r="AL31">
-        <v>61</v>
-      </c>
-      <c r="AM31">
-        <v>89</v>
-      </c>
-      <c r="AN31">
-        <v>86</v>
-      </c>
-      <c r="AO31">
-        <v>71</v>
-      </c>
-      <c r="AP31">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:86">
-      <c r="A32">
-        <v>1743</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>35</v>
-      </c>
-      <c r="L32">
-        <f>AVERAGE(82,69)</f>
-        <v>75.5</v>
-      </c>
-      <c r="M32">
-        <f>AVERAGE(143,162)</f>
-        <v>152.5</v>
-      </c>
-      <c r="N32">
-        <f>AVERAGE(199,208)</f>
-        <v>203.5</v>
-      </c>
-      <c r="O32">
-        <f>AVERAGE(297,299)</f>
-        <v>298</v>
-      </c>
-      <c r="P32">
-        <f>AVERAGE(438,460)</f>
-        <v>449</v>
-      </c>
-      <c r="Q32">
-        <f>AVERAGE(189,188)</f>
-        <v>188.5</v>
-      </c>
-      <c r="R32" s="5">
-        <v>35757.5</v>
-      </c>
-      <c r="AJ32">
-        <v>107</v>
-      </c>
-      <c r="AK32">
-        <v>90</v>
-      </c>
-      <c r="AL32">
-        <v>96.5</v>
-      </c>
-      <c r="AM32">
-        <v>86</v>
-      </c>
-      <c r="AN32">
-        <v>76</v>
-      </c>
-      <c r="AO32">
-        <v>111</v>
-      </c>
-      <c r="AP32">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" ht="15.5">
-      <c r="A33">
-        <v>1754</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>35</v>
-      </c>
-      <c r="L33">
         <f>AVERAGE(65,79)</f>
         <v>72</v>
       </c>
-      <c r="M33">
+      <c r="M31">
         <f>AVERAGE(167,165)</f>
         <v>166</v>
       </c>
-      <c r="N33">
+      <c r="N31">
         <f>AVERAGE(201,198)</f>
         <v>199.5</v>
       </c>
-      <c r="O33">
+      <c r="O31">
         <f>AVERAGE(273,304)</f>
         <v>288.5</v>
       </c>
-      <c r="P33">
+      <c r="P31">
         <f>AVERAGE(317,337)</f>
         <v>327</v>
       </c>
-      <c r="Q33">
+      <c r="Q31">
         <f>AVERAGE(232)</f>
         <v>232</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R31" s="5">
         <v>31460</v>
       </c>
-      <c r="AF33" s="4">
+      <c r="AF31" s="4">
         <v>77</v>
       </c>
-      <c r="AG33" s="4">
+      <c r="AG31" s="4">
         <f>(95+98)/2</f>
         <v>96.5</v>
       </c>
-      <c r="AH33" s="4">
+      <c r="AH31" s="4">
         <f>(114+117)/2</f>
         <v>115.5</v>
       </c>
-      <c r="AI33" s="4">
+      <c r="AI31" s="4">
         <f>(107+110)/2</f>
         <v>108.5</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AJ31" s="4">
         <f>(99+107)/2</f>
         <v>103</v>
       </c>
-      <c r="AK33" s="4">
+      <c r="AK31" s="4">
         <f>(108+111)/2</f>
         <v>109.5</v>
       </c>
-      <c r="AL33" s="4">
+      <c r="AL31" s="4">
         <v>87</v>
       </c>
-      <c r="AM33" s="4">
+      <c r="AM31" s="4">
         <v>87</v>
       </c>
-      <c r="AN33" s="4">
+      <c r="AN31" s="4">
         <v>93</v>
       </c>
-      <c r="AO33" s="4">
+      <c r="AO31" s="4">
         <v>106</v>
       </c>
     </row>
@@ -5790,4 +5679,391 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52E79C1-C321-4468-8C1F-78B0848FD3CC}">
+  <dimension ref="A1:CH3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:86">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86">
+      <c r="A2">
+        <v>1745</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>61</v>
+      </c>
+      <c r="AG2">
+        <v>143</v>
+      </c>
+      <c r="AH2">
+        <v>135</v>
+      </c>
+      <c r="AI2">
+        <v>99</v>
+      </c>
+      <c r="AJ2">
+        <v>248</v>
+      </c>
+      <c r="AK2">
+        <v>266</v>
+      </c>
+      <c r="AL2">
+        <v>348</v>
+      </c>
+      <c r="AM2">
+        <v>323</v>
+      </c>
+      <c r="AN2">
+        <v>329.5</v>
+      </c>
+      <c r="AO2">
+        <v>404</v>
+      </c>
+      <c r="AP2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86">
+      <c r="A3">
+        <v>1755</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>75</v>
+      </c>
+      <c r="AG3">
+        <v>82</v>
+      </c>
+      <c r="AH3">
+        <v>107.5</v>
+      </c>
+      <c r="AI3">
+        <v>105</v>
+      </c>
+      <c r="AJ3">
+        <v>107.5</v>
+      </c>
+      <c r="AK3">
+        <v>121</v>
+      </c>
+      <c r="AL3">
+        <v>113.5</v>
+      </c>
+      <c r="AM3">
+        <v>88</v>
+      </c>
+      <c r="AN3">
+        <v>111</v>
+      </c>
+      <c r="AO3">
+        <v>116</v>
+      </c>
+      <c r="AP3">
+        <v>110</v>
+      </c>
+      <c r="AQ3">
+        <v>116</v>
+      </c>
+      <c r="AR3">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5438C-5501-48C6-A0B2-59B8F19C88FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D07AD-C924-481D-97E3-8B12861CD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="4190" windowWidth="8690" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,11 +434,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -486,9 +481,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,12 +821,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E36" sqref="E36"/>
+      <selection pane="topRight" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
@@ -847,7 +839,7 @@
     <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1107,7 +1099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
@@ -1160,7 +1152,7 @@
         <v>200</v>
       </c>
       <c r="R2">
-        <v>48742.5</v>
+        <v>812.375</v>
       </c>
       <c r="S2">
         <v>2.3580000000000001</v>
@@ -1181,7 +1173,7 @@
         <v>5.5759999999999996</v>
       </c>
       <c r="Y2">
-        <v>422.93999999999897</v>
+        <v>7.0489999999999799</v>
       </c>
       <c r="Z2">
         <v>71.000000099999994</v>
@@ -1316,7 +1308,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:86">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
@@ -1363,7 +1355,7 @@
         <v>284.5</v>
       </c>
       <c r="R3">
-        <v>46485</v>
+        <v>774.75</v>
       </c>
       <c r="S3">
         <v>3.0870000000000002</v>
@@ -1384,7 +1376,7 @@
         <v>2.6480000000000001</v>
       </c>
       <c r="Y3">
-        <v>262.25</v>
+        <v>4.37083333333333</v>
       </c>
       <c r="Z3">
         <v>73</v>
@@ -1519,7 +1511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:86">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
@@ -1572,7 +1564,7 @@
         <v>189</v>
       </c>
       <c r="R4">
-        <v>43717.5</v>
+        <v>728.625</v>
       </c>
       <c r="S4">
         <v>3.3439999999999999</v>
@@ -1593,7 +1585,7 @@
         <v>5.2809999999999997</v>
       </c>
       <c r="Y4">
-        <v>432.02</v>
+        <v>7.2003333333333304</v>
       </c>
       <c r="Z4">
         <v>78</v>
@@ -1728,7 +1720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:86">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
@@ -1880,7 +1872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:86">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
@@ -1933,7 +1925,7 @@
         <v>99</v>
       </c>
       <c r="R6">
-        <v>35250</v>
+        <v>587.5</v>
       </c>
       <c r="S6">
         <v>1.81</v>
@@ -1954,7 +1946,7 @@
         <v>4.88</v>
       </c>
       <c r="Y6">
-        <v>626.66</v>
+        <v>10.444333333333301</v>
       </c>
       <c r="Z6">
         <v>70</v>
@@ -2089,7 +2081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:86">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
@@ -2136,7 +2128,7 @@
         <v>392</v>
       </c>
       <c r="R7">
-        <v>59782.5</v>
+        <v>996.375</v>
       </c>
       <c r="S7">
         <v>1.8460000000000001</v>
@@ -2157,7 +2149,7 @@
         <v>1.123</v>
       </c>
       <c r="Y7">
-        <v>151.756</v>
+        <v>2.5292666666666599</v>
       </c>
       <c r="Z7">
         <v>69</v>
@@ -2292,7 +2284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:86">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
@@ -2345,7 +2337,7 @@
         <v>406.5</v>
       </c>
       <c r="R8">
-        <v>60245</v>
+        <v>1004.08333333333</v>
       </c>
       <c r="S8">
         <v>2.827</v>
@@ -2366,7 +2358,7 @@
         <v>2.2149999999999999</v>
       </c>
       <c r="Y8">
-        <v>238.005</v>
+        <v>3.96674999999999</v>
       </c>
       <c r="Z8">
         <v>96</v>
@@ -2501,7 +2493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
@@ -2653,7 +2645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
@@ -2700,7 +2692,7 @@
         <v>428.5</v>
       </c>
       <c r="R10">
-        <v>59965</v>
+        <v>999.41666666666595</v>
       </c>
       <c r="S10">
         <v>2.0430000000000001</v>
@@ -2721,7 +2713,7 @@
         <v>1.5609999999999999</v>
       </c>
       <c r="Y10">
-        <v>204.07</v>
+        <v>3.40116666666666</v>
       </c>
       <c r="Z10">
         <v>79</v>
@@ -2856,7 +2848,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:86">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
@@ -2909,7 +2901,7 @@
         <v>328.5</v>
       </c>
       <c r="R11">
-        <v>56462.5</v>
+        <v>941.04166666666595</v>
       </c>
       <c r="S11">
         <v>1.2789999999999999</v>
@@ -2930,7 +2922,7 @@
         <v>2.3010000000000002</v>
       </c>
       <c r="Y11">
-        <v>198.65</v>
+        <v>3.31083333333333</v>
       </c>
       <c r="Z11">
         <v>90</v>
@@ -3062,7 +3054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:86">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
@@ -3115,7 +3107,7 @@
         <v>67.5</v>
       </c>
       <c r="R12">
-        <v>19060</v>
+        <v>317.666666666666</v>
       </c>
       <c r="S12">
         <v>1.29</v>
@@ -3136,7 +3128,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="Y12">
-        <v>653.495</v>
+        <v>10.891583333333299</v>
       </c>
       <c r="Z12">
         <v>84</v>
@@ -3271,7 +3263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:86">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
@@ -3324,7 +3316,7 @@
         <v>91.5</v>
       </c>
       <c r="R13">
-        <v>34022.5</v>
+        <v>567.04166666666595</v>
       </c>
       <c r="S13">
         <v>3.29</v>
@@ -3345,7 +3337,7 @@
         <v>7.8789999999999996</v>
       </c>
       <c r="Y13">
-        <v>1316.55</v>
+        <v>21.942499999999999</v>
       </c>
       <c r="Z13">
         <v>75</v>
@@ -3480,7 +3472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:86">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
@@ -3533,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="R14">
-        <v>25057.5</v>
+        <v>417.625</v>
       </c>
       <c r="S14">
         <v>1.107</v>
@@ -3554,7 +3546,7 @@
         <v>2.0979999999999999</v>
       </c>
       <c r="Y14">
-        <v>453.48500000000001</v>
+        <v>7.5580833333333297</v>
       </c>
       <c r="Z14">
         <v>72</v>
@@ -3689,7 +3681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:86">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
@@ -3736,7 +3728,7 @@
         <v>63.5</v>
       </c>
       <c r="R15">
-        <v>20055</v>
+        <v>334.25</v>
       </c>
       <c r="S15">
         <v>1.177</v>
@@ -3874,7 +3866,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:86">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
@@ -3921,7 +3913,7 @@
         <v>119.5</v>
       </c>
       <c r="R16">
-        <v>42057.5</v>
+        <v>700.95833333333303</v>
       </c>
       <c r="S16">
         <v>4.5250000000000004</v>
@@ -3942,7 +3934,7 @@
         <v>6.5350000000000001</v>
       </c>
       <c r="Y16">
-        <v>932.18499999999995</v>
+        <v>15.5364166666666</v>
       </c>
       <c r="Z16">
         <v>81</v>
@@ -4080,7 +4072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:86">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
@@ -4127,7 +4119,7 @@
         <v>299</v>
       </c>
       <c r="R17">
-        <v>41505</v>
+        <v>691.75</v>
       </c>
       <c r="S17">
         <v>4.0149999999999997</v>
@@ -4148,7 +4140,7 @@
         <v>6.2990000000000004</v>
       </c>
       <c r="Y17">
-        <v>636.57999999999902</v>
+        <v>10.6096666666666</v>
       </c>
       <c r="Z17">
         <v>70</v>
@@ -4283,7 +4275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:86">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
@@ -4348,7 +4340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:86">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
@@ -4401,7 +4393,7 @@
         <v>309</v>
       </c>
       <c r="R19">
-        <v>55007.5</v>
+        <v>916.79166666666595</v>
       </c>
       <c r="S19">
         <v>0.98180000000000001</v>
@@ -4422,7 +4414,7 @@
         <v>1.919</v>
       </c>
       <c r="Y19">
-        <v>153.90600000000001</v>
+        <v>2.5651000000000002</v>
       </c>
       <c r="Z19">
         <v>73</v>
@@ -4551,7 +4543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:86">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
@@ -4604,7 +4596,7 @@
         <v>276</v>
       </c>
       <c r="R20">
-        <v>46565</v>
+        <v>776.08333333333303</v>
       </c>
       <c r="S20">
         <v>2.7770000000000001</v>
@@ -4625,7 +4617,7 @@
         <v>3.2349999999999999</v>
       </c>
       <c r="Y20">
-        <v>377.03</v>
+        <v>6.2838333333333303</v>
       </c>
       <c r="Z20">
         <v>77</v>
@@ -4754,7 +4746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:86">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -4798,7 +4790,7 @@
         <v>289</v>
       </c>
       <c r="R21">
-        <v>38202.5</v>
+        <v>636.70833333333303</v>
       </c>
       <c r="AF21">
         <v>185</v>
@@ -4837,7 +4829,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:86">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1728</v>
       </c>
@@ -4881,7 +4873,7 @@
         <v>322</v>
       </c>
       <c r="R22">
-        <v>43767.5</v>
+        <v>729.45833333333303</v>
       </c>
       <c r="AF22">
         <v>76</v>
@@ -4920,7 +4912,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:86">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1731</v>
       </c>
@@ -4964,7 +4956,7 @@
         <v>447.5</v>
       </c>
       <c r="R23">
-        <v>41218.5</v>
+        <v>686.97500000000002</v>
       </c>
       <c r="AF23">
         <v>94</v>
@@ -5012,7 +5004,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="24" spans="1:86">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1732</v>
       </c>
@@ -5056,7 +5048,7 @@
         <v>339.5</v>
       </c>
       <c r="R24">
-        <v>37860</v>
+        <v>631</v>
       </c>
       <c r="AJ24">
         <v>75.5</v>
@@ -5083,7 +5075,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:86">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1735</v>
       </c>
@@ -5127,7 +5119,7 @@
         <v>250</v>
       </c>
       <c r="R25">
-        <v>36090</v>
+        <v>601.5</v>
       </c>
       <c r="AF25">
         <v>69</v>
@@ -5172,7 +5164,7 @@
         <v>224.5</v>
       </c>
     </row>
-    <row r="26" spans="1:86">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1741</v>
       </c>
@@ -5216,7 +5208,7 @@
         <v>296</v>
       </c>
       <c r="R26">
-        <v>44045</v>
+        <v>734.08333333333303</v>
       </c>
       <c r="AF26">
         <v>64</v>
@@ -5252,7 +5244,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:86">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1746</v>
       </c>
@@ -5296,7 +5288,7 @@
         <v>261.5</v>
       </c>
       <c r="R27">
-        <v>29785</v>
+        <v>496.416666666666</v>
       </c>
       <c r="AF27">
         <v>69</v>
@@ -5344,7 +5336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:86">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1748</v>
       </c>
@@ -5388,7 +5380,7 @@
         <v>209.5</v>
       </c>
       <c r="R28">
-        <v>37650</v>
+        <v>627.5</v>
       </c>
       <c r="AF28">
         <v>88</v>
@@ -5433,7 +5425,7 @@
         <v>246.5</v>
       </c>
     </row>
-    <row r="29" spans="1:86">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1742</v>
       </c>
@@ -5476,8 +5468,8 @@
       <c r="Q29">
         <v>163.5</v>
       </c>
-      <c r="R29" s="5">
-        <v>25742.5</v>
+      <c r="R29">
+        <v>429.041666666666</v>
       </c>
       <c r="AF29">
         <v>66</v>
@@ -5513,7 +5505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:86">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1743</v>
       </c>
@@ -5562,8 +5554,8 @@
         <f>AVERAGE(189,188)</f>
         <v>188.5</v>
       </c>
-      <c r="R30" s="5">
-        <v>35757.5</v>
+      <c r="R30">
+        <v>595.95833333333303</v>
       </c>
       <c r="AJ30">
         <v>107</v>
@@ -5587,7 +5579,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="15.5">
+    <row r="31" spans="1:86" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1754</v>
       </c>
@@ -5636,8 +5628,8 @@
         <f>AVERAGE(232)</f>
         <v>232</v>
       </c>
-      <c r="R31" s="5">
-        <v>31460</v>
+      <c r="R31">
+        <v>524.33333333333303</v>
       </c>
       <c r="AF31" s="4">
         <v>77</v>
@@ -5689,9 +5681,9 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -5951,7 +5943,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1745</v>
       </c>
@@ -6004,7 +5996,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:86">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1755</v>
       </c>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D07AD-C924-481D-97E3-8B12861CD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527EEFAB-5C34-4FB9-B42C-F9287BEE2CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="4190" windowWidth="8690" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="4900" windowWidth="5790" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
   <si>
     <t>Date of birth</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>original</t>
+  </si>
+  <si>
+    <t>lastRBG</t>
   </si>
 </sst>
 </file>
@@ -819,11 +822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH31"/>
+  <dimension ref="A1:CI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,7 +842,7 @@
     <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -979,127 +982,130 @@
         <v>109</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1060</v>
       </c>
@@ -1194,121 +1200,124 @@
         <v>193</v>
       </c>
       <c r="AU2">
+        <v>193</v>
+      </c>
+      <c r="AV2">
         <v>41</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>48</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>52.5</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>50</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>58.5</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>2.8740000000000001</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>1.6679999999999999</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>0.96350000000000002</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>1.4139999999999999</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>11.42</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>12.25</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>13.18</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>11.28</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>32.33</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>53.7</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <v>92.6</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>98.1</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>100.9</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <v>104.4</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>104.6</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>85.4</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>90.9</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>94.9</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>99.5</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>105.1</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>90.2</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>96</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>101.3</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>104.5</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>105.1</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>2.0448</v>
       </c>
-      <c r="CB2">
+      <c r="CC2">
         <v>1.94557564224548</v>
       </c>
-      <c r="CC2">
+      <c r="CD2">
         <v>0.71850000000000003</v>
       </c>
-      <c r="CD2">
+      <c r="CE2">
         <v>0.68363463368220745</v>
       </c>
-      <c r="CE2">
+      <c r="CF2">
         <v>2.8459290187891439</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>68</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1061</v>
       </c>
@@ -1397,121 +1406,124 @@
         <v>370.5</v>
       </c>
       <c r="AU3">
+        <v>370.5</v>
+      </c>
+      <c r="AV3">
         <v>43</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>44</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>40</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>34</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>48</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>1.92</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>3.101</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>1.89</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>1.681</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>3.0870000000000002</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>16.899999999999999</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>13.42</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>9.6669999999999998</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>6.6989999999999998</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>48.37</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>52.1</v>
       </c>
-      <c r="BK3">
+      <c r="BL3">
         <v>88.9</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>93.4</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <v>98.2</v>
       </c>
-      <c r="BN3">
+      <c r="BO3">
         <v>98.8</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>100.4</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>82.5</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>86.7</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>92.5</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>94.3</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>101.7</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>85.9</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>90.7</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>97</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>98.1</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>101.7</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>1.7807999999999999</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>1.751032448377581</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>0.60589999999999999</v>
       </c>
-      <c r="CD3">
+      <c r="CE3">
         <v>0.59577187807276299</v>
       </c>
-      <c r="CE3">
+      <c r="CF3">
         <v>2.9390988611982181</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CG3" t="s">
         <v>68</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CH3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1062</v>
       </c>
@@ -1606,121 +1618,124 @@
         <v>90.333333333333329</v>
       </c>
       <c r="AU4">
+        <v>90.332999999999998</v>
+      </c>
+      <c r="AV4">
         <v>52.333333333333343</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>48</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>40</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>38.5</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>56.5</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>4.1539999999999999</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>2.879</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>1.9770000000000001</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>2.734</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>3.3439999999999999</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>10.37</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>12.76</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>11.56</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>9.4499999999999993</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <v>38.47</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>51.3</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <v>93.5</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>99.3</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <v>103</v>
       </c>
-      <c r="BN4">
+      <c r="BO4">
         <v>107</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>106.9</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>86.7</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>91.9</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>96.8</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>102.1</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>109.1</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>91.2</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>96.1</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>101.3</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>106.7</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>109.1</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>2.5185</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>2.308432630614115</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>0.74390000000000001</v>
       </c>
-      <c r="CD4">
+      <c r="CE4">
         <v>0.68185151237396879</v>
       </c>
-      <c r="CE4">
+      <c r="CF4">
         <v>3.3855356902809519</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CG4" t="s">
         <v>68</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CH4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1063</v>
       </c>
@@ -1764,115 +1779,118 @@
         <v>63</v>
       </c>
       <c r="AU5">
+        <v>63</v>
+      </c>
+      <c r="AV5">
         <v>41</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>50</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>64.5</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>63.5</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>42</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>2.3039999999999998</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.99519999999999997</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>1.381</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>4.3659999999999997</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>43.94</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>10.64</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>39.24</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>51.56</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <v>49.6</v>
       </c>
-      <c r="BK5">
+      <c r="BL5">
         <v>91.9</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>98.3</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <v>102.8</v>
       </c>
-      <c r="BN5">
+      <c r="BO5">
         <v>105</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>85.2</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>92.5</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>97.1</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>101</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>109.2</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>89</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>96.7</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>102.3</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>105.7</v>
       </c>
-      <c r="BY5">
+      <c r="BZ5">
         <v>109.2</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>2.5485000000000002</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>2.3337912087912089</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>0.86140000000000005</v>
       </c>
-      <c r="CD5">
+      <c r="CE5">
         <v>0.78882783882783891</v>
       </c>
-      <c r="CE5">
+      <c r="CF5">
         <v>2.9585558393313209</v>
       </c>
-      <c r="CG5" t="s">
+      <c r="CH5" t="s">
         <v>71</v>
       </c>
-      <c r="CH5" t="s">
+      <c r="CI5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1074</v>
       </c>
@@ -1967,121 +1985,124 @@
         <v>139.5</v>
       </c>
       <c r="AU6">
+        <v>139.5</v>
+      </c>
+      <c r="AV6">
         <v>171.33333333333329</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>51.5</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>55</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>46</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>38.5</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>7.3869999999999996</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>2.7650000000000001</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>1.3919999999999999</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>2.5710000000000002</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>1.81</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>8.1869999999999994</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>14.11</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>13.63</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>14.34</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <v>25.71</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <v>55.8</v>
       </c>
-      <c r="BK6">
+      <c r="BL6">
         <v>95.7</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <v>102.3</v>
       </c>
-      <c r="BM6">
+      <c r="BN6">
         <v>106.3</v>
       </c>
-      <c r="BN6">
+      <c r="BO6">
         <v>108.3</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <v>108.6</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>93.2</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>95.6</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>100.5</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <v>103.4</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <v>110.4</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <v>96.7</v>
       </c>
-      <c r="BV6">
+      <c r="BW6">
         <v>98.7</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>106.2</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>110.1</v>
       </c>
-      <c r="BY6">
+      <c r="BZ6">
         <v>110.4</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>2.5059999999999998</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>2.2699275362318838</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>0.71640000000000004</v>
       </c>
-      <c r="CD6">
+      <c r="CE6">
         <v>0.64891304347826084</v>
       </c>
-      <c r="CE6">
+      <c r="CF6">
         <v>3.4980457844779451</v>
       </c>
-      <c r="CF6" t="s">
+      <c r="CG6" t="s">
         <v>68</v>
       </c>
-      <c r="CG6" t="s">
+      <c r="CH6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1075</v>
       </c>
@@ -2170,121 +2191,124 @@
         <v>509</v>
       </c>
       <c r="AU7">
+        <v>509</v>
+      </c>
+      <c r="AV7">
         <v>77.25</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>105</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>67.5</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>61.5</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>169</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>2.0390000000000001</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>1.476</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>1.0629999999999999</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>1.603</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>1.8460000000000001</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>2.7080000000000002</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>2.2970000000000002</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>3.3730000000000002</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>3.0859999999999999</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <v>11.62</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>56.3</v>
       </c>
-      <c r="BK7">
+      <c r="BL7">
         <v>91.7</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <v>95.3</v>
       </c>
-      <c r="BM7">
+      <c r="BN7">
         <v>98.5</v>
       </c>
-      <c r="BN7">
+      <c r="BO7">
         <v>103.2</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <v>101.8</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>86.7</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>89.4</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>93</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <v>96.7</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <v>105.5</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <v>90.9</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
         <v>93.2</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>96.8</v>
       </c>
-      <c r="BX7">
+      <c r="BY7">
         <v>102.3</v>
       </c>
-      <c r="BY7">
+      <c r="BZ7">
         <v>105.5</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>1.3107</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>1.2423696682464449</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="CD7">
+      <c r="CE7">
         <v>0.56018957345971565</v>
       </c>
-      <c r="CE7">
+      <c r="CF7">
         <v>2.2177664974619291</v>
       </c>
-      <c r="CF7" t="s">
+      <c r="CG7" t="s">
         <v>69</v>
       </c>
-      <c r="CG7" t="s">
+      <c r="CH7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1076</v>
       </c>
@@ -2379,121 +2403,124 @@
         <v>435.5</v>
       </c>
       <c r="AU8">
+        <v>435.5</v>
+      </c>
+      <c r="AV8">
         <v>174.33333333333329</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>78.5</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>71</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>50.5</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>138</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>5.1829999999999998</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>2.09</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>1.2</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>1.8240000000000001</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>2.827</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>2.8450000000000002</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>3.6970000000000001</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>3.637</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <v>2.9369999999999998</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <v>16.37</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <v>60.7</v>
       </c>
-      <c r="BK8">
+      <c r="BL8">
         <v>95.4</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>99.1</v>
       </c>
-      <c r="BM8">
+      <c r="BN8">
         <v>106.3</v>
       </c>
-      <c r="BN8">
+      <c r="BO8">
         <v>112.6</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <v>110.7</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>93.1</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>94.9</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>99.5</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>105.5</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>112.1</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <v>95.2</v>
       </c>
-      <c r="BV8">
+      <c r="BW8">
         <v>100.7</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>103.2</v>
       </c>
-      <c r="BX8">
+      <c r="BY8">
         <v>110.3</v>
       </c>
-      <c r="BY8">
+      <c r="BZ8">
         <v>112.1</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>1.4332</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>1.27850133809099</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="CD8">
+      <c r="CE8">
         <v>0.62087421944692234</v>
       </c>
-      <c r="CE8">
+      <c r="CF8">
         <v>2.059195402298851</v>
       </c>
-      <c r="CF8" t="s">
+      <c r="CG8" t="s">
         <v>69</v>
       </c>
-      <c r="CG8" t="s">
+      <c r="CH8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
@@ -2537,115 +2564,118 @@
         <v>61</v>
       </c>
       <c r="AU9">
+        <v>61</v>
+      </c>
+      <c r="AV9">
         <v>50.25</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>56.5</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>41.5</v>
-      </c>
-      <c r="AX9">
-        <v>52</v>
       </c>
       <c r="AY9">
         <v>52</v>
       </c>
       <c r="AZ9">
+        <v>52</v>
+      </c>
+      <c r="BA9">
         <v>2.1320000000000001</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>1.875</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>1.29</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>1.9339999999999999</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>4.9509999999999996</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>10.52</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>12.96</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>4.5529999999999999</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <v>16.79</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <v>48.7</v>
       </c>
-      <c r="BK9">
+      <c r="BL9">
         <v>94.9</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>102</v>
       </c>
-      <c r="BM9">
+      <c r="BN9">
         <v>106</v>
       </c>
-      <c r="BN9">
+      <c r="BO9">
         <v>109.8</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>87.3</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>93.7</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <v>100.9</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <v>104.7</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>112.1</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <v>91.4</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>101</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>107.4</v>
       </c>
-      <c r="BX9">
+      <c r="BY9">
         <v>109.9</v>
       </c>
-      <c r="BY9">
+      <c r="BZ9">
         <v>112.1</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>1.9369000000000001</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>1.7278322925958971</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>0.77539999999999998</v>
       </c>
-      <c r="CD9">
+      <c r="CE9">
         <v>0.6917038358608385</v>
       </c>
-      <c r="CE9">
+      <c r="CF9">
         <v>2.4979365488779992</v>
       </c>
-      <c r="CG9" t="s">
+      <c r="CH9" t="s">
         <v>71</v>
       </c>
-      <c r="CH9" t="s">
+      <c r="CI9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1081</v>
       </c>
@@ -2734,121 +2764,124 @@
         <v>600</v>
       </c>
       <c r="AU10">
+        <v>600</v>
+      </c>
+      <c r="AV10">
         <v>57</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>66.75</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>73.5</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>63.5</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>171</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>4.5339999999999998</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>8.9130000000000003</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>2.2389999999999999</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>1.7250000000000001</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>3.96</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
         <v>6.798</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>5.1260000000000003</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <v>3.0009999999999999</v>
       </c>
-      <c r="BI10">
+      <c r="BJ10">
         <v>14.42</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10">
         <v>56.2</v>
       </c>
-      <c r="BK10">
+      <c r="BL10">
         <v>97.7</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <v>104</v>
       </c>
-      <c r="BM10">
+      <c r="BN10">
         <v>106.5</v>
       </c>
-      <c r="BN10">
+      <c r="BO10">
         <v>109.3</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <v>109.2</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>90.6</v>
       </c>
-      <c r="BQ10">
+      <c r="BR10">
         <v>95.1</v>
       </c>
-      <c r="BR10">
+      <c r="BS10">
         <v>99.6</v>
       </c>
-      <c r="BS10">
+      <c r="BT10">
         <v>102.9</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <v>113.2</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <v>95.8</v>
       </c>
-      <c r="BV10">
+      <c r="BW10">
         <v>100.1</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>106.1</v>
       </c>
-      <c r="BX10">
+      <c r="BY10">
         <v>108.3</v>
       </c>
-      <c r="BY10">
+      <c r="BZ10">
         <v>113.2</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>1.3511</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>1.193551236749117</v>
       </c>
-      <c r="CC10">
+      <c r="CD10">
         <v>0.62829999999999997</v>
       </c>
-      <c r="CD10">
+      <c r="CE10">
         <v>0.55503533568904595</v>
       </c>
-      <c r="CE10">
+      <c r="CF10">
         <v>2.150405857074646</v>
       </c>
-      <c r="CF10" t="s">
+      <c r="CG10" t="s">
         <v>69</v>
       </c>
-      <c r="CG10" t="s">
+      <c r="CH10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1082</v>
       </c>
@@ -2943,118 +2976,121 @@
         <v>537.5</v>
       </c>
       <c r="AU11">
+        <v>537.5</v>
+      </c>
+      <c r="AV11">
         <v>59</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>53.333333333333343</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>50</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>73.5</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>62</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>2.3239999999999998</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>1.119</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>1.389</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>1.2789999999999999</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>4.5880000000000001</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>2.9710000000000001</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>3.4649999999999999</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>2.145</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <v>13.01</v>
       </c>
-      <c r="BJ11">
+      <c r="BK11">
         <v>54.1</v>
       </c>
-      <c r="BK11">
+      <c r="BL11">
         <v>95.9</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>102</v>
       </c>
-      <c r="BM11">
+      <c r="BN11">
         <v>105.8</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <v>106.5</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>105.5</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>89.6</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>93.8</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>98.4</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <v>99.9</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>108.8</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>94.5</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>99.7</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>103.9</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>107.4</v>
       </c>
-      <c r="BY11">
+      <c r="BZ11">
         <v>108.8</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>0.89039999999999997</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>0.81838235294117645</v>
       </c>
-      <c r="CC11">
+      <c r="CD11">
         <v>0.65149999999999997</v>
       </c>
-      <c r="CD11">
+      <c r="CE11">
         <v>0.59880514705882348</v>
       </c>
-      <c r="CE11">
+      <c r="CF11">
         <v>1.3666922486569451</v>
       </c>
-      <c r="CF11" t="s">
+      <c r="CG11" t="s">
         <v>69</v>
       </c>
-      <c r="CG11" t="s">
+      <c r="CH11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1091</v>
       </c>
@@ -3149,121 +3185,124 @@
         <v>68</v>
       </c>
       <c r="AU12">
+        <v>68</v>
+      </c>
+      <c r="AV12">
         <v>53.333333333333343</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>63</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>48.5</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>63</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>72</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>0.95289999999999997</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>1.758</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>1.165</v>
       </c>
-      <c r="BC12">
+      <c r="BD12">
         <v>2.617</v>
       </c>
-      <c r="BD12">
+      <c r="BE12">
         <v>1.29</v>
       </c>
-      <c r="BE12">
+      <c r="BF12">
         <v>13.61</v>
       </c>
-      <c r="BF12">
+      <c r="BG12">
         <v>22.8</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
         <v>21.67</v>
       </c>
-      <c r="BH12">
+      <c r="BI12">
         <v>17.55</v>
       </c>
-      <c r="BI12">
+      <c r="BJ12">
         <v>8.2899999999999991</v>
       </c>
-      <c r="BJ12">
+      <c r="BK12">
         <v>41.1</v>
       </c>
-      <c r="BK12">
+      <c r="BL12">
         <v>78.5</v>
       </c>
-      <c r="BL12">
+      <c r="BM12">
         <v>83.1</v>
       </c>
-      <c r="BM12">
+      <c r="BN12">
         <v>87.3</v>
       </c>
-      <c r="BN12">
+      <c r="BO12">
         <v>89.5</v>
       </c>
-      <c r="BO12">
+      <c r="BP12">
         <v>89.6</v>
       </c>
-      <c r="BP12">
+      <c r="BQ12">
         <v>70.900000000000006</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>75.8</v>
       </c>
-      <c r="BR12">
+      <c r="BS12">
         <v>81.8</v>
       </c>
-      <c r="BS12">
+      <c r="BT12">
         <v>83.8</v>
       </c>
-      <c r="BT12">
+      <c r="BU12">
         <v>92.4</v>
       </c>
-      <c r="BU12">
+      <c r="BV12">
         <v>76.099999999999994</v>
       </c>
-      <c r="BV12">
+      <c r="BW12">
         <v>81.2</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>86.2</v>
       </c>
-      <c r="BX12">
+      <c r="BY12">
         <v>89</v>
       </c>
-      <c r="BY12">
+      <c r="BZ12">
         <v>92.4</v>
       </c>
-      <c r="CA12">
+      <c r="CB12">
         <v>1.4930000000000001</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>1.615800865800866</v>
       </c>
-      <c r="CC12">
+      <c r="CD12">
         <v>0.53539999999999999</v>
       </c>
-      <c r="CD12">
+      <c r="CE12">
         <v>0.57943722943722942</v>
       </c>
-      <c r="CE12">
+      <c r="CF12">
         <v>2.7885692939858049</v>
       </c>
-      <c r="CF12" t="s">
+      <c r="CG12" t="s">
         <v>70</v>
       </c>
-      <c r="CG12" t="s">
+      <c r="CH12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1092</v>
       </c>
@@ -3358,121 +3397,124 @@
         <v>44</v>
       </c>
       <c r="AU13">
+        <v>44</v>
+      </c>
+      <c r="AV13">
         <v>46</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>63.5</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>51.5</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>60</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>59.5</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>0.47449999999999998</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>1.18</v>
       </c>
-      <c r="BB13">
+      <c r="BC13">
         <v>1.0549999999999999</v>
       </c>
-      <c r="BC13">
+      <c r="BD13">
         <v>2.1230000000000002</v>
       </c>
-      <c r="BD13">
+      <c r="BE13">
         <v>3.29</v>
       </c>
-      <c r="BE13">
+      <c r="BF13">
         <v>8.5370000000000008</v>
       </c>
-      <c r="BF13">
+      <c r="BG13">
         <v>16.690000000000001</v>
       </c>
-      <c r="BG13">
+      <c r="BH13">
         <v>19.329999999999998</v>
       </c>
-      <c r="BH13">
+      <c r="BI13">
         <v>15.15</v>
       </c>
-      <c r="BI13">
+      <c r="BJ13">
         <v>30.05</v>
       </c>
-      <c r="BJ13">
+      <c r="BK13">
         <v>39.4</v>
       </c>
-      <c r="BK13">
+      <c r="BL13">
         <v>77.7</v>
       </c>
-      <c r="BL13">
+      <c r="BM13">
         <v>84.2</v>
       </c>
-      <c r="BM13">
+      <c r="BN13">
         <v>87.6</v>
       </c>
-      <c r="BN13">
+      <c r="BO13">
         <v>91</v>
       </c>
-      <c r="BO13">
+      <c r="BP13">
         <v>97.5</v>
       </c>
-      <c r="BP13">
+      <c r="BQ13">
         <v>69.7</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>75.099999999999994</v>
       </c>
-      <c r="BR13">
+      <c r="BS13">
         <v>84.2</v>
       </c>
-      <c r="BS13">
+      <c r="BT13">
         <v>84.5</v>
       </c>
-      <c r="BT13">
+      <c r="BU13">
         <v>98.3</v>
       </c>
-      <c r="BU13">
+      <c r="BV13">
         <v>73.2</v>
       </c>
-      <c r="BV13">
+      <c r="BW13">
         <v>80.2</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>88.5</v>
       </c>
-      <c r="BX13">
+      <c r="BY13">
         <v>89.5</v>
       </c>
-      <c r="BY13">
+      <c r="BZ13">
         <v>98.3</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>1.2902</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>1.312512716174975</v>
       </c>
-      <c r="CC13">
+      <c r="CD13">
         <v>0.63119999999999998</v>
       </c>
-      <c r="CD13">
+      <c r="CE13">
         <v>0.64211597151576805</v>
       </c>
-      <c r="CE13">
+      <c r="CF13">
         <v>2.04404309252218</v>
       </c>
-      <c r="CF13" t="s">
+      <c r="CG13" t="s">
         <v>70</v>
       </c>
-      <c r="CG13" t="s">
+      <c r="CH13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1093</v>
       </c>
@@ -3567,121 +3609,124 @@
         <v>65</v>
       </c>
       <c r="AU14">
+        <v>65</v>
+      </c>
+      <c r="AV14">
         <v>47</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>64</v>
-      </c>
-      <c r="AW14">
-        <v>56.5</v>
       </c>
       <c r="AX14">
         <v>56.5</v>
       </c>
       <c r="AY14">
+        <v>56.5</v>
+      </c>
+      <c r="AZ14">
         <v>50</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>0.89270000000000005</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>0.96940000000000004</v>
       </c>
-      <c r="BB14">
+      <c r="BC14">
         <v>1.2569999999999999</v>
       </c>
-      <c r="BC14">
+      <c r="BD14">
         <v>1.2490000000000001</v>
       </c>
-      <c r="BD14">
+      <c r="BE14">
         <v>1.107</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>11.06</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <v>11.14</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <v>12.91</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>9.3059999999999992</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14">
         <v>9.64</v>
       </c>
-      <c r="BJ14">
+      <c r="BK14">
         <v>41.3</v>
       </c>
-      <c r="BK14">
+      <c r="BL14">
         <v>78.5</v>
       </c>
-      <c r="BL14">
+      <c r="BM14">
         <v>82.9</v>
       </c>
-      <c r="BM14">
+      <c r="BN14">
         <v>87.2</v>
       </c>
-      <c r="BN14">
+      <c r="BO14">
         <v>91.3</v>
       </c>
-      <c r="BO14">
+      <c r="BP14">
         <v>92.3</v>
       </c>
-      <c r="BP14">
+      <c r="BQ14">
         <v>71.400000000000006</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>75.599999999999994</v>
       </c>
-      <c r="BR14">
+      <c r="BS14">
         <v>82.1</v>
       </c>
-      <c r="BS14">
+      <c r="BT14">
         <v>85.4</v>
       </c>
-      <c r="BT14">
+      <c r="BU14">
         <v>94.5</v>
       </c>
-      <c r="BU14">
+      <c r="BV14">
         <v>75.599999999999994</v>
       </c>
-      <c r="BV14">
+      <c r="BW14">
         <v>81</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>85.7</v>
       </c>
-      <c r="BX14">
+      <c r="BY14">
         <v>90.4</v>
       </c>
-      <c r="BY14">
+      <c r="BZ14">
         <v>94.5</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>1.1374</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>1.203597883597884</v>
       </c>
-      <c r="CC14">
+      <c r="CD14">
         <v>0.54620000000000002</v>
       </c>
-      <c r="CD14">
+      <c r="CE14">
         <v>0.57798941798941805</v>
       </c>
-      <c r="CE14">
+      <c r="CF14">
         <v>2.0823874038813619</v>
       </c>
-      <c r="CF14" t="s">
+      <c r="CG14" t="s">
         <v>70</v>
       </c>
-      <c r="CG14" t="s">
+      <c r="CH14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1094</v>
       </c>
@@ -3752,121 +3797,124 @@
         <v>70</v>
       </c>
       <c r="AU15">
+        <v>70</v>
+      </c>
+      <c r="AV15">
         <v>49.5</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>61.5</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>62.5</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>54</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>48</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>3.1339999999999999</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>1.165</v>
       </c>
-      <c r="BB15">
+      <c r="BC15">
         <v>0.97</v>
       </c>
-      <c r="BC15">
+      <c r="BD15">
         <v>1.0549999999999999</v>
       </c>
-      <c r="BD15">
+      <c r="BE15">
         <v>1.177</v>
       </c>
-      <c r="BE15">
+      <c r="BF15">
         <v>33.549999999999997</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
         <v>17.12</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <v>28.61</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <v>40.26</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <v>21.59</v>
       </c>
-      <c r="BJ15">
+      <c r="BK15">
         <v>40.200000000000003</v>
       </c>
-      <c r="BK15">
+      <c r="BL15">
         <v>80</v>
       </c>
-      <c r="BL15">
+      <c r="BM15">
         <v>85.1</v>
       </c>
-      <c r="BM15">
+      <c r="BN15">
         <v>89.5</v>
       </c>
-      <c r="BN15">
+      <c r="BO15">
         <v>93.9</v>
       </c>
-      <c r="BO15">
+      <c r="BP15">
         <v>94.4</v>
       </c>
-      <c r="BP15">
+      <c r="BQ15">
         <v>73.5</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>78.2</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>82.3</v>
       </c>
-      <c r="BS15">
+      <c r="BT15">
         <v>87.4</v>
       </c>
-      <c r="BT15">
+      <c r="BU15">
         <v>98</v>
       </c>
-      <c r="BU15">
+      <c r="BV15">
         <v>76.7</v>
       </c>
-      <c r="BV15">
+      <c r="BW15">
         <v>82.9</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>88.4</v>
       </c>
-      <c r="BX15">
+      <c r="BY15">
         <v>93.4</v>
       </c>
-      <c r="BY15">
+      <c r="BZ15">
         <v>98</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>1.5392999999999999</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>1.570714285714286</v>
       </c>
-      <c r="CC15">
+      <c r="CD15">
         <v>0.64100000000000001</v>
       </c>
-      <c r="CD15">
+      <c r="CE15">
         <v>0.65408163265306118</v>
       </c>
-      <c r="CE15">
+      <c r="CF15">
         <v>2.4014040561622472</v>
       </c>
-      <c r="CF15" t="s">
+      <c r="CG15" t="s">
         <v>70</v>
       </c>
-      <c r="CG15" t="s">
+      <c r="CH15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1095</v>
       </c>
@@ -3955,124 +4003,127 @@
         <v>61.5</v>
       </c>
       <c r="AU16">
+        <v>61.5</v>
+      </c>
+      <c r="AV16">
         <v>51</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>60.5</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>55</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>58</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>43</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>1.9330000000000001</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>2.5019999999999998</v>
       </c>
-      <c r="BB16">
+      <c r="BC16">
         <v>2.4929999999999999</v>
       </c>
-      <c r="BC16">
+      <c r="BD16">
         <v>3.1669999999999998</v>
       </c>
-      <c r="BD16">
+      <c r="BE16">
         <v>4.5250000000000004</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>23.9</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>20.58</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <v>21.4</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <v>27.74</v>
       </c>
-      <c r="BI16">
+      <c r="BJ16">
         <v>20.34</v>
       </c>
-      <c r="BJ16">
+      <c r="BK16">
         <v>42.7</v>
       </c>
-      <c r="BK16">
+      <c r="BL16">
         <v>82.5</v>
       </c>
-      <c r="BL16">
+      <c r="BM16">
         <v>87.6</v>
       </c>
-      <c r="BM16">
+      <c r="BN16">
         <v>90.9</v>
-      </c>
-      <c r="BN16">
-        <v>94.8</v>
       </c>
       <c r="BO16">
         <v>94.8</v>
       </c>
       <c r="BP16">
+        <v>94.8</v>
+      </c>
+      <c r="BQ16">
         <v>76.599999999999994</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>81.599999999999994</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>85.9</v>
       </c>
-      <c r="BS16">
+      <c r="BT16">
         <v>89.2</v>
       </c>
-      <c r="BT16">
+      <c r="BU16">
         <v>98.3</v>
       </c>
-      <c r="BU16">
+      <c r="BV16">
         <v>79.400000000000006</v>
       </c>
-      <c r="BV16">
+      <c r="BW16">
         <v>85.4</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>91.7</v>
       </c>
-      <c r="BX16">
+      <c r="BY16">
         <v>95</v>
       </c>
-      <c r="BY16">
+      <c r="BZ16">
         <v>98.3</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>1.7470000000000001</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>1.7772126144455751</v>
       </c>
-      <c r="CC16">
+      <c r="CD16">
         <v>0.64119999999999999</v>
       </c>
-      <c r="CD16">
+      <c r="CE16">
         <v>0.65228891149542223</v>
       </c>
-      <c r="CE16">
+      <c r="CF16">
         <v>2.7245789145352459</v>
       </c>
-      <c r="CF16" t="s">
+      <c r="CG16" t="s">
         <v>70</v>
       </c>
-      <c r="CG16" t="s">
+      <c r="CH16" t="s">
         <v>74</v>
       </c>
-      <c r="CH16" t="s">
+      <c r="CI16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1096</v>
       </c>
@@ -4161,121 +4212,124 @@
         <v>102</v>
       </c>
       <c r="AU17">
+        <v>102</v>
+      </c>
+      <c r="AV17">
         <v>39.5</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>55</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>76.333333333333329</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>63.333333333333343</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>58.5</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>2.5179999999999998</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>3.536</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>3.6419999999999999</v>
       </c>
-      <c r="BC17">
+      <c r="BD17">
         <v>2.3290000000000002</v>
       </c>
-      <c r="BD17">
+      <c r="BE17">
         <v>4.0149999999999997</v>
       </c>
-      <c r="BE17">
+      <c r="BF17">
         <v>17.88</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
         <v>11.58</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <v>6.57</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <v>14.57</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <v>37.17</v>
       </c>
-      <c r="BJ17">
+      <c r="BK17">
         <v>45.1</v>
       </c>
-      <c r="BK17">
+      <c r="BL17">
         <v>93.2</v>
       </c>
-      <c r="BL17">
+      <c r="BM17">
         <v>95.4</v>
       </c>
-      <c r="BM17">
+      <c r="BN17">
         <v>93.1</v>
       </c>
-      <c r="BN17">
+      <c r="BO17">
         <v>99.3</v>
       </c>
-      <c r="BO17">
+      <c r="BP17">
         <v>100.6</v>
       </c>
-      <c r="BP17">
+      <c r="BQ17">
         <v>83</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>88.5</v>
       </c>
-      <c r="BR17">
+      <c r="BS17">
         <v>93.6</v>
       </c>
-      <c r="BS17">
+      <c r="BT17">
         <v>90.5</v>
       </c>
-      <c r="BT17">
+      <c r="BU17">
         <v>104.4</v>
       </c>
-      <c r="BU17">
+      <c r="BV17">
         <v>86.5</v>
       </c>
-      <c r="BV17">
+      <c r="BW17">
         <v>94.7</v>
       </c>
-      <c r="BW17">
+      <c r="BX17">
         <v>98.5</v>
       </c>
-      <c r="BX17">
+      <c r="BY17">
         <v>97.4</v>
       </c>
-      <c r="BY17">
+      <c r="BZ17">
         <v>104.4</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>1.1691</v>
       </c>
-      <c r="CB17">
+      <c r="CC17">
         <v>1.119827586206896</v>
       </c>
-      <c r="CC17">
+      <c r="CD17">
         <v>0.60140000000000005</v>
       </c>
-      <c r="CD17">
+      <c r="CE17">
         <v>0.57605363984674329</v>
       </c>
-      <c r="CE17">
+      <c r="CF17">
         <v>1.9439640838044561</v>
       </c>
-      <c r="CF17" t="s">
+      <c r="CG17" t="s">
         <v>70</v>
       </c>
-      <c r="CG17" t="s">
+      <c r="CH17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
@@ -4309,38 +4363,38 @@
       <c r="AB18">
         <v>78.5</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>61.333333333333343</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>58</v>
       </c>
-      <c r="BJ18">
+      <c r="BK18">
         <v>41.2</v>
       </c>
-      <c r="BK18">
+      <c r="BL18">
         <v>92.4</v>
       </c>
-      <c r="BL18">
+      <c r="BM18">
         <v>95.9</v>
       </c>
-      <c r="BP18">
+      <c r="BQ18">
         <v>85</v>
       </c>
-      <c r="BQ18">
+      <c r="BR18">
         <v>89.4</v>
       </c>
-      <c r="BU18">
+      <c r="BV18">
         <v>89.7</v>
       </c>
-      <c r="BV18">
+      <c r="BW18">
         <v>94.2</v>
       </c>
-      <c r="CH18" t="s">
+      <c r="CI18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1101</v>
       </c>
@@ -4432,118 +4486,121 @@
         <v>505.5</v>
       </c>
       <c r="AU19">
+        <v>505.5</v>
+      </c>
+      <c r="AV19">
         <v>40.75</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>43</v>
       </c>
-      <c r="AW19">
+      <c r="AX19">
         <v>44.5</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>66.5</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>64.5</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>2.2879999999999998</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>1.5840000000000001</v>
       </c>
-      <c r="BB19">
+      <c r="BC19">
         <v>1.982</v>
       </c>
-      <c r="BC19">
+      <c r="BD19">
         <v>1.2749999999999999</v>
       </c>
-      <c r="BD19">
+      <c r="BE19">
         <v>0.98180000000000001</v>
       </c>
-      <c r="BE19">
+      <c r="BF19">
         <v>3.1219999999999999</v>
       </c>
-      <c r="BF19">
+      <c r="BG19">
         <v>4.12</v>
       </c>
-      <c r="BG19">
+      <c r="BH19">
         <v>3.5129999999999999</v>
       </c>
-      <c r="BH19">
+      <c r="BI19">
         <v>0.59750000000000003</v>
       </c>
-      <c r="BI19">
+      <c r="BJ19">
         <v>13.49</v>
       </c>
-      <c r="BJ19">
+      <c r="BK19">
         <v>41</v>
       </c>
-      <c r="BK19">
+      <c r="BL19">
         <v>96</v>
       </c>
-      <c r="BL19">
+      <c r="BM19">
         <v>102.2</v>
       </c>
-      <c r="BM19">
+      <c r="BN19">
         <v>107.8</v>
       </c>
-      <c r="BN19">
+      <c r="BO19">
         <v>109.7</v>
       </c>
-      <c r="BP19">
+      <c r="BQ19">
         <v>88.2</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>92.4</v>
       </c>
-      <c r="BR19">
+      <c r="BS19">
         <v>100.7</v>
       </c>
-      <c r="BS19">
+      <c r="BT19">
         <v>102</v>
       </c>
-      <c r="BT19">
+      <c r="BU19">
         <v>110.5</v>
       </c>
-      <c r="BU19">
+      <c r="BV19">
         <v>93.1</v>
       </c>
-      <c r="BV19">
+      <c r="BW19">
         <v>98.7</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>108</v>
       </c>
-      <c r="BX19">
+      <c r="BY19">
         <v>109.5</v>
       </c>
-      <c r="BY19">
+      <c r="BZ19">
         <v>110.5</v>
       </c>
-      <c r="CA19">
+      <c r="CB19">
         <v>0.92620000000000002</v>
       </c>
-      <c r="CB19">
+      <c r="CC19">
         <v>0.83819004524886886</v>
       </c>
-      <c r="CC19">
+      <c r="CD19">
         <v>0.62160000000000004</v>
       </c>
-      <c r="CD19">
+      <c r="CE19">
         <v>0.5625339366515838</v>
       </c>
-      <c r="CE19">
+      <c r="CF19">
         <v>1.49002574002574</v>
       </c>
-      <c r="CF19" t="s">
+      <c r="CG19" t="s">
         <v>68</v>
       </c>
-      <c r="CG19" t="s">
+      <c r="CH19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1102</v>
       </c>
@@ -4635,118 +4692,121 @@
         <v>338.5</v>
       </c>
       <c r="AU20">
+        <v>338.5</v>
+      </c>
+      <c r="AV20">
         <v>39.333333333333343</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>41</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>43.333333333333343</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>47</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>48.5</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>2.4359999999999999</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>2.633</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>2.8140000000000001</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>3.1589999999999998</v>
       </c>
-      <c r="BD20">
+      <c r="BE20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>8.5739999999999998</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <v>5.4329999999999998</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <v>9.1509999999999998</v>
       </c>
-      <c r="BH20">
+      <c r="BI20">
         <v>6.9089999999999998</v>
       </c>
-      <c r="BI20">
+      <c r="BJ20">
         <v>27.69</v>
       </c>
-      <c r="BJ20">
+      <c r="BK20">
         <v>48</v>
       </c>
-      <c r="BK20">
+      <c r="BL20">
         <v>104.2</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <v>109.6</v>
       </c>
-      <c r="BM20">
+      <c r="BN20">
         <v>116.6</v>
       </c>
-      <c r="BN20">
+      <c r="BO20">
         <v>112.9</v>
       </c>
-      <c r="BP20">
+      <c r="BQ20">
         <v>95</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>99</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>107.9</v>
       </c>
-      <c r="BS20">
+      <c r="BT20">
         <v>111.9</v>
       </c>
-      <c r="BT20">
+      <c r="BU20">
         <v>121.3</v>
       </c>
-      <c r="BU20">
+      <c r="BV20">
         <v>98.2</v>
       </c>
-      <c r="BV20">
+      <c r="BW20">
         <v>105.5</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>114.3</v>
       </c>
-      <c r="BX20">
+      <c r="BY20">
         <v>117.6</v>
       </c>
-      <c r="BY20">
+      <c r="BZ20">
         <v>121.3</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>1.7053</v>
       </c>
-      <c r="CB20">
+      <c r="CC20">
         <v>1.405853256389118</v>
       </c>
-      <c r="CC20">
+      <c r="CD20">
         <v>0.878</v>
       </c>
-      <c r="CD20">
+      <c r="CE20">
         <v>0.72382522671063476</v>
       </c>
-      <c r="CE20">
+      <c r="CF20">
         <v>1.942255125284738</v>
       </c>
-      <c r="CF20" t="s">
+      <c r="CG20" t="s">
         <v>68</v>
       </c>
-      <c r="CG20" t="s">
+      <c r="CH20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -4828,8 +4888,11 @@
       <c r="AQ21">
         <v>315</v>
       </c>
+      <c r="AU21">
+        <v>315</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1728</v>
       </c>
@@ -4911,8 +4974,11 @@
       <c r="AQ22">
         <v>353</v>
       </c>
+      <c r="AU22">
+        <v>353</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1731</v>
       </c>
@@ -5003,8 +5069,11 @@
       <c r="AT23">
         <v>87.5</v>
       </c>
+      <c r="AU23">
+        <v>87.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1732</v>
       </c>
@@ -5074,8 +5143,11 @@
       <c r="AQ24">
         <v>210</v>
       </c>
+      <c r="AU24">
+        <v>210</v>
+      </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1735</v>
       </c>
@@ -5163,8 +5235,11 @@
       <c r="AS25">
         <v>224.5</v>
       </c>
+      <c r="AU25">
+        <v>224.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1741</v>
       </c>
@@ -5243,8 +5318,11 @@
       <c r="AP26">
         <v>243</v>
       </c>
+      <c r="AU26">
+        <v>243</v>
+      </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1746</v>
       </c>
@@ -5335,8 +5413,11 @@
       <c r="AT27">
         <v>116</v>
       </c>
+      <c r="AU27">
+        <v>116</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1748</v>
       </c>
@@ -5424,8 +5505,11 @@
       <c r="AS28">
         <v>246.5</v>
       </c>
+      <c r="AU28">
+        <v>246.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1742</v>
       </c>
@@ -5504,8 +5588,11 @@
       <c r="AP29">
         <v>91</v>
       </c>
+      <c r="AU29">
+        <v>91</v>
+      </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:87" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1743</v>
       </c>
@@ -5578,8 +5665,11 @@
       <c r="AP30">
         <v>84</v>
       </c>
+      <c r="AU30">
+        <v>84</v>
+      </c>
     </row>
-    <row r="31" spans="1:86" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:87" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1754</v>
       </c>
@@ -5664,6 +5754,9 @@
         <v>93</v>
       </c>
       <c r="AO31" s="4">
+        <v>106</v>
+      </c>
+      <c r="AU31">
         <v>106</v>
       </c>
     </row>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527EEFAB-5C34-4FB9-B42C-F9287BEE2CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544AAFCE-C208-47B5-8AF0-83E84B2BAA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4900" yWindow="4900" windowWidth="5790" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>Date of birth</t>
   </si>
@@ -372,40 +372,43 @@
     <t>30wk</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>original</t>
   </si>
   <si>
     <t>lastRBG</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -825,8 +828,8 @@
   <dimension ref="A1:CI31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL16" sqref="AL16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>93</v>
@@ -982,7 +985,7 @@
         <v>109</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>24</v>
@@ -4817,7 +4820,7 @@
         <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -4903,7 +4906,7 @@
         <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4989,7 +4992,7 @@
         <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5084,7 +5087,7 @@
         <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5158,7 +5161,7 @@
         <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5250,7 +5253,7 @@
         <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -5333,7 +5336,7 @@
         <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -5428,7 +5431,7 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -5520,7 +5523,7 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -5603,7 +5606,7 @@
         <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -5680,7 +5683,7 @@
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -5796,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>93</v>

--- a/data/metadata/animal_phenotypes.xlsx
+++ b/data/metadata/animal_phenotypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544AAFCE-C208-47B5-8AF0-83E84B2BAA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9CE46-7F3B-4B0B-92D2-82EAA7EC57F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="4900" windowWidth="5790" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5240" yWindow="5240" windowWidth="5790" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E37" sqref="E37"/>
+      <selection pane="topRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
